--- a/data/hotels_by_city/Dallas/Dallas_shard_678.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_678.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2252 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r583772365-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>55870</t>
+  </si>
+  <si>
+    <t>816731</t>
+  </si>
+  <si>
+    <t>583772365</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable beds!</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Sheraton Stonebriar in Frisco over Memorial Day. The room was nice and clean, it had a small refrigerator inside the tv stand/dresser combo. It was about a 25 minute drive to downtown however it is about 5 minutes from a decent size mall and restaurants. The bedding was the highlight for me. My room was a 2 double however the weight of the comforter and the plushness of the mattress was a welcoming feeling all 3 nights I stayed at the Sheraton. If I was in the area I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stonebriar, Director of Sales at Sheraton Stonebriar Hotel, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Sheraton Stonebriar in Frisco over Memorial Day. The room was nice and clean, it had a small refrigerator inside the tv stand/dresser combo. It was about a 25 minute drive to downtown however it is about 5 minutes from a decent size mall and restaurants. The bedding was the highlight for me. My room was a 2 double however the weight of the comforter and the plushness of the mattress was a welcoming feeling all 3 nights I stayed at the Sheraton. If I was in the area I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r572555312-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>572555312</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Doubt I would go back</t>
+  </si>
+  <si>
+    <t>It all started off good.  The front desk was nice and tried to get me checked in early. It all went down hill from there.  The space tries to emulate a loft or maybe courtyard but misses the mark. In the business center I couldn’t find a plug. That’s practically a disaster these days. Laptop bar with no desk.  I had no room so no wifi. I had to walk back to the front desk twice to get the password.  Meanwhile I was getting 10,000 messages the work day just started. They did get me my key but an arrogant millennial said you are in the south tower. As if I know where the south tower is??? I had to hunt around and ask again as my phone pinged in my pocket reminding me that I need a plug.  The room was nice and a huge comfortable Sheraton heavenly bed.  Plugs!  Nice laptop desk, worked straight through lunch.  Room service salad was decent but the attendant walks in and hands me the bill ‘can you sign this?’ she barks.  Dang! Then on top of the service fee there is a space for ‘gratuity’ for a rude server? Well this headache is not going anywhere so maybe just a bath... I head to the bathroom and there is only a shower!!!! This business trip is heading south quick. Luckily they had bottles of water. I passed out early hoping the headache...It all started off good.  The front desk was nice and tried to get me checked in early. It all went down hill from there.  The space tries to emulate a loft or maybe courtyard but misses the mark. In the business center I couldn’t find a plug. That’s practically a disaster these days. Laptop bar with no desk.  I had no room so no wifi. I had to walk back to the front desk twice to get the password.  Meanwhile I was getting 10,000 messages the work day just started. They did get me my key but an arrogant millennial said you are in the south tower. As if I know where the south tower is??? I had to hunt around and ask again as my phone pinged in my pocket reminding me that I need a plug.  The room was nice and a huge comfortable Sheraton heavenly bed.  Plugs!  Nice laptop desk, worked straight through lunch.  Room service salad was decent but the attendant walks in and hands me the bill ‘can you sign this?’ she barks.  Dang! Then on top of the service fee there is a space for ‘gratuity’ for a rude server? Well this headache is not going anywhere so maybe just a bath... I head to the bathroom and there is only a shower!!!! This business trip is heading south quick. Luckily they had bottles of water. I passed out early hoping the headache would go away.  At 2:00am someone wakes me up pounding on my door.  I was not going to open it.  I call the front desk. They said a smoke alarm went off they wanted to see how I was.  Luckily Sheraton still has a heavenly bed because the rest was no fun.  The breakfast in the cold &amp; uncomfortable lounge was 14.95. I passed. Can’t recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stonebriar, General Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>It all started off good.  The front desk was nice and tried to get me checked in early. It all went down hill from there.  The space tries to emulate a loft or maybe courtyard but misses the mark. In the business center I couldn’t find a plug. That’s practically a disaster these days. Laptop bar with no desk.  I had no room so no wifi. I had to walk back to the front desk twice to get the password.  Meanwhile I was getting 10,000 messages the work day just started. They did get me my key but an arrogant millennial said you are in the south tower. As if I know where the south tower is??? I had to hunt around and ask again as my phone pinged in my pocket reminding me that I need a plug.  The room was nice and a huge comfortable Sheraton heavenly bed.  Plugs!  Nice laptop desk, worked straight through lunch.  Room service salad was decent but the attendant walks in and hands me the bill ‘can you sign this?’ she barks.  Dang! Then on top of the service fee there is a space for ‘gratuity’ for a rude server? Well this headache is not going anywhere so maybe just a bath... I head to the bathroom and there is only a shower!!!! This business trip is heading south quick. Luckily they had bottles of water. I passed out early hoping the headache...It all started off good.  The front desk was nice and tried to get me checked in early. It all went down hill from there.  The space tries to emulate a loft or maybe courtyard but misses the mark. In the business center I couldn’t find a plug. That’s practically a disaster these days. Laptop bar with no desk.  I had no room so no wifi. I had to walk back to the front desk twice to get the password.  Meanwhile I was getting 10,000 messages the work day just started. They did get me my key but an arrogant millennial said you are in the south tower. As if I know where the south tower is??? I had to hunt around and ask again as my phone pinged in my pocket reminding me that I need a plug.  The room was nice and a huge comfortable Sheraton heavenly bed.  Plugs!  Nice laptop desk, worked straight through lunch.  Room service salad was decent but the attendant walks in and hands me the bill ‘can you sign this?’ she barks.  Dang! Then on top of the service fee there is a space for ‘gratuity’ for a rude server? Well this headache is not going anywhere so maybe just a bath... I head to the bathroom and there is only a shower!!!! This business trip is heading south quick. Luckily they had bottles of water. I passed out early hoping the headache would go away.  At 2:00am someone wakes me up pounding on my door.  I was not going to open it.  I call the front desk. They said a smoke alarm went off they wanted to see how I was.  Luckily Sheraton still has a heavenly bed because the rest was no fun.  The breakfast in the cold &amp; uncomfortable lounge was 14.95. I passed. Can’t recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r568810831-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>568810831</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Decent Stay - Typical Sheraton</t>
+  </si>
+  <si>
+    <t>I stayed at the Sheraton Stonebriar when traveling in the Plano area for work.  There isn't much that is fancy about the hotel - it's your typical Sheraton - but the room was nice, big and clean.  The executive lounge was one of the smaller ones I have seen, and could use an upgrade, but the staff was very helpful and pleasant and the location is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Stonebriar, General Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the Sheraton Stonebriar when traveling in the Plano area for work.  There isn't much that is fancy about the hotel - it's your typical Sheraton - but the room was nice, big and clean.  The executive lounge was one of the smaller ones I have seen, and could use an upgrade, but the staff was very helpful and pleasant and the location is convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r537775051-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>537775051</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Why would you spend money here</t>
+  </si>
+  <si>
+    <t>After my initial review post was taken down based  on protest by the hotel as Tripadvisor doesn’t allow me to share the awful experience my partner had at this hotel, I now will share with you, tripadvisor reader, my experience with this hotel. Let me start by saying that as a hotel owner of multiple award winning properties it is painful to watch this hotel being more concerned about trying to remove negative reviews instead of focusing on guest experience. I decided to send my partner a bottle of wine after a few less than pleasant experiences at this hotel and was welcomed with full resistance, unkindness and unprofessionalism rarely seen at a Starwood hotel. Not only was this hotel unable to properly answer a phone, direct me to the correct department and take a credit card for a approximately $50 bottle of wine I wanted to send to my partner’s room. It was  done in a manner where lying about Starwood policies and bs stories were told to hide the incompetence of evening managers and totally unworkable procedures under the pretense that it was to protect the guest. Long story short the hotel could not take a credit card over the phone because according to this hotel it was not in compliance with SPG regulations, instead they had to send a credit card authorization form which they couldn’t send  because the department who sends credit card authorization forms was...After my initial review post was taken down based  on protest by the hotel as Tripadvisor doesn’t allow me to share the awful experience my partner had at this hotel, I now will share with you, tripadvisor reader, my experience with this hotel. Let me start by saying that as a hotel owner of multiple award winning properties it is painful to watch this hotel being more concerned about trying to remove negative reviews instead of focusing on guest experience. I decided to send my partner a bottle of wine after a few less than pleasant experiences at this hotel and was welcomed with full resistance, unkindness and unprofessionalism rarely seen at a Starwood hotel. Not only was this hotel unable to properly answer a phone, direct me to the correct department and take a credit card for a approximately $50 bottle of wine I wanted to send to my partner’s room. It was  done in a manner where lying about Starwood policies and bs stories were told to hide the incompetence of evening managers and totally unworkable procedures under the pretense that it was to protect the guest. Long story short the hotel could not take a credit card over the phone because according to this hotel it was not in compliance with SPG regulations, instead they had to send a credit card authorization form which they couldn’t send  because the department who sends credit card authorization forms was closed and they didn’t want to take a risk on using a credit card for a $50 bottle of wine (which would be purchased for around $15 by the hotel) to be send to the room of my partner to cheer him up a bit because he felt miserable at this hotel. I will make sure that he will review your hotel separately but based on MY interaction with this hotel it is easy to say that this must be one of those properties that puts SPG to shame. Sincerely, a SPG platinum member, and owner of a top 100 best hotels in the world awarded hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Stonebriar, Public Relations Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>After my initial review post was taken down based  on protest by the hotel as Tripadvisor doesn’t allow me to share the awful experience my partner had at this hotel, I now will share with you, tripadvisor reader, my experience with this hotel. Let me start by saying that as a hotel owner of multiple award winning properties it is painful to watch this hotel being more concerned about trying to remove negative reviews instead of focusing on guest experience. I decided to send my partner a bottle of wine after a few less than pleasant experiences at this hotel and was welcomed with full resistance, unkindness and unprofessionalism rarely seen at a Starwood hotel. Not only was this hotel unable to properly answer a phone, direct me to the correct department and take a credit card for a approximately $50 bottle of wine I wanted to send to my partner’s room. It was  done in a manner where lying about Starwood policies and bs stories were told to hide the incompetence of evening managers and totally unworkable procedures under the pretense that it was to protect the guest. Long story short the hotel could not take a credit card over the phone because according to this hotel it was not in compliance with SPG regulations, instead they had to send a credit card authorization form which they couldn’t send  because the department who sends credit card authorization forms was...After my initial review post was taken down based  on protest by the hotel as Tripadvisor doesn’t allow me to share the awful experience my partner had at this hotel, I now will share with you, tripadvisor reader, my experience with this hotel. Let me start by saying that as a hotel owner of multiple award winning properties it is painful to watch this hotel being more concerned about trying to remove negative reviews instead of focusing on guest experience. I decided to send my partner a bottle of wine after a few less than pleasant experiences at this hotel and was welcomed with full resistance, unkindness and unprofessionalism rarely seen at a Starwood hotel. Not only was this hotel unable to properly answer a phone, direct me to the correct department and take a credit card for a approximately $50 bottle of wine I wanted to send to my partner’s room. It was  done in a manner where lying about Starwood policies and bs stories were told to hide the incompetence of evening managers and totally unworkable procedures under the pretense that it was to protect the guest. Long story short the hotel could not take a credit card over the phone because according to this hotel it was not in compliance with SPG regulations, instead they had to send a credit card authorization form which they couldn’t send  because the department who sends credit card authorization forms was closed and they didn’t want to take a risk on using a credit card for a $50 bottle of wine (which would be purchased for around $15 by the hotel) to be send to the room of my partner to cheer him up a bit because he felt miserable at this hotel. I will make sure that he will review your hotel separately but based on MY interaction with this hotel it is easy to say that this must be one of those properties that puts SPG to shame. Sincerely, a SPG platinum member, and owner of a top 100 best hotels in the world awarded hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r532376736-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>532376736</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel in the middle of booming Frisco</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, surrounded by great restaurants and just around the corner from The Star and all the shopping at Stonebriar.  You also are walking distance to Stonebriar CC and its fantastic golf course.  If you have an event in Frisco, its a really great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stonebriar, Director of Sales at Sheraton Stonebriar Hotel, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, surrounded by great restaurants and just around the corner from The Star and all the shopping at Stonebriar.  You also are walking distance to Stonebriar CC and its fantastic golf course.  If you have an event in Frisco, its a really great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r525210999-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>525210999</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Average for a Sheraton</t>
+  </si>
+  <si>
+    <t>I am a SPG member and found this Sheraton to be average in terms of general hotels but below average for SPG expectations. The rooms are dark, the service is subpar but the location is convenient to a couple of restaurants. When I checked in, I was given a room on the first floor facing the freeway which was really disappointing considering I've often been upgraded. I didn't find the staff to be especially helpful or friendly in term of in/out greeting. You don't realize how much that adds to a hotel experience until it's a missed mark.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stonebriar, Guest Relations Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>I am a SPG member and found this Sheraton to be average in terms of general hotels but below average for SPG expectations. The rooms are dark, the service is subpar but the location is convenient to a couple of restaurants. When I checked in, I was given a room on the first floor facing the freeway which was really disappointing considering I've often been upgraded. I didn't find the staff to be especially helpful or friendly in term of in/out greeting. You don't realize how much that adds to a hotel experience until it's a missed mark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r504846512-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>504846512</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty Good all around. Good value. </t>
+  </si>
+  <si>
+    <t>This is what you'd expect from a Sheraton. Pretty good level of services. Decent lobby bar. Decent Gym. Good location for meetings. I wouldn't exactly classify this as a vacation place. Good walking to restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Stonebriar, Director of Sales at Sheraton Stonebriar Hotel, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>This is what you'd expect from a Sheraton. Pretty good level of services. Decent lobby bar. Decent Gym. Good location for meetings. I wouldn't exactly classify this as a vacation place. Good walking to restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r504574629-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>504574629</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Nicer than you would expect</t>
+  </si>
+  <si>
+    <t>Pros:- Super comfy bed with the most the most comfy pillows- Very well kept, looks very new and modern- Close to a lot of restaurants- Friendly staff- Close to the office areaCons:- No real consThe hotel is very nice, looks very new and very well kept. It's close to all the offices and there are a lot of restaurants in the area. It's also very competitively priced. I would highly recommend this hotel and would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:- Super comfy bed with the most the most comfy pillows- Very well kept, looks very new and modern- Close to a lot of restaurants- Friendly staff- Close to the office areaCons:- No real consThe hotel is very nice, looks very new and very well kept. It's close to all the offices and there are a lot of restaurants in the area. It's also very competitively priced. I would highly recommend this hotel and would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r504470816-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>504470816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally amazed </t>
+  </si>
+  <si>
+    <t>Basketball tournament weekend for my son and I wanted to stay close to the gym but also be able to relax. The location was so convenient,with great food options within walking distance. The room were originally placed in was nice and I would have loved it for myself or a couples trip. I went to talk to the front desk and they sooooo nicely upgraded up to a suite. Now not only do we have a lovely space for the weekend, but we can relax and enjoy. MoreShow less</t>
+  </si>
+  <si>
+    <t>Basketball tournament weekend for my son and I wanted to stay close to the gym but also be able to relax. The location was so convenient,with great food options within walking distance. The room were originally placed in was nice and I would have loved it for myself or a couples trip. I went to talk to the front desk and they sooooo nicely upgraded up to a suite. Now not only do we have a lovely space for the weekend, but we can relax and enjoy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r492824189-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>492824189</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>Stayed here for the first time and was in town for our board of directors and sales meeting. The front desk and all the staff were very helpful especially where to eat.The rooms were very comfortable and modern. Though I did not eat breakfast in the lobby the menu looked great. the conference staff attendance did a wonderful job making sure we were stocked with drinks, snacks and our lunch and breakfast items all 4 days. There are a number of great restaurants within very short walking distance from the hotel.Very nice property and if you need a hotel in the Frisco area I would highly recommend this property!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Stonebriar, Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for the first time and was in town for our board of directors and sales meeting. The front desk and all the staff were very helpful especially where to eat.The rooms were very comfortable and modern. Though I did not eat breakfast in the lobby the menu looked great. the conference staff attendance did a wonderful job making sure we were stocked with drinks, snacks and our lunch and breakfast items all 4 days. There are a number of great restaurants within very short walking distance from the hotel.Very nice property and if you need a hotel in the Frisco area I would highly recommend this property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r491974045-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>491974045</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Great location and service</t>
+  </si>
+  <si>
+    <t>Stayed here for 10 days on a business trip to Plano. Great location with quite a few restaurants just across the street. Breakfast menu and Sheraton club services were great. They have a free shuttle services to all offices nearby. This is a popular hotel and getting reservations can be difficult. Book in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Stonebriar, Director of Sales at Sheraton Stonebriar Hotel, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 10 days on a business trip to Plano. Great location with quite a few restaurants just across the street. Breakfast menu and Sheraton club services were great. They have a free shuttle services to all offices nearby. This is a popular hotel and getting reservations can be difficult. Book in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r486135782-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>486135782</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Spent one night here on business.  Late check-in.  Warm greeting at front desk, offered extra waters and given a good explanation of breakfast options.  Upgraded to an oversized 2 room suite; although modest ((fiberglass shower floor, no shower door) all items worked well and were in good condition.  Comfy bed, good AC.  Breakfast buffet was okay.  For 1/2 the price of the Marriott, I'll stay here unless I have to walk to dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stonebriar, Director of Sales at Sheraton Stonebriar Hotel, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Spent one night here on business.  Late check-in.  Warm greeting at front desk, offered extra waters and given a good explanation of breakfast options.  Upgraded to an oversized 2 room suite; although modest ((fiberglass shower floor, no shower door) all items worked well and were in good condition.  Comfy bed, good AC.  Breakfast buffet was okay.  For 1/2 the price of the Marriott, I'll stay here unless I have to walk to dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r463788041-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>463788041</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Superior service</t>
+  </si>
+  <si>
+    <t>The room was beyond comfortable. The staff was incredibly kind and helpful.I was here on business but brought my family with me. My boys were well received and enjoyed their stay as well. I wouldn't hesitate to stay at this impeccable property during my next visit to the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>The room was beyond comfortable. The staff was incredibly kind and helpful.I was here on business but brought my family with me. My boys were well received and enjoyed their stay as well. I wouldn't hesitate to stay at this impeccable property during my next visit to the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r463271733-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>463271733</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights on Feb 22nd and 23rd -we were in room 202.  The King size bed was very comfortable.  Pretty basic room-coffee maker with condiments was nice.  The hotel was not loud-we were by the freeway and there was construction across the street-but it was not very loud at all.  Was not able to enjoy any of the hotel amenities like the fitness room but the photos looked nice.  We did sip drinks at the lobby bar and the bartender was very nice and efficient.  We would definitely stay here again.  There is no valet-just self park which was no big deal.  There are several restaurants within a very short walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights on Feb 22nd and 23rd -we were in room 202.  The King size bed was very comfortable.  Pretty basic room-coffee maker with condiments was nice.  The hotel was not loud-we were by the freeway and there was construction across the street-but it was not very loud at all.  Was not able to enjoy any of the hotel amenities like the fitness room but the photos looked nice.  We did sip drinks at the lobby bar and the bartender was very nice and efficient.  We would definitely stay here again.  There is no valet-just self park which was no big deal.  There are several restaurants within a very short walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r457554378-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>457554378</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised  </t>
+  </si>
+  <si>
+    <t>Great value for the money, services were adequate the rooms were clean the service was prompt and friendly. I think dollar 4 dollar this is the best value in the area.  The restaurant and bar offered everything you would want or need. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Great value for the money, services were adequate the rooms were clean the service was prompt and friendly. I think dollar 4 dollar this is the best value in the area.  The restaurant and bar offered everything you would want or need. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r439038738-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>439038738</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>BEDBUGS...BEWARE!</t>
+  </si>
+  <si>
+    <t>The day after I stayed here, I noticed numerous bites on my body/face which seems to be from bedbugs (I changed nothing else in my diet or bedroom arrangements).  I have never experienced anything like this - these bites are itchy, swollen, and are all over my face, legs, ankles, under my chin, and all over my arms.  This was the main issue - however, the "buffet breakfast" was very old and unappetizing and mainly consisted of eggs and burnt (almost non existent) bacon.  If I could give this hotel negative stars, I would - considering the overwhelming pain and discomfort I am experiencing as a result of the bed bugs.  I would recommend you not risk your health, and stay somewhere else in the Frisco area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>The day after I stayed here, I noticed numerous bites on my body/face which seems to be from bedbugs (I changed nothing else in my diet or bedroom arrangements).  I have never experienced anything like this - these bites are itchy, swollen, and are all over my face, legs, ankles, under my chin, and all over my arms.  This was the main issue - however, the "buffet breakfast" was very old and unappetizing and mainly consisted of eggs and burnt (almost non existent) bacon.  If I could give this hotel negative stars, I would - considering the overwhelming pain and discomfort I am experiencing as a result of the bed bugs.  I would recommend you not risk your health, and stay somewhere else in the Frisco area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r430253425-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>430253425</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Brutal</t>
+  </si>
+  <si>
+    <t>The hotel is very nice, clean room and great accommodating staff.  But, we've always been told to not judge a book by it's cover!  There are many downsides that drove me to review this property:-"Premium" high speed internet for $10/day is barely functional, not high speed-NOISE NOISE NOISE and lack of rudimentary sound proofing reminds me of college housing - 1) Walls are paper thin, meaning you hear everyone from the hallway to the other rooms 2) They neglect to tell you that they (or someone next door) is building a parking garage directly behind the property.  Unfortunately the parking garage starts construction at around 5am, which means you start hearing beeping cranes and other equipment bright and early 3) The highway noise requires a significant adjusetment-For whatever reason, the pillows I was given were the softest pillows in my life.  They must have had a few pieces of filler in them and nothing else.  Good for some, but left me with pain throughout my back and neck.-When the A/C kicked on every hour or so, it was accompanied by an often startling bangWith so many choices of properties to stay in the Plano/Frisco area, I will be staying elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is very nice, clean room and great accommodating staff.  But, we've always been told to not judge a book by it's cover!  There are many downsides that drove me to review this property:-"Premium" high speed internet for $10/day is barely functional, not high speed-NOISE NOISE NOISE and lack of rudimentary sound proofing reminds me of college housing - 1) Walls are paper thin, meaning you hear everyone from the hallway to the other rooms 2) They neglect to tell you that they (or someone next door) is building a parking garage directly behind the property.  Unfortunately the parking garage starts construction at around 5am, which means you start hearing beeping cranes and other equipment bright and early 3) The highway noise requires a significant adjusetment-For whatever reason, the pillows I was given were the softest pillows in my life.  They must have had a few pieces of filler in them and nothing else.  Good for some, but left me with pain throughout my back and neck.-When the A/C kicked on every hour or so, it was accompanied by an often startling bangWith so many choices of properties to stay in the Plano/Frisco area, I will be staying elsewhere next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r426982801-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>426982801</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Weekend Trip to Frisco, Texas</t>
+  </si>
+  <si>
+    <t>Spent a Friday night out in Frisco, Texas, and reserved a suite at the Sheraton Stonebriar. Stayed in the Executive Suite, Room 407, and was not disappointed; it's a large, comfortable suite divided into a living room and bedroom. The living room featured a full closet, half bath and coffee bar; the bedroom had another full closet and the largest bathroom I've encountered in a Sheraton, having both a walk-in shower and a large soaking tub. The room faced west and north, and even though there was construction immediately to the west and south of the hotel during the day, the noise was muted in the suite and did not disrupt our sleep; the rooms had heavy draperies and insulated windows. The front desk staff were polite and enthusiastic both at check-in and check-out. Would not hesitate to stay at this Sheraton again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Spent a Friday night out in Frisco, Texas, and reserved a suite at the Sheraton Stonebriar. Stayed in the Executive Suite, Room 407, and was not disappointed; it's a large, comfortable suite divided into a living room and bedroom. The living room featured a full closet, half bath and coffee bar; the bedroom had another full closet and the largest bathroom I've encountered in a Sheraton, having both a walk-in shower and a large soaking tub. The room faced west and north, and even though there was construction immediately to the west and south of the hotel during the day, the noise was muted in the suite and did not disrupt our sleep; the rooms had heavy draperies and insulated windows. The front desk staff were polite and enthusiastic both at check-in and check-out. Would not hesitate to stay at this Sheraton again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r405723343-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>405723343</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Fantastic service</t>
+  </si>
+  <si>
+    <t>My wife and I visited this hotel again for our anniversary.  The check-in person asked if we were celebrating any special occasion. We told her about our anniversary and asked if we would like for the hotel to send up some champagne and/or some chocolate covered strawberries.  We said the strawberries would be nice and she asked when we would be back from dinner and she would have them brought to the room.  Sure enough, when we got back from dinner, the chocolate covered strawberries in our room - very nice.  Riley you did an excellent job.  We used an automobile association discount for a junior suite on the club floor.  Very nice room with separate shower.  It also included a continental breakfast, which really was much more than a continental breakfast - it included scrambled eggs, bacon, potatoes, fruit, cereals, and various breads.  We felt like we got a great value for the room.  The room was nice and quiet and dark.  The hotel is also conveniently located within walking distance of several nice restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I visited this hotel again for our anniversary.  The check-in person asked if we were celebrating any special occasion. We told her about our anniversary and asked if we would like for the hotel to send up some champagne and/or some chocolate covered strawberries.  We said the strawberries would be nice and she asked when we would be back from dinner and she would have them brought to the room.  Sure enough, when we got back from dinner, the chocolate covered strawberries in our room - very nice.  Riley you did an excellent job.  We used an automobile association discount for a junior suite on the club floor.  Very nice room with separate shower.  It also included a continental breakfast, which really was much more than a continental breakfast - it included scrambled eggs, bacon, potatoes, fruit, cereals, and various breads.  We felt like we got a great value for the room.  The room was nice and quiet and dark.  The hotel is also conveniently located within walking distance of several nice restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r398175980-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>398175980</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>In the heart of the action</t>
+  </si>
+  <si>
+    <t>Although I live 10 minutes away from this hotel, chose for a staycation celebrating my weeding anniversary. Located at Legacy and 121 (Sam Rayburn Tollway), there is a plethora of local activities. From restaruants, a major regional mall, minor league baseball, Top Golf, Water park, all can be found within a 10 minute drive.Found the hotel quite nice. The staff was very friendly and even sent up a complimentary desert and a card signed by all of the staff. Room was quite comfortable and clean. Bathroom was nice with both shower and bath. Common areas clean and quiet. Nice club lounge wih a nice breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Although I live 10 minutes away from this hotel, chose for a staycation celebrating my weeding anniversary. Located at Legacy and 121 (Sam Rayburn Tollway), there is a plethora of local activities. From restaruants, a major regional mall, minor league baseball, Top Golf, Water park, all can be found within a 10 minute drive.Found the hotel quite nice. The staff was very friendly and even sent up a complimentary desert and a card signed by all of the staff. Room was quite comfortable and clean. Bathroom was nice with both shower and bath. Common areas clean and quiet. Nice club lounge wih a nice breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r396932503-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>396932503</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Noisy but Clean</t>
+  </si>
+  <si>
+    <t>We stay at this hotel at least once a year. It is consistently clean, the staff is gracious, and the location is perfect for shoppers. The bad part is the lack of breakfast.This weekend we stayed at the front of the hotel; we normally stay further back. It was very noisy. The walls were thin, we could hear the parking lot noise, and a staff member woke us up about 3 am both mornings talking as he went down the hall. I'll probably give them a second chance, but I'll ask to stay in the back next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We stay at this hotel at least once a year. It is consistently clean, the staff is gracious, and the location is perfect for shoppers. The bad part is the lack of breakfast.This weekend we stayed at the front of the hotel; we normally stay further back. It was very noisy. The walls were thin, we could hear the parking lot noise, and a staff member woke us up about 3 am both mornings talking as he went down the hall. I'll probably give them a second chance, but I'll ask to stay in the back next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r384788091-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>384788091</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great accommodations </t>
+  </si>
+  <si>
+    <t>This is a Beautiful property with a great staff &amp; sheek modern decor! The beds were comfortable and the rooms were spacious.  Had to utilize the printer and office area quite a bit -had no problems doing do. Would definitely stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>This is a Beautiful property with a great staff &amp; sheek modern decor! The beds were comfortable and the rooms were spacious.  Had to utilize the printer and office area quite a bit -had no problems doing do. Would definitely stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r380594007-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>380594007</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Very convient!</t>
+  </si>
+  <si>
+    <t>We were in Frisco for a graduation. This hotel is very close to the Dr Pepper Center where it is held. Very nice hotel. It was pouring when we arrived. They only have a small canopy outside, which really made it hard to get from the car to the hotel without getting soaked. The staff was friendly and helpful. We paid a little extra to be on the club floor. The price included snacks, an evening happy hour and breakfast. The happy hour was nothing special, they had two appetizers that they added to the stale trail mix and dried fruit they had out all day. They really need to cover the snacks, since it is so humid, everything goes stale quickly. The breakfast was very good, scrambled eggs, potatoes and bacon (only one day). They had a specialty coffee machine that is available all day, along with sodas, bottled water, milk, yogurt, fruit cups, apples, chips and granola bars. Breakfast is served at 6:30am during the week and not until 7am on weekends. Angie was joy to talk to and she kept the club room very clean. Our room was very nice. The beds were comfortable and everything seemed very clean.  We were really happy with our entire stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>We were in Frisco for a graduation. This hotel is very close to the Dr Pepper Center where it is held. Very nice hotel. It was pouring when we arrived. They only have a small canopy outside, which really made it hard to get from the car to the hotel without getting soaked. The staff was friendly and helpful. We paid a little extra to be on the club floor. The price included snacks, an evening happy hour and breakfast. The happy hour was nothing special, they had two appetizers that they added to the stale trail mix and dried fruit they had out all day. They really need to cover the snacks, since it is so humid, everything goes stale quickly. The breakfast was very good, scrambled eggs, potatoes and bacon (only one day). They had a specialty coffee machine that is available all day, along with sodas, bottled water, milk, yogurt, fruit cups, apples, chips and granola bars. Breakfast is served at 6:30am during the week and not until 7am on weekends. Angie was joy to talk to and she kept the club room very clean. Our room was very nice. The beds were comfortable and everything seemed very clean.  We were really happy with our entire stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r373865106-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>373865106</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Sheraton Stonebriar for 5 weeks. This hotel felt like a home away from home for us. The hotel facilities are good. There is an excellent gym, pool and hot tub, but it is the people who work in this hotel that make all the difference. Every single staff member was polite and cheerful. Terri and Irina on the front desk, need a special mention. They made us feel like we were guests in their home. These girls are a class act. Nothing was too much trouble. Unfortunately, I became ill during our stay. Terri helped me so much during that time. Her warm and caring approach to her job is outstanding.  Irina was so friendly and helpful and we shared many laughs together. When our family and friends visited us, they were welcomed with open arms.
+The 3 young men who shared the duty of driving the shuttle bus are to be commended. Not only were they excellent and safe drivers, but Diego, Marcos and Stephen were friendly and informative. They would drop me anywhere that I needed to go within the 3 mile radius, and pick me up on time, every time. They suggested places for me to visit and restaurants to eat at. They always worried about me walking the busy streets. Again, these employees went beyond the call of duty.
+The Club provides a limited, but adequate version of the...My husband and I stayed at the Sheraton Stonebriar for 5 weeks. This hotel felt like a home away from home for us. The hotel facilities are good. There is an excellent gym, pool and hot tub, but it is the people who work in this hotel that make all the difference. Every single staff member was polite and cheerful. Terri and Irina on the front desk, need a special mention. They made us feel like we were guests in their home. These girls are a class act. Nothing was too much trouble. Unfortunately, I became ill during our stay. Terri helped me so much during that time. Her warm and caring approach to her job is outstanding.  Irina was so friendly and helpful and we shared many laughs together. When our family and friends visited us, they were welcomed with open arms.The 3 young men who shared the duty of driving the shuttle bus are to be commended. Not only were they excellent and safe drivers, but Diego, Marcos and Stephen were friendly and informative. They would drop me anywhere that I needed to go within the 3 mile radius, and pick me up on time, every time. They suggested places for me to visit and restaurants to eat at. They always worried about me walking the busy streets. Again, these employees went beyond the call of duty.The Club provides a limited, but adequate version of the full American breakfast, which is served daily in the restaurant. The all day snacks, which included health bars, fruit, nuts, sodas and decent coffee were regularly replenished. There was a microwave in the Club Lounge and I was able to use that to warm up food. Ana and Angie, the two girls that worked in the Club, were so helpful and cheerful. They went above and beyond what was necessary to make me feel at home.We stayed in 2 different rooms. The older style room did not have a fridge, but as soon as we asked, one was promptly delivered to our room. The newer style room does have a fridge incorporated in the cabinet.  The beds were very comfortable and I loved the pillows.The close proximity to such a variety of restaurants is impressive. Silver Fox has some of the best steak we have ever tasted. The Italian, Mexican and Japanese restaurants were excellent and the food and friendly service in Bar 121 was outstanding. Whenever we needed a change from the local eateries, Diego, Marcos or Stephen would drive us to the restaurant of our choice at The Shops at Legacy. Finally, on the day we left, we said our tearful goodbyes. There were hugs and we were even waved off by Irina and Marcos. Truly a special place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Sheraton Stonebriar for 5 weeks. This hotel felt like a home away from home for us. The hotel facilities are good. There is an excellent gym, pool and hot tub, but it is the people who work in this hotel that make all the difference. Every single staff member was polite and cheerful. Terri and Irina on the front desk, need a special mention. They made us feel like we were guests in their home. These girls are a class act. Nothing was too much trouble. Unfortunately, I became ill during our stay. Terri helped me so much during that time. Her warm and caring approach to her job is outstanding.  Irina was so friendly and helpful and we shared many laughs together. When our family and friends visited us, they were welcomed with open arms.
+The 3 young men who shared the duty of driving the shuttle bus are to be commended. Not only were they excellent and safe drivers, but Diego, Marcos and Stephen were friendly and informative. They would drop me anywhere that I needed to go within the 3 mile radius, and pick me up on time, every time. They suggested places for me to visit and restaurants to eat at. They always worried about me walking the busy streets. Again, these employees went beyond the call of duty.
+The Club provides a limited, but adequate version of the...My husband and I stayed at the Sheraton Stonebriar for 5 weeks. This hotel felt like a home away from home for us. The hotel facilities are good. There is an excellent gym, pool and hot tub, but it is the people who work in this hotel that make all the difference. Every single staff member was polite and cheerful. Terri and Irina on the front desk, need a special mention. They made us feel like we were guests in their home. These girls are a class act. Nothing was too much trouble. Unfortunately, I became ill during our stay. Terri helped me so much during that time. Her warm and caring approach to her job is outstanding.  Irina was so friendly and helpful and we shared many laughs together. When our family and friends visited us, they were welcomed with open arms.The 3 young men who shared the duty of driving the shuttle bus are to be commended. Not only were they excellent and safe drivers, but Diego, Marcos and Stephen were friendly and informative. They would drop me anywhere that I needed to go within the 3 mile radius, and pick me up on time, every time. They suggested places for me to visit and restaurants to eat at. They always worried about me walking the busy streets. Again, these employees went beyond the call of duty.The Club provides a limited, but adequate version of the full American breakfast, which is served daily in the restaurant. The all day snacks, which included health bars, fruit, nuts, sodas and decent coffee were regularly replenished. There was a microwave in the Club Lounge and I was able to use that to warm up food. Ana and Angie, the two girls that worked in the Club, were so helpful and cheerful. They went above and beyond what was necessary to make me feel at home.We stayed in 2 different rooms. The older style room did not have a fridge, but as soon as we asked, one was promptly delivered to our room. The newer style room does have a fridge incorporated in the cabinet.  The beds were very comfortable and I loved the pillows.The close proximity to such a variety of restaurants is impressive. Silver Fox has some of the best steak we have ever tasted. The Italian, Mexican and Japanese restaurants were excellent and the food and friendly service in Bar 121 was outstanding. Whenever we needed a change from the local eateries, Diego, Marcos or Stephen would drive us to the restaurant of our choice at The Shops at Legacy. Finally, on the day we left, we said our tearful goodbyes. There were hugs and we were even waved off by Irina and Marcos. Truly a special place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r358557268-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>358557268</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>The past two times we booked this hotel we have had issues.  The first time they could not find our reservation and we had to wait in the lobby for over an hour until they finally found it.  They did not offer any reason or anything to make up for this delay.  We booked this hotel again for March the 18th (for our Son's 10th birthday party), and about a week ahead of our intended stay.  Again, they could not find our reservation, and the double queen rooms were sold out (once was a direct booking and the other time was a 3rd party booking, but regardless, this is the ONLY hotel we have ever had issues with finding our reservations).  We found this out at 9:00 p.m. Also, they had many junior suites available at 9:00 p.m. and refused to offer us these rooms at the same or similar rate.  Moreover, they would not give us ANY room at the same rate at which we previously booked the room.  We had four people total in our room and the only thing they would offer was a king room with a roll-away bed.  It has become obvious to me that this hotel deals in quantity, and has no interest in the customer.  We frequent Frisco and are Starwood Preferred members.  But we will never again stay at this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>The past two times we booked this hotel we have had issues.  The first time they could not find our reservation and we had to wait in the lobby for over an hour until they finally found it.  They did not offer any reason or anything to make up for this delay.  We booked this hotel again for March the 18th (for our Son's 10th birthday party), and about a week ahead of our intended stay.  Again, they could not find our reservation, and the double queen rooms were sold out (once was a direct booking and the other time was a 3rd party booking, but regardless, this is the ONLY hotel we have ever had issues with finding our reservations).  We found this out at 9:00 p.m. Also, they had many junior suites available at 9:00 p.m. and refused to offer us these rooms at the same or similar rate.  Moreover, they would not give us ANY room at the same rate at which we previously booked the room.  We had four people total in our room and the only thing they would offer was a king room with a roll-away bed.  It has become obvious to me that this hotel deals in quantity, and has no interest in the customer.  We frequent Frisco and are Starwood Preferred members.  But we will never again stay at this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r353398105-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>353398105</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>We stayed on a Saturday night. I never ever complain, and I stay in hotels a lot. No bathtub in rooms with King beds, which wouldn't have been a big deal for me if I didn't have my 3 year old son with me or the knob was somewhere I could reach without having to be completely in the shower. The doors didn't slide for some reason. Air conditioner didn't work, we woke up sweating. Staff was very apathetic. They probably had a busy night, but it was uncomfortable. Staff didn't want to give me a late check out after keeping us standing outside all night (shoeless and sleepy) trying to figure out why the fire alarms were going off etc...MoreShow less</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>We stayed on a Saturday night. I never ever complain, and I stay in hotels a lot. No bathtub in rooms with King beds, which wouldn't have been a big deal for me if I didn't have my 3 year old son with me or the knob was somewhere I could reach without having to be completely in the shower. The doors didn't slide for some reason. Air conditioner didn't work, we woke up sweating. Staff was very apathetic. They probably had a busy night, but it was uncomfortable. Staff didn't want to give me a late check out after keeping us standing outside all night (shoeless and sleepy) trying to figure out why the fire alarms were going off etc...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r351188190-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>351188190</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Basic room, but nice overall hotel.</t>
+  </si>
+  <si>
+    <t>The hotel advertised as boutique and as modern, so when I first checked in and went to the room, I was disappointed.  They told me there was a pool but no hot tub, and I didnt see why this hotel could advertise the way it did.  It was less than what I wanted, and certainly not what I expected.  The room was also rather small. I decided to walk the grounds, wanting to write a review, but wanting to be certain of what the place was like.  To my surprise, the hotel was quite nice.  Great outdoor pool and hot tub, and even a putting green.  Plus there was an area indoors near there with a large round couch and a nice tv, plus several computers  on the side.  That would be a great area to visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The hotel advertised as boutique and as modern, so when I first checked in and went to the room, I was disappointed.  They told me there was a pool but no hot tub, and I didnt see why this hotel could advertise the way it did.  It was less than what I wanted, and certainly not what I expected.  The room was also rather small. I decided to walk the grounds, wanting to write a review, but wanting to be certain of what the place was like.  To my surprise, the hotel was quite nice.  Great outdoor pool and hot tub, and even a putting green.  Plus there was an area indoors near there with a large round couch and a nice tv, plus several computers  on the side.  That would be a great area to visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r337920720-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>337920720</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Room was nice, staff was nice, restaurant looked nice, room service was prompt. They even offered to make a substitution when I declined toast with breakfast. I can't think of a single thing to complain about, and while I'm not a complainer I do try to write balanced reviews.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Renee u, Executive Administrative Assistant Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Room was nice, staff was nice, restaurant looked nice, room service was prompt. They even offered to make a substitution when I declined toast with breakfast. I can't think of a single thing to complain about, and while I'm not a complainer I do try to write balanced reviews.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r330552214-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>330552214</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Great Location, Updated Hotel</t>
+  </si>
+  <si>
+    <t>Sheraton Stonebriar is in a great location (easy to get to from Highway 121, Legacy Road and close to the Dallas North Tollway), 4-5 restaurants within 5 minute walking distance. The hotel went through a recent upgrade (is a new hotel anyway).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Sheraton Stonebriar is in a great location (easy to get to from Highway 121, Legacy Road and close to the Dallas North Tollway), 4-5 restaurants within 5 minute walking distance. The hotel went through a recent upgrade (is a new hotel anyway).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r325823607-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>325823607</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Messed up credit card system had us waiting almost an hour for our room!</t>
+  </si>
+  <si>
+    <t>Not too please with location. We travel A lot,and this has been one of our more annoying stays. We got there at around 11pm for the night only to find find out that the system was down and we couldn't get in our room. Now,common courtesy on behalf of the hotel would have made the front desk give us our reserved room,and pay later when the system was back up. However,this guy had us waiting with my spouse in the card with children for almost an hour before we were finally allowed in our room. We drove almost 4hrs to get there,only to have to wait for almost 1 hour for our 2 rooms. Ok,that's bad enough then this guy calls us at 1:30 am(yes in the middle of the night) asking for our credit card number even though the system still was not up. He was trying to write our card number down for later,which is totally against Visa/MasterCard policies. You should NEVER write down a customers credit card information. I will be filing a form with visa regarding that also! Needless to say,when we asked was he writing it down.he said yes and we refused the info and told him we'd come in the morning to swipe the card only. I can't believe he had us sitting there for so long,then called us in the middle of the night when we had just fallen asleep. Not good for...Not too please with location. We travel A lot,and this has been one of our more annoying stays. We got there at around 11pm for the night only to find find out that the system was down and we couldn't get in our room. Now,common courtesy on behalf of the hotel would have made the front desk give us our reserved room,and pay later when the system was back up. However,this guy had us waiting with my spouse in the card with children for almost an hour before we were finally allowed in our room. We drove almost 4hrs to get there,only to have to wait for almost 1 hour for our 2 rooms. Ok,that's bad enough then this guy calls us at 1:30 am(yes in the middle of the night) asking for our credit card number even though the system still was not up. He was trying to write our card number down for later,which is totally against Visa/MasterCard policies. You should NEVER write down a customers credit card information. I will be filing a form with visa regarding that also! Needless to say,when we asked was he writing it down.he said yes and we refused the info and told him we'd come in the morning to swipe the card only. I can't believe he had us sitting there for so long,then called us in the middle of the night when we had just fallen asleep. Not good for a hotel like this,the guy even joked about quitting his job due to the system malfunction! We were scheduled for 2 nights,but left the next day after the way we were treated! Disappointed to say the least!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Not too please with location. We travel A lot,and this has been one of our more annoying stays. We got there at around 11pm for the night only to find find out that the system was down and we couldn't get in our room. Now,common courtesy on behalf of the hotel would have made the front desk give us our reserved room,and pay later when the system was back up. However,this guy had us waiting with my spouse in the card with children for almost an hour before we were finally allowed in our room. We drove almost 4hrs to get there,only to have to wait for almost 1 hour for our 2 rooms. Ok,that's bad enough then this guy calls us at 1:30 am(yes in the middle of the night) asking for our credit card number even though the system still was not up. He was trying to write our card number down for later,which is totally against Visa/MasterCard policies. You should NEVER write down a customers credit card information. I will be filing a form with visa regarding that also! Needless to say,when we asked was he writing it down.he said yes and we refused the info and told him we'd come in the morning to swipe the card only. I can't believe he had us sitting there for so long,then called us in the middle of the night when we had just fallen asleep. Not good for...Not too please with location. We travel A lot,and this has been one of our more annoying stays. We got there at around 11pm for the night only to find find out that the system was down and we couldn't get in our room. Now,common courtesy on behalf of the hotel would have made the front desk give us our reserved room,and pay later when the system was back up. However,this guy had us waiting with my spouse in the card with children for almost an hour before we were finally allowed in our room. We drove almost 4hrs to get there,only to have to wait for almost 1 hour for our 2 rooms. Ok,that's bad enough then this guy calls us at 1:30 am(yes in the middle of the night) asking for our credit card number even though the system still was not up. He was trying to write our card number down for later,which is totally against Visa/MasterCard policies. You should NEVER write down a customers credit card information. I will be filing a form with visa regarding that also! Needless to say,when we asked was he writing it down.he said yes and we refused the info and told him we'd come in the morning to swipe the card only. I can't believe he had us sitting there for so long,then called us in the middle of the night when we had just fallen asleep. Not good for a hotel like this,the guy even joked about quitting his job due to the system malfunction! We were scheduled for 2 nights,but left the next day after the way we were treated! Disappointed to say the least!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r309975711-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>309975711</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Did not meet expectations</t>
+  </si>
+  <si>
+    <t>For the price of this room, it should honestly be kept in better condition.  Upon walking into the room you first look at the bed and notice that the headboard has marks on it where the finish is rubbing off where peoples heads have been resting previously - which just gives you a creepy feeling.  Looking around the room it is very clean, until my husband closed the pocket door to the bathroom and I saw that the brown door was covered in white splotches from top to bottom - I don't know it was exactly, since I was in the room at that point - why would there be an explosion of liquid on that side of the bathroom door?  And why wouldn't it have been cleaned before arrived?
+I suppose you are paying for location - you can walk out of the hotel and are within steps to the Silver Fox Steakhouse and other fine dining establishments, just make sure you eat it all there and don't bring anything back to your room because there is no fridge - you are staying at such a nice hotel, after all.  They pool is great, they have a hot tub, and a huge pool, but it is only 3.5 feet, so as long as you don't stand up you are good to go.
+One thing I can say is the staff was fabulous.  I was so very happy with the...For the price of this room, it should honestly be kept in better condition.  Upon walking into the room you first look at the bed and notice that the headboard has marks on it where the finish is rubbing off where peoples heads have been resting previously - which just gives you a creepy feeling.  Looking around the room it is very clean, until my husband closed the pocket door to the bathroom and I saw that the brown door was covered in white splotches from top to bottom - I don't know it was exactly, since I was in the room at that point - why would there be an explosion of liquid on that side of the bathroom door?  And why wouldn't it have been cleaned before arrived?I suppose you are paying for location - you can walk out of the hotel and are within steps to the Silver Fox Steakhouse and other fine dining establishments, just make sure you eat it all there and don't bring anything back to your room because there is no fridge - you are staying at such a nice hotel, after all.  They pool is great, they have a hot tub, and a huge pool, but it is only 3.5 feet, so as long as you don't stand up you are good to go.One thing I can say is the staff was fabulous.  I was so very happy with the service during my entire stay.  Every member of the front desk staff was so very courteous, and the bar staff was lovely.  Common areas are gorgeous and reviews of the other rooms seemed perfectly adequate, so maybe I just didn't particularly care for my room.  As far as location and service, it is absolutely up to Sheraton standards, if only they would replace the headboards and clean the pocket doors, they would have gotten a completely different review.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>For the price of this room, it should honestly be kept in better condition.  Upon walking into the room you first look at the bed and notice that the headboard has marks on it where the finish is rubbing off where peoples heads have been resting previously - which just gives you a creepy feeling.  Looking around the room it is very clean, until my husband closed the pocket door to the bathroom and I saw that the brown door was covered in white splotches from top to bottom - I don't know it was exactly, since I was in the room at that point - why would there be an explosion of liquid on that side of the bathroom door?  And why wouldn't it have been cleaned before arrived?
+I suppose you are paying for location - you can walk out of the hotel and are within steps to the Silver Fox Steakhouse and other fine dining establishments, just make sure you eat it all there and don't bring anything back to your room because there is no fridge - you are staying at such a nice hotel, after all.  They pool is great, they have a hot tub, and a huge pool, but it is only 3.5 feet, so as long as you don't stand up you are good to go.
+One thing I can say is the staff was fabulous.  I was so very happy with the...For the price of this room, it should honestly be kept in better condition.  Upon walking into the room you first look at the bed and notice that the headboard has marks on it where the finish is rubbing off where peoples heads have been resting previously - which just gives you a creepy feeling.  Looking around the room it is very clean, until my husband closed the pocket door to the bathroom and I saw that the brown door was covered in white splotches from top to bottom - I don't know it was exactly, since I was in the room at that point - why would there be an explosion of liquid on that side of the bathroom door?  And why wouldn't it have been cleaned before arrived?I suppose you are paying for location - you can walk out of the hotel and are within steps to the Silver Fox Steakhouse and other fine dining establishments, just make sure you eat it all there and don't bring anything back to your room because there is no fridge - you are staying at such a nice hotel, after all.  They pool is great, they have a hot tub, and a huge pool, but it is only 3.5 feet, so as long as you don't stand up you are good to go.One thing I can say is the staff was fabulous.  I was so very happy with the service during my entire stay.  Every member of the front desk staff was so very courteous, and the bar staff was lovely.  Common areas are gorgeous and reviews of the other rooms seemed perfectly adequate, so maybe I just didn't particularly care for my room.  As far as location and service, it is absolutely up to Sheraton standards, if only they would replace the headboards and clean the pocket doors, they would have gotten a completely different review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r303534872-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>303534872</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Quiet location with great staff!</t>
+  </si>
+  <si>
+    <t>We stayed at this location for 2 weekend nights. The location was convenient and easy to get in and out of from either direction. The room was a quiet 2 queen on the club level. The beds were comfy and it had a great shower. The club lounge was a little lacking in the evening but the breakfast was better stocked with eggs and bacon and Danish. There were some great restaurants on the same property and the Italian food restaurant was pretty pleasing. The front desk staff were very attentive and pleasant. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this location for 2 weekend nights. The location was convenient and easy to get in and out of from either direction. The room was a quiet 2 queen on the club level. The beds were comfy and it had a great shower. The club lounge was a little lacking in the evening but the breakfast was better stocked with eggs and bacon and Danish. There were some great restaurants on the same property and the Italian food restaurant was pretty pleasing. The front desk staff were very attentive and pleasant. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r302429182-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>302429182</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No complaints </t>
+  </si>
+  <si>
+    <t>Booked this room at a discounted rate and was very pleased! Hotel is nice and clean with all modern comforts and pet friendly. Appears that it was recently updated. Staff is helpful and courteous. Location is convenient for business or leisure. Only drawback was the room was small.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this room at a discounted rate and was very pleased! Hotel is nice and clean with all modern comforts and pet friendly. Appears that it was recently updated. Staff is helpful and courteous. Location is convenient for business or leisure. Only drawback was the room was small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r289677810-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>289677810</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Musty</t>
+  </si>
+  <si>
+    <t>Great hotel staff. Great decor and a great area to be in but our room was extremely musty/muggy. We had to stay here on points from a water pipe burst in our house. I would stay again, just for a Non muggy/musty room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Great hotel staff. Great decor and a great area to be in but our room was extremely musty/muggy. We had to stay here on points from a water pipe burst in our house. I would stay again, just for a Non muggy/musty room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r287008338-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>287008338</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Business travels Home away from Home</t>
+  </si>
+  <si>
+    <t>Sheraton Stonebriar became my favorite hotel when traveling to our Plano office every 3-4 weeks. Great access located right off of Rte 121, just a couple of miles to the office; just a brief walk to several great restaurants including Italian, Sushi, etc. Service always outstanding; friendly, business-like; always asking how everything is or how to improve upon; could always count upon extremely clean &amp; comfortable rooms; bath amenities, etc. Can honestly state that i never had a bad experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Sheraton Stonebriar became my favorite hotel when traveling to our Plano office every 3-4 weeks. Great access located right off of Rte 121, just a couple of miles to the office; just a brief walk to several great restaurants including Italian, Sushi, etc. Service always outstanding; friendly, business-like; always asking how everything is or how to improve upon; could always count upon extremely clean &amp; comfortable rooms; bath amenities, etc. Can honestly state that i never had a bad experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r286115232-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>286115232</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Great property and team!</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic! Great quality, especially for the price.The entire staff was excellent and treated everyone I was with like we were family. Everyone there is happy to go above and beyond, and we will certainly stay here again.Highly recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic! Great quality, especially for the price.The entire staff was excellent and treated everyone I was with like we were family. Everyone there is happy to go above and beyond, and we will certainly stay here again.Highly recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r281641662-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>281641662</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good connectivity to work! But need to work on their breakfast menu. </t>
+  </si>
+  <si>
+    <t>Spent five nights at this hotel and it's a great choice for those in Frisco / Plano for work. Very close to the major offices / headquarters in the area. Has a good subscription of newspapers, a decent gym (well-equipped with cardio machines and a range of free weights) and good customer service. For those that are not driving, there's a shuttle that takes you to anywhere around the hotel that is within a 3-mile radius. This works especially for those staying at the hotel during the day without a car, or for some evening dinner options, too. The shuttle runs every half hour, starting 7am, up till 10pm. Had some really good food options at the nearby Shoppes at Legacy Commons - we ate twice at Cantina Laredo, and once at the Italian restaurant. In-room dining options at the hotel are limited, but good nevertheless. The breakfast, however, can be worked on - the most basic, to have the option of having your eggs in ways other than scrambled. The baked goods (breads) could be fresher, too.Another thing I noticed was that their guest relations desk seemed to not be located within the hotel and things got lost in translation a couple of times.  However, this is - all in all - a good option for those in the area for business, and also those looking for a pit stop on their road trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Spent five nights at this hotel and it's a great choice for those in Frisco / Plano for work. Very close to the major offices / headquarters in the area. Has a good subscription of newspapers, a decent gym (well-equipped with cardio machines and a range of free weights) and good customer service. For those that are not driving, there's a shuttle that takes you to anywhere around the hotel that is within a 3-mile radius. This works especially for those staying at the hotel during the day without a car, or for some evening dinner options, too. The shuttle runs every half hour, starting 7am, up till 10pm. Had some really good food options at the nearby Shoppes at Legacy Commons - we ate twice at Cantina Laredo, and once at the Italian restaurant. In-room dining options at the hotel are limited, but good nevertheless. The breakfast, however, can be worked on - the most basic, to have the option of having your eggs in ways other than scrambled. The baked goods (breads) could be fresher, too.Another thing I noticed was that their guest relations desk seemed to not be located within the hotel and things got lost in translation a couple of times.  However, this is - all in all - a good option for those in the area for business, and also those looking for a pit stop on their road trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r277683145-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>277683145</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great leisure hotel stay</t>
+  </si>
+  <si>
+    <t>The staff was friendly and helpful.  The hotel was beautiful.  Rooms spacious with all the amenities you want and need.  Lots around the hotel to make this a perfect location.  For a Sheraton I was pleasantly surprised.  Kudos all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>The staff was friendly and helpful.  The hotel was beautiful.  Rooms spacious with all the amenities you want and need.  Lots around the hotel to make this a perfect location.  For a Sheraton I was pleasantly surprised.  Kudos all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r275787968-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>275787968</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Nice, but beware of freeway-facing rooms</t>
+  </si>
+  <si>
+    <t>This is a nice hotel located right next to a freeway. The rooms are clean and well-appointed. Rooms that face the freeway can be very loud. I was initially given one of these rooms and had to change it because the noise was continuous and bothersome. I was given a room facing the inside of the parking lot and it was great. They have a nice hot breakfast that starts at 6:30 AM. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This is a nice hotel located right next to a freeway. The rooms are clean and well-appointed. Rooms that face the freeway can be very loud. I was initially given one of these rooms and had to change it because the noise was continuous and bothersome. I was given a room facing the inside of the parking lot and it was great. They have a nice hot breakfast that starts at 6:30 AM. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r270220398-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>270220398</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>It had been a while, but still great!</t>
+  </si>
+  <si>
+    <t>It had been a few years since I had been here, but was not disappointed. If anything was more pleased to know that they have added on and now have a pool and hot tub. We "named our own price" and paid for it with a really horrible experience at another nearby hotel, so got on my Starwood app and within minutes had has a new room booked and couldn't have been happier. Just walking in is so nice, it always smells good in the lounge and we couldn't wait to have a much needed nap on the super soft beds. The only thing I would complain about is that I went downstairs to buy two cans of pop, gave the guy a $5 and only got back $1.50. Normally I would have said never mind, but we needed the caffeine. 
+Breakfast the next morning was a bit disappointing and could use some work as they only had bacon, sausage, cubed potatoes. oatmeal and cheesy eggs for the "hot" side. They had the normal selection of cereals, a few yogurts, some bread to toast and a few pieces of fruit. Just seems like Starwood needs to up their game compared to some of the comparable Hilton's. A waffle or even fruit that could be eaten later, bananas, oranges or apples, could help it a bit. At $15 a person, if it wasn't included with my AAA room rate, we would...It had been a few years since I had been here, but was not disappointed. If anything was more pleased to know that they have added on and now have a pool and hot tub. We "named our own price" and paid for it with a really horrible experience at another nearby hotel, so got on my Starwood app and within minutes had has a new room booked and couldn't have been happier. Just walking in is so nice, it always smells good in the lounge and we couldn't wait to have a much needed nap on the super soft beds. The only thing I would complain about is that I went downstairs to buy two cans of pop, gave the guy a $5 and only got back $1.50. Normally I would have said never mind, but we needed the caffeine. Breakfast the next morning was a bit disappointing and could use some work as they only had bacon, sausage, cubed potatoes. oatmeal and cheesy eggs for the "hot" side. They had the normal selection of cereals, a few yogurts, some bread to toast and a few pieces of fruit. Just seems like Starwood needs to up their game compared to some of the comparable Hilton's. A waffle or even fruit that could be eaten later, bananas, oranges or apples, could help it a bit. At $15 a person, if it wasn't included with my AAA room rate, we would have chosen somewhere else. But we loved our room, the bed was awesome, the room got super cold and the bathroom was clean!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>It had been a few years since I had been here, but was not disappointed. If anything was more pleased to know that they have added on and now have a pool and hot tub. We "named our own price" and paid for it with a really horrible experience at another nearby hotel, so got on my Starwood app and within minutes had has a new room booked and couldn't have been happier. Just walking in is so nice, it always smells good in the lounge and we couldn't wait to have a much needed nap on the super soft beds. The only thing I would complain about is that I went downstairs to buy two cans of pop, gave the guy a $5 and only got back $1.50. Normally I would have said never mind, but we needed the caffeine. 
+Breakfast the next morning was a bit disappointing and could use some work as they only had bacon, sausage, cubed potatoes. oatmeal and cheesy eggs for the "hot" side. They had the normal selection of cereals, a few yogurts, some bread to toast and a few pieces of fruit. Just seems like Starwood needs to up their game compared to some of the comparable Hilton's. A waffle or even fruit that could be eaten later, bananas, oranges or apples, could help it a bit. At $15 a person, if it wasn't included with my AAA room rate, we would...It had been a few years since I had been here, but was not disappointed. If anything was more pleased to know that they have added on and now have a pool and hot tub. We "named our own price" and paid for it with a really horrible experience at another nearby hotel, so got on my Starwood app and within minutes had has a new room booked and couldn't have been happier. Just walking in is so nice, it always smells good in the lounge and we couldn't wait to have a much needed nap on the super soft beds. The only thing I would complain about is that I went downstairs to buy two cans of pop, gave the guy a $5 and only got back $1.50. Normally I would have said never mind, but we needed the caffeine. Breakfast the next morning was a bit disappointing and could use some work as they only had bacon, sausage, cubed potatoes. oatmeal and cheesy eggs for the "hot" side. They had the normal selection of cereals, a few yogurts, some bread to toast and a few pieces of fruit. Just seems like Starwood needs to up their game compared to some of the comparable Hilton's. A waffle or even fruit that could be eaten later, bananas, oranges or apples, could help it a bit. At $15 a person, if it wasn't included with my AAA room rate, we would have chosen somewhere else. But we loved our room, the bed was awesome, the room got super cold and the bathroom was clean!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r270189629-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>270189629</t>
+  </si>
+  <si>
+    <t>New, convenient and clean</t>
+  </si>
+  <si>
+    <t>I stay at the Stonebrier every other week when in Plano on business. I like its convenient location to Plano and its easy access to 121 to DFW. The hotel is brand new. The rooms are nothing special but clean and comfortable. Check in is done by friendly competent staff. There is a restaurant and a bar but I have not even there. The club room is available to preferred guests and has a decent complimentary breakfast.The walls are a little thin and its pretty standard, but the rooms are also quite affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at the Stonebrier every other week when in Plano on business. I like its convenient location to Plano and its easy access to 121 to DFW. The hotel is brand new. The rooms are nothing special but clean and comfortable. Check in is done by friendly competent staff. There is a restaurant and a bar but I have not even there. The club room is available to preferred guests and has a decent complimentary breakfast.The walls are a little thin and its pretty standard, but the rooms are also quite affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r260119892-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>260119892</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel.  Every staff member I came in contact with was very friendly and the hotel was well maintained.  I have lower back problems and usually don't sleep well when away from home, but the bed was so comfortable that I slept like a baby and did not have any back pain the entire trip.  The set up of the business center and lounge was great.  The computers, monitors and printer were very nice.  I loved the app for boarding passes which saved so much time. The lounge is located away from the bar area and has a fireplace, comfortable seating and a TV.  The food in the restaurant was good and there are a few restaurants within walking distance of the hotel.  There is a shuttle bus that will take you within a 3 mile radius of the hotel which includes the Stonebriar Centre Mall.  The hotel also has an exercise room and a very nice pool area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel.  Every staff member I came in contact with was very friendly and the hotel was well maintained.  I have lower back problems and usually don't sleep well when away from home, but the bed was so comfortable that I slept like a baby and did not have any back pain the entire trip.  The set up of the business center and lounge was great.  The computers, monitors and printer were very nice.  I loved the app for boarding passes which saved so much time. The lounge is located away from the bar area and has a fireplace, comfortable seating and a TV.  The food in the restaurant was good and there are a few restaurants within walking distance of the hotel.  There is a shuttle bus that will take you within a 3 mile radius of the hotel which includes the Stonebriar Centre Mall.  The hotel also has an exercise room and a very nice pool area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r256263533-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>256263533</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Book it, Love it!!</t>
+  </si>
+  <si>
+    <t>If you have an event in the area, business, or maybe you are doing a weekend road trip, plan to stay here. We came in from Dallas to enjoy Grapevine's wineries, the Frisco area,and Forth Worth. This property is perfectly located to enjoy them all. The hotel is near the freeway, though this section of the freeway is very quiet at night. We did not have any noise problems (let the hotel know before you arrive, that you want to be on the "back" side; it is very quiet). This hotel is literally in the same parking lot as a few restaurants, so you could walk right over for a bite or a drink.
+Booking on the spg website, we got a great discounted rated for the "junior suite",and we very pleasantly surprised by how much space there is in this room. It is like a one bedroom apartment,with the master bedroom and full bathroom behind a 75% walled area. There is a den area, that has a half bathroom that is so convenient! There's a fridge, comfortable seating, and 2 flat screen tv's,too.
+Markayla at the front desk is one of the friendliest,most efficient, and helpful spg team members we have ever encountered. She spoke with us each time we came and went, but not in a "scripted" way; she even told us to drive safely as we left, as there was an ice storm heading to the area....If you have an event in the area, business, or maybe you are doing a weekend road trip, plan to stay here. We came in from Dallas to enjoy Grapevine's wineries, the Frisco area,and Forth Worth. This property is perfectly located to enjoy them all. The hotel is near the freeway, though this section of the freeway is very quiet at night. We did not have any noise problems (let the hotel know before you arrive, that you want to be on the "back" side; it is very quiet). This hotel is literally in the same parking lot as a few restaurants, so you could walk right over for a bite or a drink.Booking on the spg website, we got a great discounted rated for the "junior suite",and we very pleasantly surprised by how much space there is in this room. It is like a one bedroom apartment,with the master bedroom and full bathroom behind a 75% walled area. There is a den area, that has a half bathroom that is so convenient! There's a fridge, comfortable seating, and 2 flat screen tv's,too.Markayla at the front desk is one of the friendliest,most efficient, and helpful spg team members we have ever encountered. She spoke with us each time we came and went, but not in a "scripted" way; she even told us to drive safely as we left, as there was an ice storm heading to the area. The room was very clean, and we slept well, even though there were kids from a sports team staying there,and we could hear them when in the hall,but there was no noise once we entered our room on the 3rd floor. (There are 4 floors). The hotel is stylish, has a restaurant, and a nice pool. Book it, and enjoy your stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>If you have an event in the area, business, or maybe you are doing a weekend road trip, plan to stay here. We came in from Dallas to enjoy Grapevine's wineries, the Frisco area,and Forth Worth. This property is perfectly located to enjoy them all. The hotel is near the freeway, though this section of the freeway is very quiet at night. We did not have any noise problems (let the hotel know before you arrive, that you want to be on the "back" side; it is very quiet). This hotel is literally in the same parking lot as a few restaurants, so you could walk right over for a bite or a drink.
+Booking on the spg website, we got a great discounted rated for the "junior suite",and we very pleasantly surprised by how much space there is in this room. It is like a one bedroom apartment,with the master bedroom and full bathroom behind a 75% walled area. There is a den area, that has a half bathroom that is so convenient! There's a fridge, comfortable seating, and 2 flat screen tv's,too.
+Markayla at the front desk is one of the friendliest,most efficient, and helpful spg team members we have ever encountered. She spoke with us each time we came and went, but not in a "scripted" way; she even told us to drive safely as we left, as there was an ice storm heading to the area....If you have an event in the area, business, or maybe you are doing a weekend road trip, plan to stay here. We came in from Dallas to enjoy Grapevine's wineries, the Frisco area,and Forth Worth. This property is perfectly located to enjoy them all. The hotel is near the freeway, though this section of the freeway is very quiet at night. We did not have any noise problems (let the hotel know before you arrive, that you want to be on the "back" side; it is very quiet). This hotel is literally in the same parking lot as a few restaurants, so you could walk right over for a bite or a drink.Booking on the spg website, we got a great discounted rated for the "junior suite",and we very pleasantly surprised by how much space there is in this room. It is like a one bedroom apartment,with the master bedroom and full bathroom behind a 75% walled area. There is a den area, that has a half bathroom that is so convenient! There's a fridge, comfortable seating, and 2 flat screen tv's,too.Markayla at the front desk is one of the friendliest,most efficient, and helpful spg team members we have ever encountered. She spoke with us each time we came and went, but not in a "scripted" way; she even told us to drive safely as we left, as there was an ice storm heading to the area. The room was very clean, and we slept well, even though there were kids from a sports team staying there,and we could hear them when in the hall,but there was no noise once we entered our room on the 3rd floor. (There are 4 floors). The hotel is stylish, has a restaurant, and a nice pool. Book it, and enjoy your stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r252481092-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>252481092</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Decent; a bit isolated and next to the highway</t>
+  </si>
+  <si>
+    <t>Pros: clean, quiet, nice staffCons: if you are a light sleeper, rooms on the highway side of the hotel are noisy. There's something about the high-pitch whine of tires on Texas highways that sounds like you're in a Jetson's episode. It's distracting and it kept me awake. I moved to the other side of the hotel - the other tower - and it was fine.The breakfast is fine; nothing to write home about. Would I pay $18 after tip to eat it a second time? No. I grabbed something from Starbucks that tasted better. The lobby coffee was excellent, with good quality cream.The rooms were ok - beds a little soft. Shower water pressure could have been better. But a decent hotel etc. I might try a sister property next time I'm in Plano on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Pros: clean, quiet, nice staffCons: if you are a light sleeper, rooms on the highway side of the hotel are noisy. There's something about the high-pitch whine of tires on Texas highways that sounds like you're in a Jetson's episode. It's distracting and it kept me awake. I moved to the other side of the hotel - the other tower - and it was fine.The breakfast is fine; nothing to write home about. Would I pay $18 after tip to eat it a second time? No. I grabbed something from Starbucks that tasted better. The lobby coffee was excellent, with good quality cream.The rooms were ok - beds a little soft. Shower water pressure could have been better. But a decent hotel etc. I might try a sister property next time I'm in Plano on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r251639971-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>251639971</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Recommend a stay here for any reason</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with good staff. Right off of 121 and very close to North Dallas Toll Way. Located in a very crowded area but the restaurants located within walking distance are top notch. It is expensive but it is very nice. The only complaint I have is that the "free" guest wireless internet is awful and is not adequate to even check email - at least from my room. I was located right across from the elevator and I never heard any elevator noise from my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with good staff. Right off of 121 and very close to North Dallas Toll Way. Located in a very crowded area but the restaurants located within walking distance are top notch. It is expensive but it is very nice. The only complaint I have is that the "free" guest wireless internet is awful and is not adequate to even check email - at least from my room. I was located right across from the elevator and I never heard any elevator noise from my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r244032699-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>244032699</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick weekend trip. Enjoyed out stay at the hotel. The beds were comfortable, the room very clean, everything was pretty nice. Staff at the front desk was friendly and gave some good recommendations for dining. The area behind the hotel was under construction, looked like they were building apartments or condos but it wasn't noisy or anything. Parking was open and plenty of spaces.There were a few places to eat around the hotel. There was some good eats in the area: Edoko sushi directly across the front entrance; Kenny's Burger Joint a five minute walk through the shopping center; Global Peace Coffee was also very good. Definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick weekend trip. Enjoyed out stay at the hotel. The beds were comfortable, the room very clean, everything was pretty nice. Staff at the front desk was friendly and gave some good recommendations for dining. The area behind the hotel was under construction, looked like they were building apartments or condos but it wasn't noisy or anything. Parking was open and plenty of spaces.There were a few places to eat around the hotel. There was some good eats in the area: Edoko sushi directly across the front entrance; Kenny's Burger Joint a five minute walk through the shopping center; Global Peace Coffee was also very good. Definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r239512112-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>239512112</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>East Access, good location for north Dallas area</t>
+  </si>
+  <si>
+    <t>During our weekend stay we enjoyed the comfortable beds, clean and quiet rooms and the easy access to the shopping areas of the area.  The parking was free and plentiful.  The club lounge was also enjoyable for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>During our weekend stay we enjoyed the comfortable beds, clean and quiet rooms and the easy access to the shopping areas of the area.  The parking was free and plentiful.  The club lounge was also enjoyable for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r234416957-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>234416957</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Under construction, but quiet and comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here with colleagues and customers for a 3-day meeting. Our meeting was supposed to be in the same hotel, but because of construction we had to move the meeting to the Westin Stonebriar Resort a couple hundred yards away. Other than not being able to meet on site, the hotel was fine. Rooms were comfortable and quiet; and staff was friendly and helpful.I would rate this higher if not for the inconvenience of having to move our meeting off-site. Also no refrigerators in the rooms, so I wasn't able to keep my water cold like I normally do.MoreShow less</t>
+  </si>
+  <si>
+    <t>stonebriar, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here with colleagues and customers for a 3-day meeting. Our meeting was supposed to be in the same hotel, but because of construction we had to move the meeting to the Westin Stonebriar Resort a couple hundred yards away. Other than not being able to meet on site, the hotel was fine. Rooms were comfortable and quiet; and staff was friendly and helpful.I would rate this higher if not for the inconvenience of having to move our meeting off-site. Also no refrigerators in the rooms, so I wasn't able to keep my water cold like I normally do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r216070830-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>216070830</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Nice Property at a great location...</t>
+  </si>
+  <si>
+    <t>I stayed here for two days for business.  The staff is very friendly (even at 3 in the morning) and helpful. My room was clean and nice. I really enjoyed my stay here. The property is closed to a mall and several restaurants. If you are planning to use GPS, sometime the GPS does not pickup this location because it is so new. Punch in the Westin property near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for two days for business.  The staff is very friendly (even at 3 in the morning) and helpful. My room was clean and nice. I really enjoyed my stay here. The property is closed to a mall and several restaurants. If you are planning to use GPS, sometime the GPS does not pickup this location because it is so new. Punch in the Westin property near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r211592799-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>211592799</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyable Stay </t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights while in town to see Jimmy Buffet.  Location very good to easily reach restaurants and area attractions.  Alot of construction going on in the area but doesn't interfere with anything. They are in the process of adding rooms and a pool. We were able to use their sister property's pool at The Westn. Easy to get to. Very clean and nicely run property. Would Definitely Stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights while in town to see Jimmy Buffet.  Location very good to easily reach restaurants and area attractions.  Alot of construction going on in the area but doesn't interfere with anything. They are in the process of adding rooms and a pool. We were able to use their sister property's pool at The Westn. Easy to get to. Very clean and nicely run property. Would Definitely Stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r207684634-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>207684634</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Great location for Stonebriar Country Club events</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Sheraton and it was very conveniently located for any functions you might have at the nearby Stonebriar Country Club.  The shuttle service was very dependable, taking me there in the morning, and upon a phone call was back to pick me up in the afternoon.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Sheraton and it was very conveniently located for any functions you might have at the nearby Stonebriar Country Club.  The shuttle service was very dependable, taking me there in the morning, and upon a phone call was back to pick me up in the afternoon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r202594763-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>202594763</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>When we first checked in the lady at the front desk upgraded our room. The rooms were very clean and smelt wonderful. only downfall it was a little noisy, but it didn't keep us awake at night. The breakfast in the mornings was very good. The staff was very friendly. The location of this hotel is in a great spot, its right down the road to all the shopping and restaurants. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>When we first checked in the lady at the front desk upgraded our room. The rooms were very clean and smelt wonderful. only downfall it was a little noisy, but it didn't keep us awake at night. The breakfast in the mornings was very good. The staff was very friendly. The location of this hotel is in a great spot, its right down the road to all the shopping and restaurants. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r202121970-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>202121970</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>The staffs were especially friendly and helpful.The breakfast was great. It was one of the best experience. I've stayed in plenty of 4stars hotel, and this Sheraton offered a lot of free amenities and great service for a reasonable price. I'd stay there again if I visit the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staffs were especially friendly and helpful.The breakfast was great. It was one of the best experience. I've stayed in plenty of 4stars hotel, and this Sheraton offered a lot of free amenities and great service for a reasonable price. I'd stay there again if I visit the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r201421210-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>201421210</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Amazing Hotel &amp; Great Location!</t>
+  </si>
+  <si>
+    <t>I stayed here on a quick trip to Frisco in April. It was an amazing hotel. The room was very modern and spotless. The staff were helpful and very nice. And best of all, the hotel was conveniently located. There was easy access to the Frisco Stonebriar Mall, Ikea, and restaurants. Overall, I would definitely stay here again and I recommend this to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here on a quick trip to Frisco in April. It was an amazing hotel. The room was very modern and spotless. The staff were helpful and very nice. And best of all, the hotel was conveniently located. There was easy access to the Frisco Stonebriar Mall, Ikea, and restaurants. Overall, I would definitely stay here again and I recommend this to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r198532843-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>198532843</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Wonderful accomodations and staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because our child was involved in dance competition at the nearby convention center in Frisco.  We were in an executive suite.  It was huge!  My daughter, her two daughters, and I had plenty of room to spread out.  The bathroom had a deep tub and a walk in shower.  There was also another half bath, which definitely came in handy.  We were greeted by Mallakayla and Kidus.  They were both so friendly and helpful.  Kidus gave us dining suggestions, and we were not steered wrong.  He also made certain that we were comfortable during our stay.  Stephen volunteered to show us to one of the restaurants.....much appreciated because it was a bit nippy to walk.  There are many top restaurants a stone's throw from the front of the hotel.  We will certainly come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because our child was involved in dance competition at the nearby convention center in Frisco.  We were in an executive suite.  It was huge!  My daughter, her two daughters, and I had plenty of room to spread out.  The bathroom had a deep tub and a walk in shower.  There was also another half bath, which definitely came in handy.  We were greeted by Mallakayla and Kidus.  They were both so friendly and helpful.  Kidus gave us dining suggestions, and we were not steered wrong.  He also made certain that we were comfortable during our stay.  Stephen volunteered to show us to one of the restaurants.....much appreciated because it was a bit nippy to walk.  There are many top restaurants a stone's throw from the front of the hotel.  We will certainly come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r191528244-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>191528244</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Nice Location to shopping and restaurants</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a weekend while one of my daughters was swimming in a swim meet.  We were far away from her meet, but very close to shopping!  The hotel seems new with pleasant décor.  The staff at the hotel were very friendly and helpful. They helped us numerous times with shopping suggestions and restaurants.  As a SPG platinum member I was upgraded to a junior suite which was very nice.  They also have a nice gym with newer equipment.  The club lounge was not staffed while we were there, but it was open with breakfast items in the morning, appetizers in the evening, and snacks and drinks throughout the day.  The real gift of this hotel is it's closeness to great shopping.  Ikea is just down the street, some nice restaurants adjacent to the hotel, and the Shops at Legacy are very near by and not to be missed!Frisco is a great choice if you need to be in North Dallas and want nice shopping and restaurants!CSBMMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a weekend while one of my daughters was swimming in a swim meet.  We were far away from her meet, but very close to shopping!  The hotel seems new with pleasant décor.  The staff at the hotel were very friendly and helpful. They helped us numerous times with shopping suggestions and restaurants.  As a SPG platinum member I was upgraded to a junior suite which was very nice.  They also have a nice gym with newer equipment.  The club lounge was not staffed while we were there, but it was open with breakfast items in the morning, appetizers in the evening, and snacks and drinks throughout the day.  The real gift of this hotel is it's closeness to great shopping.  Ikea is just down the street, some nice restaurants adjacent to the hotel, and the Shops at Legacy are very near by and not to be missed!Frisco is a great choice if you need to be in North Dallas and want nice shopping and restaurants!CSBMMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r188198023-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>188198023</t>
+  </si>
+  <si>
+    <t>12/21/2013</t>
+  </si>
+  <si>
+    <t>Really well run Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a few days whilst on a Business trip and was glad I did.The Sheraton is the Sister Hotel to the Westin - a short walkable distance. There are also two/three very good restaurants all directly opposite the Hotel.Overall its exactly what you'd expect a Sheraton to be - comfortable rooms,decent gym and free wifi. However what sets it apart was the top notch service/attitude from all the staff I met. Indeed from the moment arrived I cannot think of anything that was not exemplary and I always had a friendly greeting when I passed reception. On another occasion when I was returning from the gym ,a staff member offered to get me a bottle of water. Now that's what I call service !The only slight gripe I might have had was the lack of in-room safe but I was told they're installing those this month anyway - this is good as I'm always wary of losing the dual key you get in such arrangements.Very good value for money and I'll be glad to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a few days whilst on a Business trip and was glad I did.The Sheraton is the Sister Hotel to the Westin - a short walkable distance. There are also two/three very good restaurants all directly opposite the Hotel.Overall its exactly what you'd expect a Sheraton to be - comfortable rooms,decent gym and free wifi. However what sets it apart was the top notch service/attitude from all the staff I met. Indeed from the moment arrived I cannot think of anything that was not exemplary and I always had a friendly greeting when I passed reception. On another occasion when I was returning from the gym ,a staff member offered to get me a bottle of water. Now that's what I call service !The only slight gripe I might have had was the lack of in-room safe but I was told they're installing those this month anyway - this is good as I'm always wary of losing the dual key you get in such arrangements.Very good value for money and I'll be glad to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r180703561-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>180703561</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Watch Out for Breakfast</t>
+  </si>
+  <si>
+    <t>The hotel was nice, and the staff was friendly, but I do have a word of warning.  There is a breakfast area in the lobby that basically looks like every complimentary breakfast that you've seen at a hotel.  The breakfast at the Sheraton is NOT complimentary (and it's not cheap).  There is a sign about the breakfast prices if you know to look for it, but it's easy to miss (at least for me it was).  No free breakfast - just FYI.  I'd probably stay here again if I was in the area, but I'll be skipping breakfast next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>hospitalityiskey, Guest Relations Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was nice, and the staff was friendly, but I do have a word of warning.  There is a breakfast area in the lobby that basically looks like every complimentary breakfast that you've seen at a hotel.  The breakfast at the Sheraton is NOT complimentary (and it's not cheap).  There is a sign about the breakfast prices if you know to look for it, but it's easy to miss (at least for me it was).  No free breakfast - just FYI.  I'd probably stay here again if I was in the area, but I'll be skipping breakfast next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r180490737-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>180490737</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and reasonable near a conference center.</t>
+  </si>
+  <si>
+    <t>The room and common areas are clean and comfortable. The staff is friendly and attentive. Parking is somewhat constricted. It is within walking distance of the Westin Stonebriar where I was attending a conference, so a good alternative to the Westin if you need one. There are very good restaurants within easy walking distance (like the Cantina Laredo).MoreShow less</t>
+  </si>
+  <si>
+    <t>The room and common areas are clean and comfortable. The staff is friendly and attentive. Parking is somewhat constricted. It is within walking distance of the Westin Stonebriar where I was attending a conference, so a good alternative to the Westin if you need one. There are very good restaurants within easy walking distance (like the Cantina Laredo).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r173447483-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>173447483</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r162285646-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>162285646</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Awesome and more awesome!</t>
+  </si>
+  <si>
+    <t>First off, we went to celebrate our anniversary. The staff congratulated us and gave us a free upgrade to allow us access to the club lounge where we enjoyed delicious snacks and breakfast. The room was nice, clean, roomy and had all the extras. There was an abundant of pillows, a coffee bar and the suite we were in had a tv in the living area and bedroom. Flat screen, updated. The shampoo products were nice and there was a robe and 2 bathrooms. The staff was friendly, accommodating and went above and beyond. They made us feel special and we had a great time. We will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded June 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2013</t>
+  </si>
+  <si>
+    <t>First off, we went to celebrate our anniversary. The staff congratulated us and gave us a free upgrade to allow us access to the club lounge where we enjoyed delicious snacks and breakfast. The room was nice, clean, roomy and had all the extras. There was an abundant of pillows, a coffee bar and the suite we were in had a tv in the living area and bedroom. Flat screen, updated. The shampoo products were nice and there was a robe and 2 bathrooms. The staff was friendly, accommodating and went above and beyond. They made us feel special and we had a great time. We will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r159944978-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>159944978</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I stayed at the sheraton Stornbriar the week of May 1, 2013.   I could not get into the Marriott that I ususally stay at.   i was happily surprised with the quality of the hotel.   The rooms are small but well set up with quality furishings.  The bed was great.   The staff goes overboard to help in any way.   I had breakfast at the hotel and spent some time in the bar.   Both were satifactory.   There are numerous resteurants within walking distance.  I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the sheraton Stornbriar the week of May 1, 2013.   I could not get into the Marriott that I ususally stay at.   i was happily surprised with the quality of the hotel.   The rooms are small but well set up with quality furishings.  The bed was great.   The staff goes overboard to help in any way.   I had breakfast at the hotel and spent some time in the bar.   Both were satifactory.   There are numerous resteurants within walking distance.  I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r159669200-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>159669200</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Right size.  Right service. Right price.</t>
+  </si>
+  <si>
+    <t>Stayed two nights on business and it was just like boutique hotels I have stayed in.  Bright and open and modern.  Great restaurant and the food was bettervthsn expected.  Very good oversll stay. The parking was super convenient, right out front.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded May 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2013</t>
+  </si>
+  <si>
+    <t>Stayed two nights on business and it was just like boutique hotels I have stayed in.  Bright and open and modern.  Great restaurant and the food was bettervthsn expected.  Very good oversll stay. The parking was super convenient, right out front.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r151257749-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>151257749</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel in convenient location</t>
+  </si>
+  <si>
+    <t>I arrived late night for a short stay one night stay and everything was as it should be. Nice, warm and efficient welcome at arrival, free WiFi , room was exactly what it should be , not too big not too small, everything in right place. Breakfast was minimal, with not much too choose from, but I don't eat much anyway so it was fine. Maybe some guests might be disappointed with the choice. Hotel is in convenient located close to the Plano business park and along 121 interstate. Definitely come back there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I arrived late night for a short stay one night stay and everything was as it should be. Nice, warm and efficient welcome at arrival, free WiFi , room was exactly what it should be , not too big not too small, everything in right place. Breakfast was minimal, with not much too choose from, but I don't eat much anyway so it was fine. Maybe some guests might be disappointed with the choice. Hotel is in convenient located close to the Plano business park and along 121 interstate. Definitely come back there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r150897124-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>150897124</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Solid Dallas Hotel</t>
+  </si>
+  <si>
+    <t>Hotel is seems very new. Lobby was small but relaxing. The rooms were very nice by Sheraton standards. Platinum recognition was great. Nice upgrade to a large suite. Club lounge was very small but very nice. Beverages and light snacks were available all the time. It should be noted the only hot option in the club lounge for breakfast was eggs.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Hotel is seems very new. Lobby was small but relaxing. The rooms were very nice by Sheraton standards. Platinum recognition was great. Nice upgrade to a large suite. Club lounge was very small but very nice. Beverages and light snacks were available all the time. It should be noted the only hot option in the club lounge for breakfast was eggs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r150617777-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>150617777</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice rooms , good snacks in club room</t>
+  </si>
+  <si>
+    <t>Stayed here on business for 2 nights. The hotel staff was very friendly, and made me feel very welcome. The check in and check out was very fast. The breakfast area, and the breakfast in the morning was good. The club room was stocked with very delicious finger foods. The club room did not have any liquor, but provided soft drinks. I will certainly come back to this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here on business for 2 nights. The hotel staff was very friendly, and made me feel very welcome. The check in and check out was very fast. The breakfast area, and the breakfast in the morning was good. The club room was stocked with very delicious finger foods. The club room did not have any liquor, but provided soft drinks. I will certainly come back to this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r145328903-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>145328903</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Great value for business travel</t>
+  </si>
+  <si>
+    <t>I travel to the Plano area several times a year on business and consistently find this property to hit the mark.  Very clean and quiet rooms, courteous and knowledgeable staff.  Great location, close to all the major Plano corporate centers.  I highly recommend for the value minded business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded December 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2012</t>
+  </si>
+  <si>
+    <t>I travel to the Plano area several times a year on business and consistently find this property to hit the mark.  Very clean and quiet rooms, courteous and knowledgeable staff.  Great location, close to all the major Plano corporate centers.  I highly recommend for the value minded business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r145115798-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>145115798</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Quality lodging for a business traveler</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel in November 2012.  Excellent place to stay for a business traveler visiting Plano / Frisco area.  Very close to Frito-Lay and JC Penney and other corporate HQs.  Very friendly and helpful staff. Three excellent restaurants right outside the hotel (don't believe they're affiliated) - italian, sushi and a steakhouse. Good bar at the hotel lobby.  Could not have asked for more for a week of business travel in Plano.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel in November 2012.  Excellent place to stay for a business traveler visiting Plano / Frisco area.  Very close to Frito-Lay and JC Penney and other corporate HQs.  Very friendly and helpful staff. Three excellent restaurants right outside the hotel (don't believe they're affiliated) - italian, sushi and a steakhouse. Good bar at the hotel lobby.  Could not have asked for more for a week of business travel in Plano.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r143230052-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>143230052</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Quality Lodging</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay at the Sheraton Stonebriar. The hotel was clean, well run and comfortable. If you stay there make sure you rent a car. The cab fare was high to and from the airport. There are several restaurants in the parking lot area you can walk to for dinner or lunch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renee U, Executive Administrative Assistant at Sheraton Stonebriar Hotel, responded to this reviewResponded October 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2012</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay at the Sheraton Stonebriar. The hotel was clean, well run and comfortable. If you stay there make sure you rent a car. The cab fare was high to and from the airport. There are several restaurants in the parking lot area you can walk to for dinner or lunch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r134449201-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>134449201</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>Pro's:  Clean hotel.  Friendly staff.  Provided a crib for our toddler -- a real crib with a mattress, not a pack &amp; play like other hotels.  Comfortable bed.  Complimentary bottled water.  Con's:  Standard king room was very small.  If you are traveling with kids or plan to spend time in your room, I recommend reserving a larger room.  Long walk from the room to the exit.  Shower only, no tub.  Breakfast is an additional $20 per night.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r132413371-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>132413371</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>good for business travel, nice staff, odd shower</t>
+  </si>
+  <si>
+    <t>This hotel is good, but not great. I would give it 3.5 stars if I could. I stayed 4 nights for business travel. Likes - comfortable bed, very accommodating and friendly staff, restaurants within walking distance, nice complimentary breakfast, clean rooms!Dislikes - shower with 1/2 a glass 'wall'/no curtain or option to close it. Water gets on the floor and you feel an unwanted breeze while showering, rooms either too cold or too hot always, thermostat light super bright (I know it sounds odd but the light was so bright it disturbed my sleep and I had to hang something over the thermostat to block out the light).Overall my complaints were minimal. I would stay here again for business but this would probably not be my first choice otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>This hotel is good, but not great. I would give it 3.5 stars if I could. I stayed 4 nights for business travel. Likes - comfortable bed, very accommodating and friendly staff, restaurants within walking distance, nice complimentary breakfast, clean rooms!Dislikes - shower with 1/2 a glass 'wall'/no curtain or option to close it. Water gets on the floor and you feel an unwanted breeze while showering, rooms either too cold or too hot always, thermostat light super bright (I know it sounds odd but the light was so bright it disturbed my sleep and I had to hang something over the thermostat to block out the light).Overall my complaints were minimal. I would stay here again for business but this would probably not be my first choice otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r131560027-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>131560027</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Continues to be the place to stay in Frisco</t>
+  </si>
+  <si>
+    <t>This might be the perfect hotel when traveling on business to Frisco.  The staff is always so kind and willing to help.  The hotel is new and modern.  The location now has 5-6 restaurants that you can walk to.  The hotel itself is small with lots of close parking.  And you can use all the facilities at the Westin Resort across the street.  I will continue to stay here...love the small hotel feel.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r127822437-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>127822437</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>Great Staff!!!!</t>
+  </si>
+  <si>
+    <t>I spent 6 straight months working out of this Hotel and found all amenities above average or higher. The real difference was some of their excellent staff. From the first day I arrived until the last day I left, a core group of their staff treated me like the most important guest in their establishment. Over 6 months, bumps in the road will always occur, it was the supreme professionalism and tireless efforts, and in general great friendliness of this staff that made my stay exceptional. Hospitality is a foreign language to me. Living there for 6 months these people became my colleagues and friends because they treated their duties as more than a job!If you are planning a stay there, Kenneth C., Natalie S., Johnathan H., Nick P. and Candice B. are the people who go the extra mile and then some. I want to thank them myself and hope Sheraton takes this opportunity to honor them as well as they deserve the highest recognition, words cannot do their efforts justice.I would stay another 6 months in a heartbeat.SincerelyBryan H.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I spent 6 straight months working out of this Hotel and found all amenities above average or higher. The real difference was some of their excellent staff. From the first day I arrived until the last day I left, a core group of their staff treated me like the most important guest in their establishment. Over 6 months, bumps in the road will always occur, it was the supreme professionalism and tireless efforts, and in general great friendliness of this staff that made my stay exceptional. Hospitality is a foreign language to me. Living there for 6 months these people became my colleagues and friends because they treated their duties as more than a job!If you are planning a stay there, Kenneth C., Natalie S., Johnathan H., Nick P. and Candice B. are the people who go the extra mile and then some. I want to thank them myself and hope Sheraton takes this opportunity to honor them as well as they deserve the highest recognition, words cannot do their efforts justice.I would stay another 6 months in a heartbeat.SincerelyBryan H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r125776533-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>125776533</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>good hotel, let down by poor bar staff</t>
+  </si>
+  <si>
+    <t>I was here for a corporate event. The hotel itself was pretty good. Rooms were big, reception staff &amp; front desk staff were great. As this was a corporate event, we spent most of the after hours in the bar. We found the bar staff to be less friendly, impatient &amp; clearly didn't seem to want us there. I would have thought the amount of money we spent on alcohol would incent them to be nicer but could only feel that we were inconveniencing them by drinking there. Given that it's not a hotel that looks like it gets alot of through-traffic that they would want to leave a good impression for repeat business. Maybe it is the nicest hotel in the neighbourhood, but I'ld definately recommend having your event somewhere else where the bar would appreciate having some after hours business.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>hospitalityiskey, Guest Relations Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded March 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2012</t>
+  </si>
+  <si>
+    <t>I was here for a corporate event. The hotel itself was pretty good. Rooms were big, reception staff &amp; front desk staff were great. As this was a corporate event, we spent most of the after hours in the bar. We found the bar staff to be less friendly, impatient &amp; clearly didn't seem to want us there. I would have thought the amount of money we spent on alcohol would incent them to be nicer but could only feel that we were inconveniencing them by drinking there. Given that it's not a hotel that looks like it gets alot of through-traffic that they would want to leave a good impression for repeat business. Maybe it is the nicest hotel in the neighbourhood, but I'ld definately recommend having your event somewhere else where the bar would appreciate having some after hours business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r125003544-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>125003544</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>By far, one of the nicest hotels in the area.</t>
+  </si>
+  <si>
+    <t>This hotel has it all.   Comfy beds, amazing customer service, yummy breakfast, free wi-fi, water, newspaper, I could go on.  Within walking distance to good restaurants and nice lounge area.   Not a bad thing to say- except for one minor detail- would be nice to have automatic doors when entering the building.  I carry suitcases when I travel and it's a struggle to enter the building without assistance.  That aside- would stay here again without hesitation.  SPG has done it again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r123939066-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>123939066</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Great Business Hotel</t>
+  </si>
+  <si>
+    <t>Great staff. Clean and comfortable rooms, although a bit small.  Great location for business in Frisco or Plano. Hotel shuttle took us to and from our office 5 minutes away.  There are few really good restaurants right next door. Easy access to both DFW and LOV.I've read some of the previous reviews.  I'm not sure why there was a complaint about a shower curtain having mildew on it.  My bathroom had a shower only with plexiglass, no curtain. It's so much easier than a bathtub.The executive lounge is not staffed, but that's okay. They have a computer and printer in there along with sodas and water.  The front desk gave me vouchers for a free breakfast in the restuarant.  It's a buffet breakfast better than anything I've had in an executive lounge.  I'm not sure why a previous reviewer complained about this.  There is no wait for the food. It's a buffet, just like it would have been in the exec lounge.There was also a previous review complaining about outside noise in the room.  I was facing the parking lot.  It was the quietest room I've had in a very long time.  I didn't hear anything from the outside. Nor did I hear anything from either room next to me.All in all a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Great staff. Clean and comfortable rooms, although a bit small.  Great location for business in Frisco or Plano. Hotel shuttle took us to and from our office 5 minutes away.  There are few really good restaurants right next door. Easy access to both DFW and LOV.I've read some of the previous reviews.  I'm not sure why there was a complaint about a shower curtain having mildew on it.  My bathroom had a shower only with plexiglass, no curtain. It's so much easier than a bathtub.The executive lounge is not staffed, but that's okay. They have a computer and printer in there along with sodas and water.  The front desk gave me vouchers for a free breakfast in the restuarant.  It's a buffet breakfast better than anything I've had in an executive lounge.  I'm not sure why a previous reviewer complained about this.  There is no wait for the food. It's a buffet, just like it would have been in the exec lounge.There was also a previous review complaining about outside noise in the room.  I was facing the parking lot.  It was the quietest room I've had in a very long time.  I didn't hear anything from the outside. Nor did I hear anything from either room next to me.All in all a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r123354064-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>123354064</t>
+  </si>
+  <si>
+    <t>01/20/2012</t>
+  </si>
+  <si>
+    <t>Nice and Comfortable</t>
+  </si>
+  <si>
+    <t>The hotel is very good, rooms are smalls and comfortable. The restaurant is open until 11pm and the food is OK. There are 3 different internet access, a free one but limits some sites, and 2 others with a fee allowing you to access more sites. I used the free option and was able to access everything I needed.The breakfast (which is not included) has fresh fruit, cereal, eggs, bacon, bread, coffee, orage juice, etc and costs around ($15 usd)The Cons: The room does not have a safety box and many channels were not available, they were in the guide but there was no signal. Actually there was only one movie channel available and the signal was poor (must of the time was unavailable)MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very good, rooms are smalls and comfortable. The restaurant is open until 11pm and the food is OK. There are 3 different internet access, a free one but limits some sites, and 2 others with a fee allowing you to access more sites. I used the free option and was able to access everything I needed.The breakfast (which is not included) has fresh fruit, cereal, eggs, bacon, bread, coffee, orage juice, etc and costs around ($15 usd)The Cons: The room does not have a safety box and many channels were not available, they were in the guide but there was no signal. Actually there was only one movie channel available and the signal was poor (must of the time was unavailable)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r122984086-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>122984086</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel-Excellent Staff</t>
+  </si>
+  <si>
+    <t>I cant say enough nice things about the hotel and exspecially the staff led by Ken Campbell.  They dont make them better than Ken.  Everyone from the desk staff, Candice, Logan, Natalie, Scott, Will &amp; Terrie are rock stars.  Even my boys El and Nick behind the bar are the best and keep me happy...Your staff is truly excellent and I love staying there....It is my second home and they are like my second family which doesnt make my wife to happy!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r119736727-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>119736727</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Very Disappointed.</t>
+  </si>
+  <si>
+    <t>I was scheduled to stay here for 3 nights in October 2011 and ended up only staying for 2 and begged to change hotels (beware of the $75 early departure fee!).    I am a business traveler and a Starwood Gold guest, and booked using my company's rate that included "club access".   What a sham..the club on the 4th floor advertises that is serves breakfast in the morning and "wind and dine" in the evening.   Neither was true.  Day 2 I went there at 6:30am to find no breakfast, and upon calling the desk was told they no longer have an attendant and therefore cannot serve in the club lounge.   She offered me a restaurant voucher instead which I declined as I didn't have time to wait for a waiter to serve me.  I asked them why they don't remove the two signs advertising club breakfast on the 4th floor, and got no answer.  When I returned that evening...same deal on the "wine and dine'.   No wine &amp; dine, instead some sodas and granola bars and signs still up.  Again told no attendant available.  Again asked why they still hadn't removed the sign...again no answer.  At this point I asked to check out early and they finally obliged.
+Also - business travelers beware.  Even though this is a newer property - the rooms do NOT have safes in them.  You are welcome to take your chances leaving your laptop at the...I was scheduled to stay here for 3 nights in October 2011 and ended up only staying for 2 and begged to change hotels (beware of the $75 early departure fee!).    I am a business traveler and a Starwood Gold guest, and booked using my company's rate that included "club access".   What a sham..the club on the 4th floor advertises that is serves breakfast in the morning and "wind and dine" in the evening.   Neither was true.  Day 2 I went there at 6:30am to find no breakfast, and upon calling the desk was told they no longer have an attendant and therefore cannot serve in the club lounge.   She offered me a restaurant voucher instead which I declined as I didn't have time to wait for a waiter to serve me.  I asked them why they don't remove the two signs advertising club breakfast on the 4th floor, and got no answer.  When I returned that evening...same deal on the "wine and dine'.   No wine &amp; dine, instead some sodas and granola bars and signs still up.  Again told no attendant available.  Again asked why they still hadn't removed the sign...again no answer.  At this point I asked to check out early and they finally obliged.Also - business travelers beware.  Even though this is a newer property - the rooms do NOT have safes in them.  You are welcome to take your chances leaving your laptop at the front desk...but that's not something my company permits me doing.  So I got to carry my laptop with me to dinner every night.Overall extremely disappointed with the games they play with advertising a club lounge that clearly is not offering the services they advertise it does.   There is enough competition in this area that I need not stay in a dishonest hotel like this.   Shame on you Sheraton Stonebriar!  I will not return and will recommend others steer clear.   So many other options where you won't feel taken advantage of.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>hospitalityiskey, Guest Relations Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded November 6, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2011</t>
+  </si>
+  <si>
+    <t>I was scheduled to stay here for 3 nights in October 2011 and ended up only staying for 2 and begged to change hotels (beware of the $75 early departure fee!).    I am a business traveler and a Starwood Gold guest, and booked using my company's rate that included "club access".   What a sham..the club on the 4th floor advertises that is serves breakfast in the morning and "wind and dine" in the evening.   Neither was true.  Day 2 I went there at 6:30am to find no breakfast, and upon calling the desk was told they no longer have an attendant and therefore cannot serve in the club lounge.   She offered me a restaurant voucher instead which I declined as I didn't have time to wait for a waiter to serve me.  I asked them why they don't remove the two signs advertising club breakfast on the 4th floor, and got no answer.  When I returned that evening...same deal on the "wine and dine'.   No wine &amp; dine, instead some sodas and granola bars and signs still up.  Again told no attendant available.  Again asked why they still hadn't removed the sign...again no answer.  At this point I asked to check out early and they finally obliged.
+Also - business travelers beware.  Even though this is a newer property - the rooms do NOT have safes in them.  You are welcome to take your chances leaving your laptop at the...I was scheduled to stay here for 3 nights in October 2011 and ended up only staying for 2 and begged to change hotels (beware of the $75 early departure fee!).    I am a business traveler and a Starwood Gold guest, and booked using my company's rate that included "club access".   What a sham..the club on the 4th floor advertises that is serves breakfast in the morning and "wind and dine" in the evening.   Neither was true.  Day 2 I went there at 6:30am to find no breakfast, and upon calling the desk was told they no longer have an attendant and therefore cannot serve in the club lounge.   She offered me a restaurant voucher instead which I declined as I didn't have time to wait for a waiter to serve me.  I asked them why they don't remove the two signs advertising club breakfast on the 4th floor, and got no answer.  When I returned that evening...same deal on the "wine and dine'.   No wine &amp; dine, instead some sodas and granola bars and signs still up.  Again told no attendant available.  Again asked why they still hadn't removed the sign...again no answer.  At this point I asked to check out early and they finally obliged.Also - business travelers beware.  Even though this is a newer property - the rooms do NOT have safes in them.  You are welcome to take your chances leaving your laptop at the front desk...but that's not something my company permits me doing.  So I got to carry my laptop with me to dinner every night.Overall extremely disappointed with the games they play with advertising a club lounge that clearly is not offering the services they advertise it does.   There is enough competition in this area that I need not stay in a dishonest hotel like this.   Shame on you Sheraton Stonebriar!  I will not return and will recommend others steer clear.   So many other options where you won't feel taken advantage of.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r118624332-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>118624332</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Exceptional service, basic hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for business. The service was exceptional especially considering the type of hotel. The hotel is bare bones and fine for a business trip. Overall helped by the overly attentive and friendly staff. There are hotels with more amenities nearby however.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for business. The service was exceptional especially considering the type of hotel. The hotel is bare bones and fine for a business trip. Overall helped by the overly attentive and friendly staff. There are hotels with more amenities nearby however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r115860425-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>115860425</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Service absolutely outstanding--better than most Westins</t>
+  </si>
+  <si>
+    <t>We stayed at the Sheraton Stonebriar for 10 days, and experienced one of the best visits in a hotel in years. EVERYONE from the front desk manager to the fellows opening the front doors, to the housekeeping staff, was trained to help, and their great attitudes made the visit very pleasant.  Mr Kenneth Campbell, especially, went out of his way to make sure we, and other guests, were treated with prompt, courteous, friendly service whether it was asking for restaurant advice or a special need in the room.  Would definitely come back to this hotel.  Had a refrigerator in room, was quiet, and modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We stayed at the Sheraton Stonebriar for 10 days, and experienced one of the best visits in a hotel in years. EVERYONE from the front desk manager to the fellows opening the front doors, to the housekeeping staff, was trained to help, and their great attitudes made the visit very pleasant.  Mr Kenneth Campbell, especially, went out of his way to make sure we, and other guests, were treated with prompt, courteous, friendly service whether it was asking for restaurant advice or a special need in the room.  Would definitely come back to this hotel.  Had a refrigerator in room, was quiet, and modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r89346914-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>89346914</t>
+  </si>
+  <si>
+    <t>12/08/2010</t>
+  </si>
+  <si>
+    <t>Comfortable, Friendly hotel</t>
+  </si>
+  <si>
+    <t>As an SPG Platinum I was upgraded to a Suite which had a very large luxurious bathroom. The heavenly bed (Sheraton version) was very comfortable and I slept very well. The staff is extremely friendly and helpfull. The club is not operating so SPG members get a full buffet breakfast at the restaurant which is very good for breakfast and for a simple dinner.The excersize room is small but has new equipment. The location is next to several different types of restaurants and short driving distance to major shopping and entertainment.I definitively recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>hospitalityiskey, Guest Relations Manager at Sheraton Stonebriar Hotel, responded to this reviewResponded May 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2011</t>
+  </si>
+  <si>
+    <t>As an SPG Platinum I was upgraded to a Suite which had a very large luxurious bathroom. The heavenly bed (Sheraton version) was very comfortable and I slept very well. The staff is extremely friendly and helpfull. The club is not operating so SPG members get a full buffet breakfast at the restaurant which is very good for breakfast and for a simple dinner.The excersize room is small but has new equipment. The location is next to several different types of restaurants and short driving distance to major shopping and entertainment.I definitively recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r87269807-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>87269807</t>
+  </si>
+  <si>
+    <t>11/16/2010</t>
+  </si>
+  <si>
+    <t>New and comfortable hotel with excellent staff</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights in November 2010. The hotel is only around 2 years old, the staff at the hotel is far above average when it comes to service and attention to customers needs.  The hotel is conveniently located for easy access to freeway/highway but no noice from the road. Stonebriar Shopping center is only 1-2 miles away, there is a good mexican restaurant just outside the hotel. There are some  other restaurants just outside aswell but I didn't try them.Great Wi-Fi in room (free). Only negaitve thing is that the hotel aircon/power house just outside the hotel generates a lot of noice as it goes on and off during night. This is only valid for rooms facing that direction. I actually changed rooms after first night and after that I had no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights in November 2010. The hotel is only around 2 years old, the staff at the hotel is far above average when it comes to service and attention to customers needs.  The hotel is conveniently located for easy access to freeway/highway but no noice from the road. Stonebriar Shopping center is only 1-2 miles away, there is a good mexican restaurant just outside the hotel. There are some  other restaurants just outside aswell but I didn't try them.Great Wi-Fi in room (free). Only negaitve thing is that the hotel aircon/power house just outside the hotel generates a lot of noice as it goes on and off during night. This is only valid for rooms facing that direction. I actually changed rooms after first night and after that I had no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r84013686-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>84013686</t>
+  </si>
+  <si>
+    <t>10/18/2010</t>
+  </si>
+  <si>
+    <t>Perfect Location!</t>
+  </si>
+  <si>
+    <t>The positives on this hotel stay are the staff are VERY friendly and knew my name the first day I was there.  The rooms are very quiet and cool.  Our first room they put us in had a very foul smell ( I learned its a pet friendly hotel) they quickly changed our room. Free Wifi-close and convenient to shops and restaurants and to the freeways.  I know they say they have a sweet mattress--there was nothing sweet about it. My son was the first to notice. We didn't sleep the first night, it was hard as a rock.  The linens were soft  so that was nice.  The bathroom and room was very clean!  Will we stay again? Given the hard beds I am not sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>The positives on this hotel stay are the staff are VERY friendly and knew my name the first day I was there.  The rooms are very quiet and cool.  Our first room they put us in had a very foul smell ( I learned its a pet friendly hotel) they quickly changed our room. Free Wifi-close and convenient to shops and restaurants and to the freeways.  I know they say they have a sweet mattress--there was nothing sweet about it. My son was the first to notice. We didn't sleep the first night, it was hard as a rock.  The linens were soft  so that was nice.  The bathroom and room was very clean!  Will we stay again? Given the hard beds I am not sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r74922018-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>74922018</t>
+  </si>
+  <si>
+    <t>08/12/2010</t>
+  </si>
+  <si>
+    <t>Clean, great room, great staff.</t>
+  </si>
+  <si>
+    <t>This hotel is simply managed well from top to bottom! Great staff - from the front desk to the shuttle bus driver (he was just fantastic). They knew my name on the first day. Great customer service. Clean, bright, contemporary without being uncomfortable; lobby was inviting. Room was perfect - bed was comfortable, room was well cooled and quiet. Morning newspaper, free wireless in the room and a bottle of water each day. I was there for a memorial service and even under less-than-desirable circumstances, this property is the perfect place to stay in Frisco. Close to great restaurants and the mall with free shuttle. There are certain facilities that you can use at the Westin sister property but I understand that this property may be expanding soon. For the price difference, this was the best option by far.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This hotel is simply managed well from top to bottom! Great staff - from the front desk to the shuttle bus driver (he was just fantastic). They knew my name on the first day. Great customer service. Clean, bright, contemporary without being uncomfortable; lobby was inviting. Room was perfect - bed was comfortable, room was well cooled and quiet. Morning newspaper, free wireless in the room and a bottle of water each day. I was there for a memorial service and even under less-than-desirable circumstances, this property is the perfect place to stay in Frisco. Close to great restaurants and the mall with free shuttle. There are certain facilities that you can use at the Westin sister property but I understand that this property may be expanding soon. For the price difference, this was the best option by far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r73775912-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>73775912</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Wow!!! What a great hotel</t>
+  </si>
+  <si>
+    <t>We are so pleased from our recent trip to D-town. Went down for a little hurricane harbor action on friday and continued for a little shopping over saturday and sunday. After a very long day at the harbor, the drive was not too bad over to the hotel. When we walked in we were blown away at how nice the hotel was. It was sparkling clean, smelled great and were welcomed (wet swim clothes and all). The front desk upgraded us for 10 bucks a night and it included breakfast in the am. The buffet alone was like 12.50 a person, so well worth the 10. 
+We mentioned to the front desk that we thought about heading over to the mall for a late movie and they pulled all the movie times for Stonebriar and delivered them to our room. Talk about service!!!!
+But what we were most pleased about was the shuttle service to the Westin (about 400 yards away) to their lagoon style pool. This pool stretched across the back of the westin and was so AWESOME!!!!! At one end they have a small slide for the kids that deliveres them into the pool. It was a big hit with our 4-year old. They also had a shaded ping pong table, bocce ball and a small putting green. The pool waitresses came around frequently and you could order drinks, food and beer/alcohol. The hotel also had very comfy...We are so pleased from our recent trip to D-town. Went down for a little hurricane harbor action on friday and continued for a little shopping over saturday and sunday. After a very long day at the harbor, the drive was not too bad over to the hotel. When we walked in we were blown away at how nice the hotel was. It was sparkling clean, smelled great and were welcomed (wet swim clothes and all). The front desk upgraded us for 10 bucks a night and it included breakfast in the am. The buffet alone was like 12.50 a person, so well worth the 10. We mentioned to the front desk that we thought about heading over to the mall for a late movie and they pulled all the movie times for Stonebriar and delivered them to our room. Talk about service!!!!But what we were most pleased about was the shuttle service to the Westin (about 400 yards away) to their lagoon style pool. This pool stretched across the back of the westin and was so AWESOME!!!!! At one end they have a small slide for the kids that deliveres them into the pool. It was a big hit with our 4-year old. They also had a shaded ping pong table, bocce ball and a small putting green. The pool waitresses came around frequently and you could order drinks, food and beer/alcohol. The hotel also had very comfy lounge chairs and towels were provided. You can even charge to your sheraton account. Beers were 5, pina colada's 8.75, pizza 12(very yummy for pool food). Last call is at 7:30 pm and they make sure that you have everything that you need. The pool closes at 10pm, and not quite sure what time it opens (9am i think).So at the end of the day, you get to use this great pool at the Westin with a free ride over there and back (i think they shuttle to the mall as well), but pay a cheaper Sheraton price. With this hotel being so close to highway 121 and dallas north tollway, you are close to everything. It only took us 15 minutes to get to the allen outlet mall!I would highly recommend this hotel!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>We are so pleased from our recent trip to D-town. Went down for a little hurricane harbor action on friday and continued for a little shopping over saturday and sunday. After a very long day at the harbor, the drive was not too bad over to the hotel. When we walked in we were blown away at how nice the hotel was. It was sparkling clean, smelled great and were welcomed (wet swim clothes and all). The front desk upgraded us for 10 bucks a night and it included breakfast in the am. The buffet alone was like 12.50 a person, so well worth the 10. 
+We mentioned to the front desk that we thought about heading over to the mall for a late movie and they pulled all the movie times for Stonebriar and delivered them to our room. Talk about service!!!!
+But what we were most pleased about was the shuttle service to the Westin (about 400 yards away) to their lagoon style pool. This pool stretched across the back of the westin and was so AWESOME!!!!! At one end they have a small slide for the kids that deliveres them into the pool. It was a big hit with our 4-year old. They also had a shaded ping pong table, bocce ball and a small putting green. The pool waitresses came around frequently and you could order drinks, food and beer/alcohol. The hotel also had very comfy...We are so pleased from our recent trip to D-town. Went down for a little hurricane harbor action on friday and continued for a little shopping over saturday and sunday. After a very long day at the harbor, the drive was not too bad over to the hotel. When we walked in we were blown away at how nice the hotel was. It was sparkling clean, smelled great and were welcomed (wet swim clothes and all). The front desk upgraded us for 10 bucks a night and it included breakfast in the am. The buffet alone was like 12.50 a person, so well worth the 10. We mentioned to the front desk that we thought about heading over to the mall for a late movie and they pulled all the movie times for Stonebriar and delivered them to our room. Talk about service!!!!But what we were most pleased about was the shuttle service to the Westin (about 400 yards away) to their lagoon style pool. This pool stretched across the back of the westin and was so AWESOME!!!!! At one end they have a small slide for the kids that deliveres them into the pool. It was a big hit with our 4-year old. They also had a shaded ping pong table, bocce ball and a small putting green. The pool waitresses came around frequently and you could order drinks, food and beer/alcohol. The hotel also had very comfy lounge chairs and towels were provided. You can even charge to your sheraton account. Beers were 5, pina colada's 8.75, pizza 12(very yummy for pool food). Last call is at 7:30 pm and they make sure that you have everything that you need. The pool closes at 10pm, and not quite sure what time it opens (9am i think).So at the end of the day, you get to use this great pool at the Westin with a free ride over there and back (i think they shuttle to the mall as well), but pay a cheaper Sheraton price. With this hotel being so close to highway 121 and dallas north tollway, you are close to everything. It only took us 15 minutes to get to the allen outlet mall!I would highly recommend this hotel!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r65302410-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>65302410</t>
+  </si>
+  <si>
+    <t>05/25/2010</t>
+  </si>
+  <si>
+    <t>The staff were wonderful!</t>
+  </si>
+  <si>
+    <t>My friends and I stayed here just last weekend for the Buffett concert and I can not say enough about the staff.  From the moment we got out of our cars, it was like we were home.  The hotel is new and the rooms were very nice.  I know where we will be staying again next year.   Thanks to the entire staff for making us feel so at home in your hotel!!!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r49184818-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>49184818</t>
+  </si>
+  <si>
+    <t>11/14/2009</t>
+  </si>
+  <si>
+    <t>Unexpected experiences</t>
+  </si>
+  <si>
+    <t>The front desk staff are friendly and helpful, especially the bell boy. He offered many suggestions to restrauants etc.  The rooms are nice and appeared to be clean.  Until I went to step into the shower and noticed the badly stained cloth shower curtain.  After going down to enjoy breakfast, discovered that the "limited" breakfast consisting of oatmeal, cold cereal, bread, fruit and muffins cost $11.00 per person!!!!! Something that would normally be free!  We were not told that the food was not included with the room.  If you want to use the pool, they did offer a shuttle service to their "sister" hotel.  The gym was on site, and offered dumbells, treadmill, glyder and bikes.  The gym appeared to be clean and well maintained with hand sanitizer and towels.  While in the room, still in the bed, the maid unexpectinly opens the door and turns on the hall light! Without knocking or saying room service.  I turn to look and see who has entered my room, only to see a maid!!!!!!!!!!  Yes, she said, "I'm sorry"!  But I had the "be quiet" sign on the door.  Maybe their sign should read............NO entrance!!!!!!   The hotel had been updated, but the rooms do not have mic's or frigs.  The front desk staff had them brought to our room after checkin.  However, for a 5 star room.........I DO EXPECT certain items!  Also, construction is going on right beside the hotel.  Kenny's Burger...The front desk staff are friendly and helpful, especially the bell boy. He offered many suggestions to restrauants etc.  The rooms are nice and appeared to be clean.  Until I went to step into the shower and noticed the badly stained cloth shower curtain.  After going down to enjoy breakfast, discovered that the "limited" breakfast consisting of oatmeal, cold cereal, bread, fruit and muffins cost $11.00 per person!!!!! Something that would normally be free!  We were not told that the food was not included with the room.  If you want to use the pool, they did offer a shuttle service to their "sister" hotel.  The gym was on site, and offered dumbells, treadmill, glyder and bikes.  The gym appeared to be clean and well maintained with hand sanitizer and towels.  While in the room, still in the bed, the maid unexpectinly opens the door and turns on the hall light! Without knocking or saying room service.  I turn to look and see who has entered my room, only to see a maid!!!!!!!!!!  Yes, she said, "I'm sorry"!  But I had the "be quiet" sign on the door.  Maybe their sign should read............NO entrance!!!!!!   The hotel had been updated, but the rooms do not have mic's or frigs.  The front desk staff had them brought to our room after checkin.  However, for a 5 star room.........I DO EXPECT certain items!  Also, construction is going on right beside the hotel.  Kenny's Burger Joint is right around the parking lot from this hotel.  They offered reasonably priced ribs &amp; burgers that are cooked on wood.......  The best part of our  stay!!  Can't wait to eat dinner there again tonight!   Rudy's BBQ also has good BBQ &amp; chicken.  Close to hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>The front desk staff are friendly and helpful, especially the bell boy. He offered many suggestions to restrauants etc.  The rooms are nice and appeared to be clean.  Until I went to step into the shower and noticed the badly stained cloth shower curtain.  After going down to enjoy breakfast, discovered that the "limited" breakfast consisting of oatmeal, cold cereal, bread, fruit and muffins cost $11.00 per person!!!!! Something that would normally be free!  We were not told that the food was not included with the room.  If you want to use the pool, they did offer a shuttle service to their "sister" hotel.  The gym was on site, and offered dumbells, treadmill, glyder and bikes.  The gym appeared to be clean and well maintained with hand sanitizer and towels.  While in the room, still in the bed, the maid unexpectinly opens the door and turns on the hall light! Without knocking or saying room service.  I turn to look and see who has entered my room, only to see a maid!!!!!!!!!!  Yes, she said, "I'm sorry"!  But I had the "be quiet" sign on the door.  Maybe their sign should read............NO entrance!!!!!!   The hotel had been updated, but the rooms do not have mic's or frigs.  The front desk staff had them brought to our room after checkin.  However, for a 5 star room.........I DO EXPECT certain items!  Also, construction is going on right beside the hotel.  Kenny's Burger...The front desk staff are friendly and helpful, especially the bell boy. He offered many suggestions to restrauants etc.  The rooms are nice and appeared to be clean.  Until I went to step into the shower and noticed the badly stained cloth shower curtain.  After going down to enjoy breakfast, discovered that the "limited" breakfast consisting of oatmeal, cold cereal, bread, fruit and muffins cost $11.00 per person!!!!! Something that would normally be free!  We were not told that the food was not included with the room.  If you want to use the pool, they did offer a shuttle service to their "sister" hotel.  The gym was on site, and offered dumbells, treadmill, glyder and bikes.  The gym appeared to be clean and well maintained with hand sanitizer and towels.  While in the room, still in the bed, the maid unexpectinly opens the door and turns on the hall light! Without knocking or saying room service.  I turn to look and see who has entered my room, only to see a maid!!!!!!!!!!  Yes, she said, "I'm sorry"!  But I had the "be quiet" sign on the door.  Maybe their sign should read............NO entrance!!!!!!   The hotel had been updated, but the rooms do not have mic's or frigs.  The front desk staff had them brought to our room after checkin.  However, for a 5 star room.........I DO EXPECT certain items!  Also, construction is going on right beside the hotel.  Kenny's Burger Joint is right around the parking lot from this hotel.  They offered reasonably priced ribs &amp; burgers that are cooked on wood.......  The best part of our  stay!!  Can't wait to eat dinner there again tonight!   Rudy's BBQ also has good BBQ &amp; chicken.  Close to hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r49059833-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>49059833</t>
+  </si>
+  <si>
+    <t>11/12/2009</t>
+  </si>
+  <si>
+    <t>Attractive New Hotel That Is Perfect For A One Night Stay</t>
+  </si>
+  <si>
+    <t>I really like the direction Sheraton has taken in its decorative overhaul of its properties.  Gone are the bland pastels and chintz and in their place ,are bold lines, rich colours and leather textures.  Sheraton has now overtaken Westin in my estimation, since that brand has gone down a sorry path of washed out colours with no definitive accents resulting in rooms which are completely dismal and depressing (Westin Luxury Collection excluded).
+We stayed at the recently opened Sheraton Stonebriar a few weekends ago when we were attending a friend's party in Plano and did not want to drive all the way back into central Dallas.  It's a petite hotel and the foyer, which opens onto the bar/restaurant has a boutique feel.  There are  comfy low slung leather couches and cocktail tables, book cases with books, games tables with games, and a see through fireplace, and it's all illuminated by a myriad of tea lights.  This would be a lovely place for pre dinner cocktails or after dinner drinks.
+The room was not huge but was very comfortable and the bathroom boasted an attractive granite sink unit.  My one problem with it was that it had a rather strong chemical odour - I am guessing from the new carpets and paint, but that should dissipate over time.
+It is not in a pretty location.  This is not a vacation hote,l but if you are in the area on business or...I really like the direction Sheraton has taken in its decorative overhaul of its properties.  Gone are the bland pastels and chintz and in their place ,are bold lines, rich colours and leather textures.  Sheraton has now overtaken Westin in my estimation, since that brand has gone down a sorry path of washed out colours with no definitive accents resulting in rooms which are completely dismal and depressing (Westin Luxury Collection excluded). We stayed at the recently opened Sheraton Stonebriar a few weekends ago when we were attending a friend's party in Plano and did not want to drive all the way back into central Dallas.  It's a petite hotel and the foyer, which opens onto the bar/restaurant has a boutique feel.  There are  comfy low slung leather couches and cocktail tables, book cases with books, games tables with games, and a see through fireplace, and it's all illuminated by a myriad of tea lights.  This would be a lovely place for pre dinner cocktails or after dinner drinks. The room was not huge but was very comfortable and the bathroom boasted an attractive granite sink unit.  My one problem with it was that it had a rather strong chemical odour - I am guessing from the new carpets and paint, but that should dissipate over time. It is not in a pretty location.  This is not a vacation hote,l but if you are in the area on business or just passing through, competitive rates make this an attractive alternative to Fairfield Inn etc.  It is adjacent to some restaurants and it looks if more are in the process of being built.hMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I really like the direction Sheraton has taken in its decorative overhaul of its properties.  Gone are the bland pastels and chintz and in their place ,are bold lines, rich colours and leather textures.  Sheraton has now overtaken Westin in my estimation, since that brand has gone down a sorry path of washed out colours with no definitive accents resulting in rooms which are completely dismal and depressing (Westin Luxury Collection excluded).
+We stayed at the recently opened Sheraton Stonebriar a few weekends ago when we were attending a friend's party in Plano and did not want to drive all the way back into central Dallas.  It's a petite hotel and the foyer, which opens onto the bar/restaurant has a boutique feel.  There are  comfy low slung leather couches and cocktail tables, book cases with books, games tables with games, and a see through fireplace, and it's all illuminated by a myriad of tea lights.  This would be a lovely place for pre dinner cocktails or after dinner drinks.
+The room was not huge but was very comfortable and the bathroom boasted an attractive granite sink unit.  My one problem with it was that it had a rather strong chemical odour - I am guessing from the new carpets and paint, but that should dissipate over time.
+It is not in a pretty location.  This is not a vacation hote,l but if you are in the area on business or...I really like the direction Sheraton has taken in its decorative overhaul of its properties.  Gone are the bland pastels and chintz and in their place ,are bold lines, rich colours and leather textures.  Sheraton has now overtaken Westin in my estimation, since that brand has gone down a sorry path of washed out colours with no definitive accents resulting in rooms which are completely dismal and depressing (Westin Luxury Collection excluded). We stayed at the recently opened Sheraton Stonebriar a few weekends ago when we were attending a friend's party in Plano and did not want to drive all the way back into central Dallas.  It's a petite hotel and the foyer, which opens onto the bar/restaurant has a boutique feel.  There are  comfy low slung leather couches and cocktail tables, book cases with books, games tables with games, and a see through fireplace, and it's all illuminated by a myriad of tea lights.  This would be a lovely place for pre dinner cocktails or after dinner drinks. The room was not huge but was very comfortable and the bathroom boasted an attractive granite sink unit.  My one problem with it was that it had a rather strong chemical odour - I am guessing from the new carpets and paint, but that should dissipate over time. It is not in a pretty location.  This is not a vacation hote,l but if you are in the area on business or just passing through, competitive rates make this an attractive alternative to Fairfield Inn etc.  It is adjacent to some restaurants and it looks if more are in the process of being built.hMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r47697786-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>47697786</t>
+  </si>
+  <si>
+    <t>10/25/2009</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE!!!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel Friday night and were greeted very warmly wherever we went in the hotel.  The desk clerk even rushed to open the door for us when we came back to the hotel from eating dinner.  The room was huge and beautiful.  We had a king-size bed with a large desk/table over which the plasma TV hung.  The bathroom was very large with a walk-in shower.  Their toiletries have a mandarin scent that I loved and can be purchased at the Bliss Spa or online.  Internet access is now complementary for hotel guests.  Breakfast at their hotel was not complementary but they have a nice restaurant with a breakfast buffet which is $13.00.  They gave us a discount coupon for 20% off which greatly reduced the cost.  The food was very good and very abundant.  Fitness and pool facilities are available at the Westin Resort next door.   I can't say enough about the friendly staff and the beautiful hotel.  It was a wonderful getaway for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel Friday night and were greeted very warmly wherever we went in the hotel.  The desk clerk even rushed to open the door for us when we came back to the hotel from eating dinner.  The room was huge and beautiful.  We had a king-size bed with a large desk/table over which the plasma TV hung.  The bathroom was very large with a walk-in shower.  Their toiletries have a mandarin scent that I loved and can be purchased at the Bliss Spa or online.  Internet access is now complementary for hotel guests.  Breakfast at their hotel was not complementary but they have a nice restaurant with a breakfast buffet which is $13.00.  They gave us a discount coupon for 20% off which greatly reduced the cost.  The food was very good and very abundant.  Fitness and pool facilities are available at the Westin Resort next door.   I can't say enough about the friendly staff and the beautiful hotel.  It was a wonderful getaway for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r33516041-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>33516041</t>
+  </si>
+  <si>
+    <t>06/29/2009</t>
+  </si>
+  <si>
+    <t>Perfect Location and Exceptional Service</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed in hotels all over Dallas and I think we had the best service at the Sheraton Stonebriar than anywhere else.  It may be considered a 31/2 star hotel, but the customer service and ammenties are 4 star all the way.  We were happy with every aspect of the room, free parking, service, location, etc.  I love that there are 3 awesome restaurants in the hotel parking lot.  And that the hotel offers a free shuttle every 30 minutes to the Stonebriar mall.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r32186668-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>32186668</t>
+  </si>
+  <si>
+    <t>06/12/2009</t>
+  </si>
+  <si>
+    <t>Fabulous Boutique Style Hotel</t>
+  </si>
+  <si>
+    <t>I found this hotel purely by accident. I surfed the Net and just booked for 3 days just in case I didn't want to stay the 12 days I'm here. I am so grateful that the administrative asst made a mistake with my reservation because this place is a dream come true. Love it. Rooms are small, but they are cozy, functional and well designed. The linens are exceptional and l've slept well every night.  I just called to extend my stay this morning.The service is absolutely amazing. John at the front desk greets me by name every evening. Very boutique style. Restaurant choicesThe servers are amazing in the restaurant. The food onsite is delicious, however there are several choices near the hotel.  In addition to access to the Westin, there is an Italian restaurant (Francesca's) and Steakhouse within walking distance. There is also Sona, a spa on the property as well. Shops at Legacy are about 5 minutes away. The Dallas Tollway is outside the (free) parking lot. The fitness center has state of the art equipment with personal television consoles. Stocked with ample headphones (tv), towels and water. You can even dock to your iPod as you exercise.MoreShow less</t>
+  </si>
+  <si>
+    <t>I found this hotel purely by accident. I surfed the Net and just booked for 3 days just in case I didn't want to stay the 12 days I'm here. I am so grateful that the administrative asst made a mistake with my reservation because this place is a dream come true. Love it. Rooms are small, but they are cozy, functional and well designed. The linens are exceptional and l've slept well every night.  I just called to extend my stay this morning.The service is absolutely amazing. John at the front desk greets me by name every evening. Very boutique style. Restaurant choicesThe servers are amazing in the restaurant. The food onsite is delicious, however there are several choices near the hotel.  In addition to access to the Westin, there is an Italian restaurant (Francesca's) and Steakhouse within walking distance. There is also Sona, a spa on the property as well. Shops at Legacy are about 5 minutes away. The Dallas Tollway is outside the (free) parking lot. The fitness center has state of the art equipment with personal television consoles. Stocked with ample headphones (tv), towels and water. You can even dock to your iPod as you exercise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r24897523-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>24897523</t>
+  </si>
+  <si>
+    <t>02/21/2009</t>
+  </si>
+  <si>
+    <t>Nice new boutique type hotel</t>
+  </si>
+  <si>
+    <t>New modern rooms, decent sized, flat screen TVs, access to golf at the Fazio Stonebriar course.  Not your typical Sheraton, this is a much smaller hotel with a small bar and restaurant.  Very quiet.  Ample self parking (free).</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r17199174-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>17199174</t>
+  </si>
+  <si>
+    <t>06/24/2008</t>
+  </si>
+  <si>
+    <t>Everything was great!</t>
+  </si>
+  <si>
+    <t>The Sheraton is small, very easy to get around in,very VIP friendly, and very inexpensive. I am a Starwood Platinum member that stayed 4 nights in June ($69 a night) at this awesome hotel. We were given access to the pool at the Westin Resort !!(a 1 minute shuttle ride by very nice drivers). The club lounge is small but well stocked with a hot breakfast in the morning. We were given appetizers at early evening when the club was closed. The room was great on the club floor! flat screen tv, big beds, and prompt service. The people at this hotel are the best! From the front desk to the nice lady at the club lounge, absolute greatness! I felt as though my family owned this hotel for 4 days. There are more VIP perks here than at the Westin for a lot less.,and with a lot less trafic. I can't wait for my family to come back to the Frisco area, we will stay here as often as we can.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>The Sheraton is small, very easy to get around in,very VIP friendly, and very inexpensive. I am a Starwood Platinum member that stayed 4 nights in June ($69 a night) at this awesome hotel. We were given access to the pool at the Westin Resort !!(a 1 minute shuttle ride by very nice drivers). The club lounge is small but well stocked with a hot breakfast in the morning. We were given appetizers at early evening when the club was closed. The room was great on the club floor! flat screen tv, big beds, and prompt service. The people at this hotel are the best! From the front desk to the nice lady at the club lounge, absolute greatness! I felt as though my family owned this hotel for 4 days. There are more VIP perks here than at the Westin for a lot less.,and with a lot less trafic. I can't wait for my family to come back to the Frisco area, we will stay here as often as we can.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2894,6240 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>291</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
+      </c>
+      <c r="X30" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>318</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35" t="s">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s">
+        <v>332</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>333</v>
+      </c>
+      <c r="O35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>310</v>
+      </c>
+      <c r="X35" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>340</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>347</v>
+      </c>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>348</v>
+      </c>
+      <c r="X37" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" t="s">
+        <v>354</v>
+      </c>
+      <c r="L38" t="s">
+        <v>355</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>347</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>356</v>
+      </c>
+      <c r="X38" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>360</v>
+      </c>
+      <c r="J39" t="s">
+        <v>361</v>
+      </c>
+      <c r="K39" t="s">
+        <v>362</v>
+      </c>
+      <c r="L39" t="s">
+        <v>363</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>347</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>364</v>
+      </c>
+      <c r="X39" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>367</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>368</v>
+      </c>
+      <c r="J40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" t="s">
+        <v>370</v>
+      </c>
+      <c r="L40" t="s">
+        <v>371</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>372</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>364</v>
+      </c>
+      <c r="X40" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>375</v>
+      </c>
+      <c r="J41" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41" t="s">
+        <v>377</v>
+      </c>
+      <c r="L41" t="s">
+        <v>378</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>372</v>
+      </c>
+      <c r="O41" t="s">
+        <v>181</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>379</v>
+      </c>
+      <c r="X41" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>383</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" t="s">
+        <v>385</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" t="s">
+        <v>391</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>392</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>401</v>
+      </c>
+      <c r="O44" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>402</v>
+      </c>
+      <c r="X44" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>406</v>
+      </c>
+      <c r="J45" t="s">
+        <v>407</v>
+      </c>
+      <c r="K45" t="s">
+        <v>408</v>
+      </c>
+      <c r="L45" t="s">
+        <v>409</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>410</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>411</v>
+      </c>
+      <c r="X45" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>414</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>415</v>
+      </c>
+      <c r="J46" t="s">
+        <v>416</v>
+      </c>
+      <c r="K46" t="s">
+        <v>417</v>
+      </c>
+      <c r="L46" t="s">
+        <v>418</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>411</v>
+      </c>
+      <c r="X46" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>421</v>
+      </c>
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>425</v>
+      </c>
+      <c r="O47" t="s">
+        <v>181</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>426</v>
+      </c>
+      <c r="X47" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>431</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>434</v>
+      </c>
+      <c r="O48" t="s">
+        <v>181</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>435</v>
+      </c>
+      <c r="X48" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>439</v>
+      </c>
+      <c r="J49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>434</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>443</v>
+      </c>
+      <c r="X49" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>447</v>
+      </c>
+      <c r="J50" t="s">
+        <v>448</v>
+      </c>
+      <c r="K50" t="s">
+        <v>449</v>
+      </c>
+      <c r="L50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>451</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>452</v>
+      </c>
+      <c r="X50" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>455</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>456</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K51" t="s">
+        <v>458</v>
+      </c>
+      <c r="L51" t="s">
+        <v>459</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>460</v>
+      </c>
+      <c r="O51" t="s">
+        <v>181</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>461</v>
+      </c>
+      <c r="X51" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>464</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>465</v>
+      </c>
+      <c r="J52" t="s">
+        <v>466</v>
+      </c>
+      <c r="K52" t="s">
+        <v>467</v>
+      </c>
+      <c r="L52" t="s">
+        <v>468</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>469</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>470</v>
+      </c>
+      <c r="X52" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>473</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>474</v>
+      </c>
+      <c r="J53" t="s">
+        <v>475</v>
+      </c>
+      <c r="K53" t="s">
+        <v>476</v>
+      </c>
+      <c r="L53" t="s">
+        <v>477</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>425</v>
+      </c>
+      <c r="O53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>478</v>
+      </c>
+      <c r="X53" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>482</v>
+      </c>
+      <c r="J54" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" t="s">
+        <v>484</v>
+      </c>
+      <c r="L54" t="s">
+        <v>485</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>478</v>
+      </c>
+      <c r="X54" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>488</v>
+      </c>
+      <c r="J55" t="s">
+        <v>489</v>
+      </c>
+      <c r="K55" t="s">
+        <v>490</v>
+      </c>
+      <c r="L55" t="s">
+        <v>491</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>425</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>492</v>
+      </c>
+      <c r="X55" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>495</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>496</v>
+      </c>
+      <c r="J56" t="s">
+        <v>497</v>
+      </c>
+      <c r="K56" t="s">
+        <v>498</v>
+      </c>
+      <c r="L56" t="s">
+        <v>499</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>500</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>501</v>
+      </c>
+      <c r="X56" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>504</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>505</v>
+      </c>
+      <c r="J57" t="s">
+        <v>506</v>
+      </c>
+      <c r="K57" t="s">
+        <v>507</v>
+      </c>
+      <c r="L57" t="s">
+        <v>508</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>509</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>510</v>
+      </c>
+      <c r="X57" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>513</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>514</v>
+      </c>
+      <c r="J58" t="s">
+        <v>515</v>
+      </c>
+      <c r="K58" t="s">
+        <v>516</v>
+      </c>
+      <c r="L58" t="s">
+        <v>517</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>518</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>510</v>
+      </c>
+      <c r="X58" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>520</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>521</v>
+      </c>
+      <c r="J59" t="s">
+        <v>522</v>
+      </c>
+      <c r="K59" t="s">
+        <v>523</v>
+      </c>
+      <c r="L59" t="s">
+        <v>524</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>525</v>
+      </c>
+      <c r="O59" t="s">
+        <v>181</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>526</v>
+      </c>
+      <c r="X59" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>529</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>530</v>
+      </c>
+      <c r="J60" t="s">
+        <v>531</v>
+      </c>
+      <c r="K60" t="s">
+        <v>532</v>
+      </c>
+      <c r="L60" t="s">
+        <v>533</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>525</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>526</v>
+      </c>
+      <c r="X60" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>535</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>536</v>
+      </c>
+      <c r="J61" t="s">
+        <v>537</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>538</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>539</v>
+      </c>
+      <c r="O61" t="s">
+        <v>91</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>526</v>
+      </c>
+      <c r="X61" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>542</v>
+      </c>
+      <c r="J62" t="s">
+        <v>543</v>
+      </c>
+      <c r="K62" t="s">
+        <v>544</v>
+      </c>
+      <c r="L62" t="s">
+        <v>545</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>546</v>
+      </c>
+      <c r="O62" t="s">
+        <v>181</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>547</v>
+      </c>
+      <c r="X62" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>550</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>551</v>
+      </c>
+      <c r="J63" t="s">
+        <v>552</v>
+      </c>
+      <c r="K63" t="s">
+        <v>553</v>
+      </c>
+      <c r="L63" t="s">
+        <v>554</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>546</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>555</v>
+      </c>
+      <c r="X63" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>558</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>559</v>
+      </c>
+      <c r="J64" t="s">
+        <v>560</v>
+      </c>
+      <c r="K64" t="s">
+        <v>561</v>
+      </c>
+      <c r="L64" t="s">
+        <v>562</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>563</v>
+      </c>
+      <c r="X64" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>566</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>567</v>
+      </c>
+      <c r="J65" t="s">
+        <v>568</v>
+      </c>
+      <c r="K65" t="s">
+        <v>569</v>
+      </c>
+      <c r="L65" t="s">
+        <v>570</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>571</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>572</v>
+      </c>
+      <c r="X65" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>575</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>576</v>
+      </c>
+      <c r="J66" t="s">
+        <v>577</v>
+      </c>
+      <c r="K66" t="s">
+        <v>578</v>
+      </c>
+      <c r="L66" t="s">
+        <v>579</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>580</v>
+      </c>
+      <c r="O66" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>572</v>
+      </c>
+      <c r="X66" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>582</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>583</v>
+      </c>
+      <c r="J67" t="s">
+        <v>584</v>
+      </c>
+      <c r="K67" t="s">
+        <v>585</v>
+      </c>
+      <c r="L67" t="s">
+        <v>586</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>571</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>587</v>
+      </c>
+      <c r="X67" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>590</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>591</v>
+      </c>
+      <c r="J68" t="s">
+        <v>592</v>
+      </c>
+      <c r="K68" t="s">
+        <v>593</v>
+      </c>
+      <c r="L68" t="s">
+        <v>594</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>595</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>596</v>
+      </c>
+      <c r="X68" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>599</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>600</v>
+      </c>
+      <c r="J69" t="s">
+        <v>601</v>
+      </c>
+      <c r="K69" t="s">
+        <v>602</v>
+      </c>
+      <c r="L69" t="s">
+        <v>603</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>604</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>605</v>
+      </c>
+      <c r="X69" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>608</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>609</v>
+      </c>
+      <c r="J70" t="s">
+        <v>610</v>
+      </c>
+      <c r="K70" t="s">
+        <v>611</v>
+      </c>
+      <c r="L70" t="s">
+        <v>612</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>580</v>
+      </c>
+      <c r="O70" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>613</v>
+      </c>
+      <c r="X70" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>616</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>617</v>
+      </c>
+      <c r="J71" t="s">
+        <v>618</v>
+      </c>
+      <c r="K71" t="s">
+        <v>619</v>
+      </c>
+      <c r="L71" t="s">
+        <v>620</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>621</v>
+      </c>
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>622</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>623</v>
+      </c>
+      <c r="J72" t="s">
+        <v>624</v>
+      </c>
+      <c r="K72" t="s">
+        <v>625</v>
+      </c>
+      <c r="L72" t="s">
+        <v>626</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>627</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>629</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>630</v>
+      </c>
+      <c r="J73" t="s">
+        <v>631</v>
+      </c>
+      <c r="K73" t="s">
+        <v>632</v>
+      </c>
+      <c r="L73" t="s">
+        <v>633</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>634</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>635</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>636</v>
+      </c>
+      <c r="J74" t="s">
+        <v>637</v>
+      </c>
+      <c r="K74" t="s">
+        <v>638</v>
+      </c>
+      <c r="L74" t="s">
+        <v>639</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>640</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>642</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>643</v>
+      </c>
+      <c r="J75" t="s">
+        <v>644</v>
+      </c>
+      <c r="K75" t="s">
+        <v>645</v>
+      </c>
+      <c r="L75" t="s">
+        <v>646</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>647</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>648</v>
+      </c>
+      <c r="X75" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>651</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>652</v>
+      </c>
+      <c r="J76" t="s">
+        <v>653</v>
+      </c>
+      <c r="K76" t="s">
+        <v>654</v>
+      </c>
+      <c r="L76" t="s">
+        <v>655</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>656</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>657</v>
+      </c>
+      <c r="J77" t="s">
+        <v>658</v>
+      </c>
+      <c r="K77" t="s">
+        <v>659</v>
+      </c>
+      <c r="L77" t="s">
+        <v>660</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>661</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>663</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>664</v>
+      </c>
+      <c r="J78" t="s">
+        <v>665</v>
+      </c>
+      <c r="K78" t="s">
+        <v>666</v>
+      </c>
+      <c r="L78" t="s">
+        <v>667</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>661</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>669</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>670</v>
+      </c>
+      <c r="J79" t="s">
+        <v>671</v>
+      </c>
+      <c r="K79" t="s">
+        <v>672</v>
+      </c>
+      <c r="L79" t="s">
+        <v>673</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>661</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>674</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>675</v>
+      </c>
+      <c r="J80" t="s">
+        <v>676</v>
+      </c>
+      <c r="K80" t="s">
+        <v>677</v>
+      </c>
+      <c r="L80" t="s">
+        <v>678</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>679</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>680</v>
+      </c>
+      <c r="X80" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>683</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>684</v>
+      </c>
+      <c r="J81" t="s">
+        <v>685</v>
+      </c>
+      <c r="K81" t="s">
+        <v>686</v>
+      </c>
+      <c r="L81" t="s">
+        <v>687</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>680</v>
+      </c>
+      <c r="X81" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>689</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>690</v>
+      </c>
+      <c r="J82" t="s">
+        <v>691</v>
+      </c>
+      <c r="K82" t="s">
+        <v>692</v>
+      </c>
+      <c r="L82" t="s">
+        <v>693</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>694</v>
+      </c>
+      <c r="O82" t="s">
+        <v>91</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>680</v>
+      </c>
+      <c r="X82" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>696</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>697</v>
+      </c>
+      <c r="J83" t="s">
+        <v>698</v>
+      </c>
+      <c r="K83" t="s">
+        <v>699</v>
+      </c>
+      <c r="L83" t="s">
+        <v>700</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>701</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>702</v>
+      </c>
+      <c r="X83" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>705</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>706</v>
+      </c>
+      <c r="J84" t="s">
+        <v>707</v>
+      </c>
+      <c r="K84" t="s">
+        <v>708</v>
+      </c>
+      <c r="L84" t="s">
+        <v>709</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>710</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>712</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>713</v>
+      </c>
+      <c r="J85" t="s">
+        <v>714</v>
+      </c>
+      <c r="K85" t="s">
+        <v>715</v>
+      </c>
+      <c r="L85" t="s">
+        <v>716</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>717</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>719</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>720</v>
+      </c>
+      <c r="J86" t="s">
+        <v>721</v>
+      </c>
+      <c r="K86" t="s">
+        <v>722</v>
+      </c>
+      <c r="L86" t="s">
+        <v>723</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>724</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>726</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>727</v>
+      </c>
+      <c r="J87" t="s">
+        <v>728</v>
+      </c>
+      <c r="K87" t="s">
+        <v>729</v>
+      </c>
+      <c r="L87" t="s">
+        <v>730</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>731</v>
+      </c>
+      <c r="O87" t="s">
+        <v>91</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>733</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>734</v>
+      </c>
+      <c r="J88" t="s">
+        <v>735</v>
+      </c>
+      <c r="K88" t="s">
+        <v>736</v>
+      </c>
+      <c r="L88" t="s">
+        <v>737</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>738</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>739</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>740</v>
+      </c>
+      <c r="J89" t="s">
+        <v>741</v>
+      </c>
+      <c r="K89" t="s">
+        <v>742</v>
+      </c>
+      <c r="L89" t="s">
+        <v>743</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>744</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>746</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>747</v>
+      </c>
+      <c r="J90" t="s">
+        <v>748</v>
+      </c>
+      <c r="K90" t="s">
+        <v>749</v>
+      </c>
+      <c r="L90" t="s">
+        <v>750</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>751</v>
+      </c>
+      <c r="O90" t="s">
+        <v>181</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>753</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>754</v>
+      </c>
+      <c r="J91" t="s">
+        <v>755</v>
+      </c>
+      <c r="K91" t="s">
+        <v>756</v>
+      </c>
+      <c r="L91" t="s">
+        <v>757</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>751</v>
+      </c>
+      <c r="O91" t="s">
+        <v>181</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>759</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>760</v>
+      </c>
+      <c r="J92" t="s">
+        <v>761</v>
+      </c>
+      <c r="K92" t="s">
+        <v>762</v>
+      </c>
+      <c r="L92" t="s">
+        <v>763</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>764</v>
+      </c>
+      <c r="O92" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>765</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>766</v>
+      </c>
+      <c r="J93" t="s">
+        <v>767</v>
+      </c>
+      <c r="K93" t="s">
+        <v>768</v>
+      </c>
+      <c r="L93" t="s">
+        <v>769</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>764</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>771</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>772</v>
+      </c>
+      <c r="J94" t="s">
+        <v>773</v>
+      </c>
+      <c r="K94" t="s">
+        <v>774</v>
+      </c>
+      <c r="L94" t="s">
+        <v>775</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>776</v>
+      </c>
+      <c r="O94" t="s">
+        <v>63</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57216</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>777</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>778</v>
+      </c>
+      <c r="J95" t="s">
+        <v>779</v>
+      </c>
+      <c r="K95" t="s">
+        <v>780</v>
+      </c>
+      <c r="L95" t="s">
+        <v>781</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>782</v>
+      </c>
+      <c r="O95" t="s">
+        <v>91</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>783</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_678.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_678.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>DeltaShuttle192</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I recently stayed at the Sheraton Stonebriar in Frisco over Memorial Day. The room was nice and clean, it had a small refrigerator inside the tv stand/dresser combo. It was about a 25 minute drive to downtown however it is about 5 minutes from a decent size mall and restaurants. The bedding was the highlight for me. My room was a 2 double however the weight of the comforter and the plushness of the mattress was a welcoming feeling all 3 nights I stayed at the Sheraton. If I was in the area I would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Michelleknowstravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r572555312-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>It all started off good.  The front desk was nice and tried to get me checked in early. It all went down hill from there.  The space tries to emulate a loft or maybe courtyard but misses the mark. In the business center I couldn’t find a plug. That’s practically a disaster these days. Laptop bar with no desk.  I had no room so no wifi. I had to walk back to the front desk twice to get the password.  Meanwhile I was getting 10,000 messages the work day just started. They did get me my key but an arrogant millennial said you are in the south tower. As if I know where the south tower is??? I had to hunt around and ask again as my phone pinged in my pocket reminding me that I need a plug.  The room was nice and a huge comfortable Sheraton heavenly bed.  Plugs!  Nice laptop desk, worked straight through lunch.  Room service salad was decent but the attendant walks in and hands me the bill ‘can you sign this?’ she barks.  Dang! Then on top of the service fee there is a space for ‘gratuity’ for a rude server? Well this headache is not going anywhere so maybe just a bath... I head to the bathroom and there is only a shower!!!! This business trip is heading south quick. Luckily they had bottles of water. I passed out early hoping the headache...It all started off good.  The front desk was nice and tried to get me checked in early. It all went down hill from there.  The space tries to emulate a loft or maybe courtyard but misses the mark. In the business center I couldn’t find a plug. That’s practically a disaster these days. Laptop bar with no desk.  I had no room so no wifi. I had to walk back to the front desk twice to get the password.  Meanwhile I was getting 10,000 messages the work day just started. They did get me my key but an arrogant millennial said you are in the south tower. As if I know where the south tower is??? I had to hunt around and ask again as my phone pinged in my pocket reminding me that I need a plug.  The room was nice and a huge comfortable Sheraton heavenly bed.  Plugs!  Nice laptop desk, worked straight through lunch.  Room service salad was decent but the attendant walks in and hands me the bill ‘can you sign this?’ she barks.  Dang! Then on top of the service fee there is a space for ‘gratuity’ for a rude server? Well this headache is not going anywhere so maybe just a bath... I head to the bathroom and there is only a shower!!!! This business trip is heading south quick. Luckily they had bottles of water. I passed out early hoping the headache would go away.  At 2:00am someone wakes me up pounding on my door.  I was not going to open it.  I call the front desk. They said a smoke alarm went off they wanted to see how I was.  Luckily Sheraton still has a heavenly bed because the rest was no fun.  The breakfast in the cold &amp; uncomfortable lounge was 14.95. I passed. Can’t recommend.More</t>
   </si>
   <si>
+    <t>AlwaysOnTheGo53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r568810831-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>I stayed at the Sheraton Stonebriar when traveling in the Plano area for work.  There isn't much that is fancy about the hotel - it's your typical Sheraton - but the room was nice, big and clean.  The executive lounge was one of the smaller ones I have seen, and could use an upgrade, but the staff was very helpful and pleasant and the location is convenient.More</t>
   </si>
   <si>
+    <t>ENIAMASU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r537775051-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>After my initial review post was taken down based  on protest by the hotel as Tripadvisor doesn’t allow me to share the awful experience my partner had at this hotel, I now will share with you, tripadvisor reader, my experience with this hotel. Let me start by saying that as a hotel owner of multiple award winning properties it is painful to watch this hotel being more concerned about trying to remove negative reviews instead of focusing on guest experience. I decided to send my partner a bottle of wine after a few less than pleasant experiences at this hotel and was welcomed with full resistance, unkindness and unprofessionalism rarely seen at a Starwood hotel. Not only was this hotel unable to properly answer a phone, direct me to the correct department and take a credit card for a approximately $50 bottle of wine I wanted to send to my partner’s room. It was  done in a manner where lying about Starwood policies and bs stories were told to hide the incompetence of evening managers and totally unworkable procedures under the pretense that it was to protect the guest. Long story short the hotel could not take a credit card over the phone because according to this hotel it was not in compliance with SPG regulations, instead they had to send a credit card authorization form which they couldn’t send  because the department who sends credit card authorization forms was...After my initial review post was taken down based  on protest by the hotel as Tripadvisor doesn’t allow me to share the awful experience my partner had at this hotel, I now will share with you, tripadvisor reader, my experience with this hotel. Let me start by saying that as a hotel owner of multiple award winning properties it is painful to watch this hotel being more concerned about trying to remove negative reviews instead of focusing on guest experience. I decided to send my partner a bottle of wine after a few less than pleasant experiences at this hotel and was welcomed with full resistance, unkindness and unprofessionalism rarely seen at a Starwood hotel. Not only was this hotel unable to properly answer a phone, direct me to the correct department and take a credit card for a approximately $50 bottle of wine I wanted to send to my partner’s room. It was  done in a manner where lying about Starwood policies and bs stories were told to hide the incompetence of evening managers and totally unworkable procedures under the pretense that it was to protect the guest. Long story short the hotel could not take a credit card over the phone because according to this hotel it was not in compliance with SPG regulations, instead they had to send a credit card authorization form which they couldn’t send  because the department who sends credit card authorization forms was closed and they didn’t want to take a risk on using a credit card for a $50 bottle of wine (which would be purchased for around $15 by the hotel) to be send to the room of my partner to cheer him up a bit because he felt miserable at this hotel. I will make sure that he will review your hotel separately but based on MY interaction with this hotel it is easy to say that this must be one of those properties that puts SPG to shame. Sincerely, a SPG platinum member, and owner of a top 100 best hotels in the world awarded hotel.More</t>
   </si>
   <si>
+    <t>slmnsam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r532376736-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>This is a very nice hotel, surrounded by great restaurants and just around the corner from The Star and all the shopping at Stonebriar.  You also are walking distance to Stonebriar CC and its fantastic golf course.  If you have an event in Frisco, its a really great place to stay.More</t>
   </si>
   <si>
+    <t>simply126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r525210999-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -330,6 +348,9 @@
     <t>I am a SPG member and found this Sheraton to be average in terms of general hotels but below average for SPG expectations. The rooms are dark, the service is subpar but the location is convenient to a couple of restaurants. When I checked in, I was given a room on the first floor facing the freeway which was really disappointing considering I've often been upgraded. I didn't find the staff to be especially helpful or friendly in term of in/out greeting. You don't realize how much that adds to a hotel experience until it's a missed mark.More</t>
   </si>
   <si>
+    <t>mpolatin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r504846512-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>This is what you'd expect from a Sheraton. Pretty good level of services. Decent lobby bar. Decent Gym. Good location for meetings. I wouldn't exactly classify this as a vacation place. Good walking to restaurants. More</t>
   </si>
   <si>
+    <t>Spartacus2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r504574629-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Pros:- Super comfy bed with the most the most comfy pillows- Very well kept, looks very new and modern- Close to a lot of restaurants- Friendly staff- Close to the office areaCons:- No real consThe hotel is very nice, looks very new and very well kept. It's close to all the offices and there are a lot of restaurants in the area. It's also very competitively priced. I would highly recommend this hotel and would definitely stay there again.More</t>
   </si>
   <si>
+    <t>LaTasha J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r504470816-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>Basketball tournament weekend for my son and I wanted to stay close to the gym but also be able to relax. The location was so convenient,with great food options within walking distance. The room were originally placed in was nice and I would have loved it for myself or a couples trip. I went to talk to the front desk and they sooooo nicely upgraded up to a suite. Now not only do we have a lovely space for the weekend, but we can relax and enjoy. More</t>
   </si>
   <si>
+    <t>Charles1019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r492824189-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>Stayed here for the first time and was in town for our board of directors and sales meeting. The front desk and all the staff were very helpful especially where to eat.The rooms were very comfortable and modern. Though I did not eat breakfast in the lobby the menu looked great. the conference staff attendance did a wonderful job making sure we were stocked with drinks, snacks and our lunch and breakfast items all 4 days. There are a number of great restaurants within very short walking distance from the hotel.Very nice property and if you need a hotel in the Frisco area I would highly recommend this property!More</t>
   </si>
   <si>
+    <t>SubSan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r491974045-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>Stayed here for 10 days on a business trip to Plano. Great location with quite a few restaurants just across the street. Breakfast menu and Sheraton club services were great. They have a free shuttle services to all offices nearby. This is a popular hotel and getting reservations can be difficult. Book in advance.More</t>
   </si>
   <si>
+    <t>davidandrose1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r486135782-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>Spent one night here on business.  Late check-in.  Warm greeting at front desk, offered extra waters and given a good explanation of breakfast options.  Upgraded to an oversized 2 room suite; although modest ((fiberglass shower floor, no shower door) all items worked well and were in good condition.  Comfy bed, good AC.  Breakfast buffet was okay.  For 1/2 the price of the Marriott, I'll stay here unless I have to walk to dinner.More</t>
   </si>
   <si>
+    <t>HappySmithMommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r463788041-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>The room was beyond comfortable. The staff was incredibly kind and helpful.I was here on business but brought my family with me. My boys were well received and enjoyed their stay as well. I wouldn't hesitate to stay at this impeccable property during my next visit to the area!More</t>
   </si>
   <si>
+    <t>PGSR2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r463271733-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>My husband and I stayed here for two nights on Feb 22nd and 23rd -we were in room 202.  The King size bed was very comfortable.  Pretty basic room-coffee maker with condiments was nice.  The hotel was not loud-we were by the freeway and there was construction across the street-but it was not very loud at all.  Was not able to enjoy any of the hotel amenities like the fitness room but the photos looked nice.  We did sip drinks at the lobby bar and the bartender was very nice and efficient.  We would definitely stay here again.  There is no valet-just self park which was no big deal.  There are several restaurants within a very short walking distance.More</t>
   </si>
   <si>
+    <t>Cliff L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r457554378-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>Great value for the money, services were adequate the rooms were clean the service was prompt and friendly. I think dollar 4 dollar this is the best value in the area.  The restaurant and bar offered everything you would want or need. More</t>
   </si>
   <si>
+    <t>Sonal J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r439038738-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>The day after I stayed here, I noticed numerous bites on my body/face which seems to be from bedbugs (I changed nothing else in my diet or bedroom arrangements).  I have never experienced anything like this - these bites are itchy, swollen, and are all over my face, legs, ankles, under my chin, and all over my arms.  This was the main issue - however, the "buffet breakfast" was very old and unappetizing and mainly consisted of eggs and burnt (almost non existent) bacon.  If I could give this hotel negative stars, I would - considering the overwhelming pain and discomfort I am experiencing as a result of the bed bugs.  I would recommend you not risk your health, and stay somewhere else in the Frisco area.More</t>
   </si>
   <si>
+    <t>TravelDFW1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r430253425-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>The hotel is very nice, clean room and great accommodating staff.  But, we've always been told to not judge a book by it's cover!  There are many downsides that drove me to review this property:-"Premium" high speed internet for $10/day is barely functional, not high speed-NOISE NOISE NOISE and lack of rudimentary sound proofing reminds me of college housing - 1) Walls are paper thin, meaning you hear everyone from the hallway to the other rooms 2) They neglect to tell you that they (or someone next door) is building a parking garage directly behind the property.  Unfortunately the parking garage starts construction at around 5am, which means you start hearing beeping cranes and other equipment bright and early 3) The highway noise requires a significant adjusetment-For whatever reason, the pillows I was given were the softest pillows in my life.  They must have had a few pieces of filler in them and nothing else.  Good for some, but left me with pain throughout my back and neck.-When the A/C kicked on every hour or so, it was accompanied by an often startling bangWith so many choices of properties to stay in the Plano/Frisco area, I will be staying elsewhere next time.More</t>
   </si>
   <si>
+    <t>samuelmiddleton78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r426982801-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Spent a Friday night out in Frisco, Texas, and reserved a suite at the Sheraton Stonebriar. Stayed in the Executive Suite, Room 407, and was not disappointed; it's a large, comfortable suite divided into a living room and bedroom. The living room featured a full closet, half bath and coffee bar; the bedroom had another full closet and the largest bathroom I've encountered in a Sheraton, having both a walk-in shower and a large soaking tub. The room faced west and north, and even though there was construction immediately to the west and south of the hotel during the day, the noise was muted in the suite and did not disrupt our sleep; the rooms had heavy draperies and insulated windows. The front desk staff were polite and enthusiastic both at check-in and check-out. Would not hesitate to stay at this Sheraton again in the future.More</t>
   </si>
   <si>
+    <t>bddunk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r405723343-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>My wife and I visited this hotel again for our anniversary.  The check-in person asked if we were celebrating any special occasion. We told her about our anniversary and asked if we would like for the hotel to send up some champagne and/or some chocolate covered strawberries.  We said the strawberries would be nice and she asked when we would be back from dinner and she would have them brought to the room.  Sure enough, when we got back from dinner, the chocolate covered strawberries in our room - very nice.  Riley you did an excellent job.  We used an automobile association discount for a junior suite on the club floor.  Very nice room with separate shower.  It also included a continental breakfast, which really was much more than a continental breakfast - it included scrambled eggs, bacon, potatoes, fruit, cereals, and various breads.  We felt like we got a great value for the room.  The room was nice and quiet and dark.  The hotel is also conveniently located within walking distance of several nice restaurants.More</t>
   </si>
   <si>
+    <t>Jeff B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r398175980-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Although I live 10 minutes away from this hotel, chose for a staycation celebrating my weeding anniversary. Located at Legacy and 121 (Sam Rayburn Tollway), there is a plethora of local activities. From restaruants, a major regional mall, minor league baseball, Top Golf, Water park, all can be found within a 10 minute drive.Found the hotel quite nice. The staff was very friendly and even sent up a complimentary desert and a card signed by all of the staff. Room was quite comfortable and clean. Bathroom was nice with both shower and bath. Common areas clean and quiet. Nice club lounge wih a nice breakfast.More</t>
   </si>
   <si>
+    <t>HistorianOk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r396932503-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -696,6 +759,9 @@
     <t>We stay at this hotel at least once a year. It is consistently clean, the staff is gracious, and the location is perfect for shoppers. The bad part is the lack of breakfast.This weekend we stayed at the front of the hotel; we normally stay further back. It was very noisy. The walls were thin, we could hear the parking lot noise, and a staff member woke us up about 3 am both mornings talking as he went down the hall. I'll probably give them a second chance, but I'll ask to stay in the back next time.More</t>
   </si>
   <si>
+    <t>EducationRock82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r384788091-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -723,6 +789,9 @@
     <t>This is a Beautiful property with a great staff &amp; sheek modern decor! The beds were comfortable and the rooms were spacious.  Had to utilize the printer and office area quite a bit -had no problems doing do. Would definitely stay here again! More</t>
   </si>
   <si>
+    <t>kjohale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r380594007-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -748,6 +817,9 @@
   </si>
   <si>
     <t>We were in Frisco for a graduation. This hotel is very close to the Dr Pepper Center where it is held. Very nice hotel. It was pouring when we arrived. They only have a small canopy outside, which really made it hard to get from the car to the hotel without getting soaked. The staff was friendly and helpful. We paid a little extra to be on the club floor. The price included snacks, an evening happy hour and breakfast. The happy hour was nothing special, they had two appetizers that they added to the stale trail mix and dried fruit they had out all day. They really need to cover the snacks, since it is so humid, everything goes stale quickly. The breakfast was very good, scrambled eggs, potatoes and bacon (only one day). They had a specialty coffee machine that is available all day, along with sodas, bottled water, milk, yogurt, fruit cups, apples, chips and granola bars. Breakfast is served at 6:30am during the week and not until 7am on weekends. Angie was joy to talk to and she kept the club room very clean. Our room was very nice. The beds were comfortable and everything seemed very clean.  We were really happy with our entire stay.More</t>
+  </si>
+  <si>
+    <t>Jac299</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r373865106-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -781,6 +853,9 @@
 The Club provides a limited, but adequate version of the...My husband and I stayed at the Sheraton Stonebriar for 5 weeks. This hotel felt like a home away from home for us. The hotel facilities are good. There is an excellent gym, pool and hot tub, but it is the people who work in this hotel that make all the difference. Every single staff member was polite and cheerful. Terri and Irina on the front desk, need a special mention. They made us feel like we were guests in their home. These girls are a class act. Nothing was too much trouble. Unfortunately, I became ill during our stay. Terri helped me so much during that time. Her warm and caring approach to her job is outstanding.  Irina was so friendly and helpful and we shared many laughs together. When our family and friends visited us, they were welcomed with open arms.The 3 young men who shared the duty of driving the shuttle bus are to be commended. Not only were they excellent and safe drivers, but Diego, Marcos and Stephen were friendly and informative. They would drop me anywhere that I needed to go within the 3 mile radius, and pick me up on time, every time. They suggested places for me to visit and restaurants to eat at. They always worried about me walking the busy streets. Again, these employees went beyond the call of duty.The Club provides a limited, but adequate version of the full American breakfast, which is served daily in the restaurant. The all day snacks, which included health bars, fruit, nuts, sodas and decent coffee were regularly replenished. There was a microwave in the Club Lounge and I was able to use that to warm up food. Ana and Angie, the two girls that worked in the Club, were so helpful and cheerful. They went above and beyond what was necessary to make me feel at home.We stayed in 2 different rooms. The older style room did not have a fridge, but as soon as we asked, one was promptly delivered to our room. The newer style room does have a fridge incorporated in the cabinet.  The beds were very comfortable and I loved the pillows.The close proximity to such a variety of restaurants is impressive. Silver Fox has some of the best steak we have ever tasted. The Italian, Mexican and Japanese restaurants were excellent and the food and friendly service in Bar 121 was outstanding. Whenever we needed a change from the local eateries, Diego, Marcos or Stephen would drive us to the restaurant of our choice at The Shops at Legacy. Finally, on the day we left, we said our tearful goodbyes. There were hugs and we were even waved off by Irina and Marcos. Truly a special place.More</t>
   </si>
   <si>
+    <t>Sepher77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r358557268-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -808,6 +883,9 @@
     <t>The past two times we booked this hotel we have had issues.  The first time they could not find our reservation and we had to wait in the lobby for over an hour until they finally found it.  They did not offer any reason or anything to make up for this delay.  We booked this hotel again for March the 18th (for our Son's 10th birthday party), and about a week ahead of our intended stay.  Again, they could not find our reservation, and the double queen rooms were sold out (once was a direct booking and the other time was a 3rd party booking, but regardless, this is the ONLY hotel we have ever had issues with finding our reservations).  We found this out at 9:00 p.m. Also, they had many junior suites available at 9:00 p.m. and refused to offer us these rooms at the same or similar rate.  Moreover, they would not give us ANY room at the same rate at which we previously booked the room.  We had four people total in our room and the only thing they would offer was a king room with a roll-away bed.  It has become obvious to me that this hotel deals in quantity, and has no interest in the customer.  We frequent Frisco and are Starwood Preferred members.  But we will never again stay at this establishment.More</t>
   </si>
   <si>
+    <t>montana2312</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r353398105-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -832,6 +910,9 @@
     <t>We stayed on a Saturday night. I never ever complain, and I stay in hotels a lot. No bathtub in rooms with King beds, which wouldn't have been a big deal for me if I didn't have my 3 year old son with me or the knob was somewhere I could reach without having to be completely in the shower. The doors didn't slide for some reason. Air conditioner didn't work, we woke up sweating. Staff was very apathetic. They probably had a busy night, but it was uncomfortable. Staff didn't want to give me a late check out after keeping us standing outside all night (shoeless and sleepy) trying to figure out why the fire alarms were going off etc...More</t>
   </si>
   <si>
+    <t>Melissa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r351188190-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -853,6 +934,9 @@
     <t>The hotel advertised as boutique and as modern, so when I first checked in and went to the room, I was disappointed.  They told me there was a pool but no hot tub, and I didnt see why this hotel could advertise the way it did.  It was less than what I wanted, and certainly not what I expected.  The room was also rather small. I decided to walk the grounds, wanting to write a review, but wanting to be certain of what the place was like.  To my surprise, the hotel was quite nice.  Great outdoor pool and hot tub, and even a putting green.  Plus there was an area indoors near there with a large round couch and a nice tv, plus several computers  on the side.  That would be a great area to visit. More</t>
   </si>
   <si>
+    <t>dntla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r337920720-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -880,6 +964,9 @@
     <t>Room was nice, staff was nice, restaurant looked nice, room service was prompt. They even offered to make a substitution when I declined toast with breakfast. I can't think of a single thing to complain about, and while I'm not a complainer I do try to write balanced reviews.More</t>
   </si>
   <si>
+    <t>JetLagLifer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r330552214-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -907,6 +994,9 @@
     <t>Sheraton Stonebriar is in a great location (easy to get to from Highway 121, Legacy Road and close to the Dallas North Tollway), 4-5 restaurants within 5 minute walking distance. The hotel went through a recent upgrade (is a new hotel anyway).More</t>
   </si>
   <si>
+    <t>Travelingmomok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r325823607-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1022,9 @@
   </si>
   <si>
     <t>Not too please with location. We travel A lot,and this has been one of our more annoying stays. We got there at around 11pm for the night only to find find out that the system was down and we couldn't get in our room. Now,common courtesy on behalf of the hotel would have made the front desk give us our reserved room,and pay later when the system was back up. However,this guy had us waiting with my spouse in the card with children for almost an hour before we were finally allowed in our room. We drove almost 4hrs to get there,only to have to wait for almost 1 hour for our 2 rooms. Ok,that's bad enough then this guy calls us at 1:30 am(yes in the middle of the night) asking for our credit card number even though the system still was not up. He was trying to write our card number down for later,which is totally against Visa/MasterCard policies. You should NEVER write down a customers credit card information. I will be filing a form with visa regarding that also! Needless to say,when we asked was he writing it down.he said yes and we refused the info and told him we'd come in the morning to swipe the card only. I can't believe he had us sitting there for so long,then called us in the middle of the night when we had just fallen asleep. Not good for...Not too please with location. We travel A lot,and this has been one of our more annoying stays. We got there at around 11pm for the night only to find find out that the system was down and we couldn't get in our room. Now,common courtesy on behalf of the hotel would have made the front desk give us our reserved room,and pay later when the system was back up. However,this guy had us waiting with my spouse in the card with children for almost an hour before we were finally allowed in our room. We drove almost 4hrs to get there,only to have to wait for almost 1 hour for our 2 rooms. Ok,that's bad enough then this guy calls us at 1:30 am(yes in the middle of the night) asking for our credit card number even though the system still was not up. He was trying to write our card number down for later,which is totally against Visa/MasterCard policies. You should NEVER write down a customers credit card information. I will be filing a form with visa regarding that also! Needless to say,when we asked was he writing it down.he said yes and we refused the info and told him we'd come in the morning to swipe the card only. I can't believe he had us sitting there for so long,then called us in the middle of the night when we had just fallen asleep. Not good for a hotel like this,the guy even joked about quitting his job due to the system malfunction! We were scheduled for 2 nights,but left the next day after the way we were treated! Disappointed to say the least!More</t>
+  </si>
+  <si>
+    <t>Dawn N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r309975711-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -965,6 +1058,9 @@
 One thing I can say is the staff was fabulous.  I was so very happy with the...For the price of this room, it should honestly be kept in better condition.  Upon walking into the room you first look at the bed and notice that the headboard has marks on it where the finish is rubbing off where peoples heads have been resting previously - which just gives you a creepy feeling.  Looking around the room it is very clean, until my husband closed the pocket door to the bathroom and I saw that the brown door was covered in white splotches from top to bottom - I don't know it was exactly, since I was in the room at that point - why would there be an explosion of liquid on that side of the bathroom door?  And why wouldn't it have been cleaned before arrived?I suppose you are paying for location - you can walk out of the hotel and are within steps to the Silver Fox Steakhouse and other fine dining establishments, just make sure you eat it all there and don't bring anything back to your room because there is no fridge - you are staying at such a nice hotel, after all.  They pool is great, they have a hot tub, and a huge pool, but it is only 3.5 feet, so as long as you don't stand up you are good to go.One thing I can say is the staff was fabulous.  I was so very happy with the service during my entire stay.  Every member of the front desk staff was so very courteous, and the bar staff was lovely.  Common areas are gorgeous and reviews of the other rooms seemed perfectly adequate, so maybe I just didn't particularly care for my room.  As far as location and service, it is absolutely up to Sheraton standards, if only they would replace the headboards and clean the pocket doors, they would have gotten a completely different review.More</t>
   </si>
   <si>
+    <t>BGDUDE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r303534872-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -992,6 +1088,9 @@
     <t>We stayed at this location for 2 weekend nights. The location was convenient and easy to get in and out of from either direction. The room was a quiet 2 queen on the club level. The beds were comfy and it had a great shower. The club lounge was a little lacking in the evening but the breakfast was better stocked with eggs and bacon and Danish. There were some great restaurants on the same property and the Italian food restaurant was pretty pleasing. The front desk staff were very attentive and pleasant. We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Kati D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r302429182-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1109,9 @@
     <t>Booked this room at a discounted rate and was very pleased! Hotel is nice and clean with all modern comforts and pet friendly. Appears that it was recently updated. Staff is helpful and courteous. Location is convenient for business or leisure. Only drawback was the room was small.More</t>
   </si>
   <si>
+    <t>txchef320</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r289677810-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1133,9 @@
     <t>Great hotel staff. Great decor and a great area to be in but our room was extremely musty/muggy. We had to stay here on points from a water pipe burst in our house. I would stay again, just for a Non muggy/musty room.More</t>
   </si>
   <si>
+    <t>JOhn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r287008338-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1157,9 @@
     <t>Sheraton Stonebriar became my favorite hotel when traveling to our Plano office every 3-4 weeks. Great access located right off of Rte 121, just a couple of miles to the office; just a brief walk to several great restaurants including Italian, Sushi, etc. Service always outstanding; friendly, business-like; always asking how everything is or how to improve upon; could always count upon extremely clean &amp; comfortable rooms; bath amenities, etc. Can honestly state that i never had a bad experience!More</t>
   </si>
   <si>
+    <t>JuanGonzo123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r286115232-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1187,9 @@
     <t>This hotel is fantastic! Great quality, especially for the price.The entire staff was excellent and treated everyone I was with like we were family. Everyone there is happy to go above and beyond, and we will certainly stay here again.Highly recommend this property.More</t>
   </si>
   <si>
+    <t>iliketotravel85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r281641662-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1103,6 +1214,9 @@
     <t>Spent five nights at this hotel and it's a great choice for those in Frisco / Plano for work. Very close to the major offices / headquarters in the area. Has a good subscription of newspapers, a decent gym (well-equipped with cardio machines and a range of free weights) and good customer service. For those that are not driving, there's a shuttle that takes you to anywhere around the hotel that is within a 3-mile radius. This works especially for those staying at the hotel during the day without a car, or for some evening dinner options, too. The shuttle runs every half hour, starting 7am, up till 10pm. Had some really good food options at the nearby Shoppes at Legacy Commons - we ate twice at Cantina Laredo, and once at the Italian restaurant. In-room dining options at the hotel are limited, but good nevertheless. The breakfast, however, can be worked on - the most basic, to have the option of having your eggs in ways other than scrambled. The baked goods (breads) could be fresher, too.Another thing I noticed was that their guest relations desk seemed to not be located within the hotel and things got lost in translation a couple of times.  However, this is - all in all - a good option for those in the area for business, and also those looking for a pit stop on their road trip. More</t>
   </si>
   <si>
+    <t>Pamela S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r277683145-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1241,9 @@
     <t>The staff was friendly and helpful.  The hotel was beautiful.  Rooms spacious with all the amenities you want and need.  Lots around the hotel to make this a perfect location.  For a Sheraton I was pleasantly surprised.  Kudos all around.More</t>
   </si>
   <si>
+    <t>mtcnyc34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r275787968-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1263,9 @@
   </si>
   <si>
     <t>This is a nice hotel located right next to a freeway. The rooms are clean and well-appointed. Rooms that face the freeway can be very loud. I was initially given one of these rooms and had to change it because the noise was continuous and bothersome. I was given a room facing the inside of the parking lot and it was great. They have a nice hot breakfast that starts at 6:30 AM. More</t>
+  </si>
+  <si>
+    <t>jenluvscreed</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r270220398-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -1174,6 +1294,9 @@
 Breakfast the next morning was a bit disappointing and could use some work as they only had bacon, sausage, cubed potatoes. oatmeal and cheesy eggs for the "hot" side. They had the normal selection of cereals, a few yogurts, some bread to toast and a few pieces of fruit. Just seems like Starwood needs to up their game compared to some of the comparable Hilton's. A waffle or even fruit that could be eaten later, bananas, oranges or apples, could help it a bit. At $15 a person, if it wasn't included with my AAA room rate, we would...It had been a few years since I had been here, but was not disappointed. If anything was more pleased to know that they have added on and now have a pool and hot tub. We "named our own price" and paid for it with a really horrible experience at another nearby hotel, so got on my Starwood app and within minutes had has a new room booked and couldn't have been happier. Just walking in is so nice, it always smells good in the lounge and we couldn't wait to have a much needed nap on the super soft beds. The only thing I would complain about is that I went downstairs to buy two cans of pop, gave the guy a $5 and only got back $1.50. Normally I would have said never mind, but we needed the caffeine. Breakfast the next morning was a bit disappointing and could use some work as they only had bacon, sausage, cubed potatoes. oatmeal and cheesy eggs for the "hot" side. They had the normal selection of cereals, a few yogurts, some bread to toast and a few pieces of fruit. Just seems like Starwood needs to up their game compared to some of the comparable Hilton's. A waffle or even fruit that could be eaten later, bananas, oranges or apples, could help it a bit. At $15 a person, if it wasn't included with my AAA room rate, we would have chosen somewhere else. But we loved our room, the bed was awesome, the room got super cold and the bathroom was clean!!!More</t>
   </si>
   <si>
+    <t>George Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r270189629-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1312,9 @@
     <t>I stay at the Stonebrier every other week when in Plano on business. I like its convenient location to Plano and its easy access to 121 to DFW. The hotel is brand new. The rooms are nothing special but clean and comfortable. Check in is done by friendly competent staff. There is a restaurant and a bar but I have not even there. The club room is available to preferred guests and has a decent complimentary breakfast.The walls are a little thin and its pretty standard, but the rooms are also quite affordable.More</t>
   </si>
   <si>
+    <t>phair50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r260119892-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1340,9 @@
   </si>
   <si>
     <t>I really enjoyed staying at this hotel.  Every staff member I came in contact with was very friendly and the hotel was well maintained.  I have lower back problems and usually don't sleep well when away from home, but the bed was so comfortable that I slept like a baby and did not have any back pain the entire trip.  The set up of the business center and lounge was great.  The computers, monitors and printer were very nice.  I loved the app for boarding passes which saved so much time. The lounge is located away from the bar area and has a fireplace, comfortable seating and a TV.  The food in the restaurant was good and there are a few restaurants within walking distance of the hotel.  There is a shuttle bus that will take you within a 3 mile radius of the hotel which includes the Stonebriar Centre Mall.  The hotel also has an exercise room and a very nice pool area.More</t>
+  </si>
+  <si>
+    <t>joboxer555</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r256263533-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -1247,6 +1376,9 @@
 Markayla at the front desk is one of the friendliest,most efficient, and helpful spg team members we have ever encountered. She spoke with us each time we came and went, but not in a "scripted" way; she even told us to drive safely as we left, as there was an ice storm heading to the area....If you have an event in the area, business, or maybe you are doing a weekend road trip, plan to stay here. We came in from Dallas to enjoy Grapevine's wineries, the Frisco area,and Forth Worth. This property is perfectly located to enjoy them all. The hotel is near the freeway, though this section of the freeway is very quiet at night. We did not have any noise problems (let the hotel know before you arrive, that you want to be on the "back" side; it is very quiet). This hotel is literally in the same parking lot as a few restaurants, so you could walk right over for a bite or a drink.Booking on the spg website, we got a great discounted rated for the "junior suite",and we very pleasantly surprised by how much space there is in this room. It is like a one bedroom apartment,with the master bedroom and full bathroom behind a 75% walled area. There is a den area, that has a half bathroom that is so convenient! There's a fridge, comfortable seating, and 2 flat screen tv's,too.Markayla at the front desk is one of the friendliest,most efficient, and helpful spg team members we have ever encountered. She spoke with us each time we came and went, but not in a "scripted" way; she even told us to drive safely as we left, as there was an ice storm heading to the area. The room was very clean, and we slept well, even though there were kids from a sports team staying there,and we could hear them when in the hall,but there was no noise once we entered our room on the 3rd floor. (There are 4 floors). The hotel is stylish, has a restaurant, and a nice pool. Book it, and enjoy your stay!More</t>
   </si>
   <si>
+    <t>thecosytraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r252481092-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1406,9 @@
     <t>Pros: clean, quiet, nice staffCons: if you are a light sleeper, rooms on the highway side of the hotel are noisy. There's something about the high-pitch whine of tires on Texas highways that sounds like you're in a Jetson's episode. It's distracting and it kept me awake. I moved to the other side of the hotel - the other tower - and it was fine.The breakfast is fine; nothing to write home about. Would I pay $18 after tip to eat it a second time? No. I grabbed something from Starbucks that tasted better. The lobby coffee was excellent, with good quality cream.The rooms were ok - beds a little soft. Shower water pressure could have been better. But a decent hotel etc. I might try a sister property next time I'm in Plano on business.More</t>
   </si>
   <si>
+    <t>CC&amp;JB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r251639971-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1292,6 +1427,9 @@
     <t>Beautiful hotel with good staff. Right off of 121 and very close to North Dallas Toll Way. Located in a very crowded area but the restaurants located within walking distance are top notch. It is expensive but it is very nice. The only complaint I have is that the "free" guest wireless internet is awful and is not adequate to even check email - at least from my room. I was located right across from the elevator and I never heard any elevator noise from my room.More</t>
   </si>
   <si>
+    <t>Treklos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r244032699-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1319,6 +1457,9 @@
     <t>Stayed here for a quick weekend trip. Enjoyed out stay at the hotel. The beds were comfortable, the room very clean, everything was pretty nice. Staff at the front desk was friendly and gave some good recommendations for dining. The area behind the hotel was under construction, looked like they were building apartments or condos but it wasn't noisy or anything. Parking was open and plenty of spaces.There were a few places to eat around the hotel. There was some good eats in the area: Edoko sushi directly across the front entrance; Kenny's Burger Joint a five minute walk through the shopping center; Global Peace Coffee was also very good. Definitely recommend.More</t>
   </si>
   <si>
+    <t>Mary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r239512112-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1487,9 @@
     <t>During our weekend stay we enjoyed the comfortable beds, clean and quiet rooms and the easy access to the shopping areas of the area.  The parking was free and plentiful.  The club lounge was also enjoyable for breakfast.More</t>
   </si>
   <si>
+    <t>BPhillips149</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r234416957-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1370,6 +1514,9 @@
     <t>Stayed here with colleagues and customers for a 3-day meeting. Our meeting was supposed to be in the same hotel, but because of construction we had to move the meeting to the Westin Stonebriar Resort a couple hundred yards away. Other than not being able to meet on site, the hotel was fine. Rooms were comfortable and quiet; and staff was friendly and helpful.I would rate this higher if not for the inconvenience of having to move our meeting off-site. Also no refrigerators in the rooms, so I wasn't able to keep my water cold like I normally do.More</t>
   </si>
   <si>
+    <t>New O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r216070830-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1544,9 @@
     <t>I stayed here for two days for business.  The staff is very friendly (even at 3 in the morning) and helpful. My room was clean and nice. I really enjoyed my stay here. The property is closed to a mall and several restaurants. If you are planning to use GPS, sometime the GPS does not pickup this location because it is so new. Punch in the Westin property near by.More</t>
   </si>
   <si>
+    <t>Tammy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r211592799-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1424,6 +1574,9 @@
     <t>Stayed here 2 nights while in town to see Jimmy Buffet.  Location very good to easily reach restaurants and area attractions.  Alot of construction going on in the area but doesn't interfere with anything. They are in the process of adding rooms and a pool. We were able to use their sister property's pool at The Westn. Easy to get to. Very clean and nicely run property. Would Definitely Stay again.More</t>
   </si>
   <si>
+    <t>changrcc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r207684634-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1604,9 @@
     <t>I recently stayed at this Sheraton and it was very conveniently located for any functions you might have at the nearby Stonebriar Country Club.  The shuttle service was very dependable, taking me there in the morning, and upon a phone call was back to pick me up in the afternoon.More</t>
   </si>
   <si>
+    <t>TJPJ09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r202594763-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1631,9 @@
     <t>When we first checked in the lady at the front desk upgraded our room. The rooms were very clean and smelt wonderful. only downfall it was a little noisy, but it didn't keep us awake at night. The breakfast in the mornings was very good. The staff was very friendly. The location of this hotel is in a great spot, its right down the road to all the shopping and restaurants. I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>nichie90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r202121970-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1652,9 @@
     <t>The staffs were especially friendly and helpful.The breakfast was great. It was one of the best experience. I've stayed in plenty of 4stars hotel, and this Sheraton offered a lot of free amenities and great service for a reasonable price. I'd stay there again if I visit the area. More</t>
   </si>
   <si>
+    <t>Hailee45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r201421210-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +1679,9 @@
     <t>I stayed here on a quick trip to Frisco in April. It was an amazing hotel. The room was very modern and spotless. The staff were helpful and very nice. And best of all, the hotel was conveniently located. There was easy access to the Frisco Stonebriar Mall, Ikea, and restaurants. Overall, I would definitely stay here again and I recommend this to anyone.More</t>
   </si>
   <si>
+    <t>Cindy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r198532843-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1709,9 @@
     <t>We stayed at this hotel because our child was involved in dance competition at the nearby convention center in Frisco.  We were in an executive suite.  It was huge!  My daughter, her two daughters, and I had plenty of room to spread out.  The bathroom had a deep tub and a walk in shower.  There was also another half bath, which definitely came in handy.  We were greeted by Mallakayla and Kidus.  They were both so friendly and helpful.  Kidus gave us dining suggestions, and we were not steered wrong.  He also made certain that we were comfortable during our stay.  Stephen volunteered to show us to one of the restaurants.....much appreciated because it was a bit nippy to walk.  There are many top restaurants a stone's throw from the front of the hotel.  We will certainly come back.More</t>
   </si>
   <si>
+    <t>CSBM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r191528244-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1739,9 @@
     <t>We stayed at this hotel for a weekend while one of my daughters was swimming in a swim meet.  We were far away from her meet, but very close to shopping!  The hotel seems new with pleasant décor.  The staff at the hotel were very friendly and helpful. They helped us numerous times with shopping suggestions and restaurants.  As a SPG platinum member I was upgraded to a junior suite which was very nice.  They also have a nice gym with newer equipment.  The club lounge was not staffed while we were there, but it was open with breakfast items in the morning, appetizers in the evening, and snacks and drinks throughout the day.  The real gift of this hotel is it's closeness to great shopping.  Ikea is just down the street, some nice restaurants adjacent to the hotel, and the Shops at Legacy are very near by and not to be missed!Frisco is a great choice if you need to be in North Dallas and want nice shopping and restaurants!CSBMMore</t>
   </si>
   <si>
+    <t>trwilbury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r188198023-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1763,9 @@
     <t>I stayed here for a few days whilst on a Business trip and was glad I did.The Sheraton is the Sister Hotel to the Westin - a short walkable distance. There are also two/three very good restaurants all directly opposite the Hotel.Overall its exactly what you'd expect a Sheraton to be - comfortable rooms,decent gym and free wifi. However what sets it apart was the top notch service/attitude from all the staff I met. Indeed from the moment arrived I cannot think of anything that was not exemplary and I always had a friendly greeting when I passed reception. On another occasion when I was returning from the gym ,a staff member offered to get me a bottle of water. Now that's what I call service !The only slight gripe I might have had was the lack of in-room safe but I was told they're installing those this month anyway - this is good as I'm always wary of losing the dual key you get in such arrangements.Very good value for money and I'll be glad to return.More</t>
   </si>
   <si>
+    <t>phiken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r180703561-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1619,6 +1793,9 @@
     <t>The hotel was nice, and the staff was friendly, but I do have a word of warning.  There is a breakfast area in the lobby that basically looks like every complimentary breakfast that you've seen at a hotel.  The breakfast at the Sheraton is NOT complimentary (and it's not cheap).  There is a sign about the breakfast prices if you know to look for it, but it's easy to miss (at least for me it was).  No free breakfast - just FYI.  I'd probably stay here again if I was in the area, but I'll be skipping breakfast next time.More</t>
   </si>
   <si>
+    <t>BSGA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r180490737-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1814,9 @@
     <t>The room and common areas are clean and comfortable. The staff is friendly and attentive. Parking is somewhat constricted. It is within walking distance of the Westin Stonebriar where I was attending a conference, so a good alternative to the Westin if you need one. There are very good restaurants within easy walking distance (like the Cantina Laredo).More</t>
   </si>
   <si>
+    <t>Dean W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r173447483-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1835,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>starbucks_mommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r162285646-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1682,6 +1865,9 @@
     <t>First off, we went to celebrate our anniversary. The staff congratulated us and gave us a free upgrade to allow us access to the club lounge where we enjoyed delicious snacks and breakfast. The room was nice, clean, roomy and had all the extras. There was an abundant of pillows, a coffee bar and the suite we were in had a tv in the living area and bedroom. Flat screen, updated. The shampoo products were nice and there was a robe and 2 bathrooms. The staff was friendly, accommodating and went above and beyond. They made us feel special and we had a great time. We will definitely stay there again.More</t>
   </si>
   <si>
+    <t>Johncolorado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r159944978-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1706,6 +1892,9 @@
     <t>I stayed at the sheraton Stornbriar the week of May 1, 2013.   I could not get into the Marriott that I ususally stay at.   i was happily surprised with the quality of the hotel.   The rooms are small but well set up with quality furishings.  The bed was great.   The staff goes overboard to help in any way.   I had breakfast at the hotel and spent some time in the bar.   Both were satifactory.   There are numerous resteurants within walking distance.  I will stay there again.More</t>
   </si>
   <si>
+    <t>Traveled_1665</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r159669200-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1730,6 +1919,9 @@
     <t>Stayed two nights on business and it was just like boutique hotels I have stayed in.  Bright and open and modern.  Great restaurant and the food was bettervthsn expected.  Very good oversll stay. The parking was super convenient, right out front.More</t>
   </si>
   <si>
+    <t>Lilind</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r151257749-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1757,6 +1949,9 @@
     <t>I arrived late night for a short stay one night stay and everything was as it should be. Nice, warm and efficient welcome at arrival, free WiFi , room was exactly what it should be , not too big not too small, everything in right place. Breakfast was minimal, with not much too choose from, but I don't eat much anyway so it was fine. Maybe some guests might be disappointed with the choice. Hotel is in convenient located close to the Plano business park and along 121 interstate. Definitely come back there.More</t>
   </si>
   <si>
+    <t>kevbot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r150897124-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1778,6 +1973,9 @@
     <t>Hotel is seems very new. Lobby was small but relaxing. The rooms were very nice by Sheraton standards. Platinum recognition was great. Nice upgrade to a large suite. Club lounge was very small but very nice. Beverages and light snacks were available all the time. It should be noted the only hot option in the club lounge for breakfast was eggs.More</t>
   </si>
   <si>
+    <t>goadude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r150617777-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2000,9 @@
     <t>Stayed here on business for 2 nights. The hotel staff was very friendly, and made me feel very welcome. The check in and check out was very fast. The breakfast area, and the breakfast in the morning was good. The club room was stocked with very delicious finger foods. The club room did not have any liquor, but provided soft drinks. I will certainly come back to this hotel in the future.More</t>
   </si>
   <si>
+    <t>JTraveler28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r145328903-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1829,6 +2030,9 @@
     <t>I travel to the Plano area several times a year on business and consistently find this property to hit the mark.  Very clean and quiet rooms, courteous and knowledgeable staff.  Great location, close to all the major Plano corporate centers.  I highly recommend for the value minded business traveler.More</t>
   </si>
   <si>
+    <t>CharlottesvilleMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r145115798-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1856,6 +2060,9 @@
     <t>Stayed at the hotel in November 2012.  Excellent place to stay for a business traveler visiting Plano / Frisco area.  Very close to Frito-Lay and JC Penney and other corporate HQs.  Very friendly and helpful staff. Three excellent restaurants right outside the hotel (don't believe they're affiliated) - italian, sushi and a steakhouse. Good bar at the hotel lobby.  Could not have asked for more for a week of business travel in Plano.More</t>
   </si>
   <si>
+    <t>dstillwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r143230052-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2087,9 @@
     <t>We had a pleasant stay at the Sheraton Stonebriar. The hotel was clean, well run and comfortable. If you stay there make sure you rent a car. The cab fare was high to and from the airport. There are several restaurants in the parking lot area you can walk to for dinner or lunch.More</t>
   </si>
   <si>
+    <t>platinumflyer2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r134449201-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1898,6 +2108,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>TinQC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r132413371-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1919,6 +2132,9 @@
     <t>This hotel is good, but not great. I would give it 3.5 stars if I could. I stayed 4 nights for business travel. Likes - comfortable bed, very accommodating and friendly staff, restaurants within walking distance, nice complimentary breakfast, clean rooms!Dislikes - shower with 1/2 a glass 'wall'/no curtain or option to close it. Water gets on the floor and you feel an unwanted breeze while showering, rooms either too cold or too hot always, thermostat light super bright (I know it sounds odd but the light was so bright it disturbed my sleep and I had to hang something over the thermostat to block out the light).Overall my complaints were minimal. I would stay here again for business but this would probably not be my first choice otherwise.More</t>
   </si>
   <si>
+    <t>gusrageous</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r131560027-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1937,6 +2153,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Bryan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r127822437-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1958,6 +2177,9 @@
     <t>I spent 6 straight months working out of this Hotel and found all amenities above average or higher. The real difference was some of their excellent staff. From the first day I arrived until the last day I left, a core group of their staff treated me like the most important guest in their establishment. Over 6 months, bumps in the road will always occur, it was the supreme professionalism and tireless efforts, and in general great friendliness of this staff that made my stay exceptional. Hospitality is a foreign language to me. Living there for 6 months these people became my colleagues and friends because they treated their duties as more than a job!If you are planning a stay there, Kenneth C., Natalie S., Johnathan H., Nick P. and Candice B. are the people who go the extra mile and then some. I want to thank them myself and hope Sheraton takes this opportunity to honor them as well as they deserve the highest recognition, words cannot do their efforts justice.I would stay another 6 months in a heartbeat.SincerelyBryan H.More</t>
   </si>
   <si>
+    <t>Jetset_KT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r125776533-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1985,6 +2207,9 @@
     <t>I was here for a corporate event. The hotel itself was pretty good. Rooms were big, reception staff &amp; front desk staff were great. As this was a corporate event, we spent most of the after hours in the bar. We found the bar staff to be less friendly, impatient &amp; clearly didn't seem to want us there. I would have thought the amount of money we spent on alcohol would incent them to be nicer but could only feel that we were inconveniencing them by drinking there. Given that it's not a hotel that looks like it gets alot of through-traffic that they would want to leave a good impression for repeat business. Maybe it is the nicest hotel in the neighbourhood, but I'ld definately recommend having your event somewhere else where the bar would appreciate having some after hours business.More</t>
   </si>
   <si>
+    <t>boris4432via</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r125003544-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2225,9 @@
     <t>This hotel has it all.   Comfy beds, amazing customer service, yummy breakfast, free wi-fi, water, newspaper, I could go on.  Within walking distance to good restaurants and nice lounge area.   Not a bad thing to say- except for one minor detail- would be nice to have automatic doors when entering the building.  I carry suitcases when I travel and it's a struggle to enter the building without assistance.  That aside- would stay here again without hesitation.  SPG has done it again!</t>
   </si>
   <si>
+    <t>SDdan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r123939066-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2021,6 +2249,9 @@
     <t>Great staff. Clean and comfortable rooms, although a bit small.  Great location for business in Frisco or Plano. Hotel shuttle took us to and from our office 5 minutes away.  There are few really good restaurants right next door. Easy access to both DFW and LOV.I've read some of the previous reviews.  I'm not sure why there was a complaint about a shower curtain having mildew on it.  My bathroom had a shower only with plexiglass, no curtain. It's so much easier than a bathtub.The executive lounge is not staffed, but that's okay. They have a computer and printer in there along with sodas and water.  The front desk gave me vouchers for a free breakfast in the restuarant.  It's a buffet breakfast better than anything I've had in an executive lounge.  I'm not sure why a previous reviewer complained about this.  There is no wait for the food. It's a buffet, just like it would have been in the exec lounge.There was also a previous review complaining about outside noise in the room.  I was facing the parking lot.  It was the quietest room I've had in a very long time.  I didn't hear anything from the outside. Nor did I hear anything from either room next to me.All in all a great experience.More</t>
   </si>
   <si>
+    <t>Roque</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r123354064-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2270,9 @@
     <t>The hotel is very good, rooms are smalls and comfortable. The restaurant is open until 11pm and the food is OK. There are 3 different internet access, a free one but limits some sites, and 2 others with a fee allowing you to access more sites. I used the free option and was able to access everything I needed.The breakfast (which is not included) has fresh fruit, cereal, eggs, bacon, bread, coffee, orage juice, etc and costs around ($15 usd)The Cons: The room does not have a safety box and many channels were not available, they were in the guide but there was no signal. Actually there was only one movie channel available and the signal was poor (must of the time was unavailable)More</t>
   </si>
   <si>
+    <t>greg h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r122984086-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2052,6 +2286,9 @@
   </si>
   <si>
     <t>I cant say enough nice things about the hotel and exspecially the staff led by Ken Campbell.  They dont make them better than Ken.  Everyone from the desk staff, Candice, Logan, Natalie, Scott, Will &amp; Terrie are rock stars.  Even my boys El and Nick behind the bar are the best and keep me happy...Your staff is truly excellent and I love staying there....It is my second home and they are like my second family which doesnt make my wife to happy!</t>
+  </si>
+  <si>
+    <t>Red_Dolphin-Media</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r119736727-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -2083,6 +2320,9 @@
 Also - business travelers beware.  Even though this is a newer property - the rooms do NOT have safes in them.  You are welcome to take your chances leaving your laptop at the...I was scheduled to stay here for 3 nights in October 2011 and ended up only staying for 2 and begged to change hotels (beware of the $75 early departure fee!).    I am a business traveler and a Starwood Gold guest, and booked using my company's rate that included "club access".   What a sham..the club on the 4th floor advertises that is serves breakfast in the morning and "wind and dine" in the evening.   Neither was true.  Day 2 I went there at 6:30am to find no breakfast, and upon calling the desk was told they no longer have an attendant and therefore cannot serve in the club lounge.   She offered me a restaurant voucher instead which I declined as I didn't have time to wait for a waiter to serve me.  I asked them why they don't remove the two signs advertising club breakfast on the 4th floor, and got no answer.  When I returned that evening...same deal on the "wine and dine'.   No wine &amp; dine, instead some sodas and granola bars and signs still up.  Again told no attendant available.  Again asked why they still hadn't removed the sign...again no answer.  At this point I asked to check out early and they finally obliged.Also - business travelers beware.  Even though this is a newer property - the rooms do NOT have safes in them.  You are welcome to take your chances leaving your laptop at the front desk...but that's not something my company permits me doing.  So I got to carry my laptop with me to dinner every night.Overall extremely disappointed with the games they play with advertising a club lounge that clearly is not offering the services they advertise it does.   There is enough competition in this area that I need not stay in a dishonest hotel like this.   Shame on you Sheraton Stonebriar!  I will not return and will recommend others steer clear.   So many other options where you won't feel taken advantage of.More</t>
   </si>
   <si>
+    <t>SAR871</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r118624332-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2101,6 +2341,9 @@
     <t>I stayed here for business. The service was exceptional especially considering the type of hotel. The hotel is bare bones and fine for a business trip. Overall helped by the overly attentive and friendly staff. There are hotels with more amenities nearby however.More</t>
   </si>
   <si>
+    <t>trhlgolfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r115860425-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2122,6 +2365,9 @@
     <t>We stayed at the Sheraton Stonebriar for 10 days, and experienced one of the best visits in a hotel in years. EVERYONE from the front desk manager to the fellows opening the front doors, to the housekeeping staff, was trained to help, and their great attitudes made the visit very pleasant.  Mr Kenneth Campbell, especially, went out of his way to make sure we, and other guests, were treated with prompt, courteous, friendly service whether it was asking for restaurant advice or a special need in the room.  Would definitely come back to this hotel.  Had a refrigerator in room, was quiet, and modern.More</t>
   </si>
   <si>
+    <t>epg_01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r89346914-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2149,6 +2395,9 @@
     <t>As an SPG Platinum I was upgraded to a Suite which had a very large luxurious bathroom. The heavenly bed (Sheraton version) was very comfortable and I slept very well. The staff is extremely friendly and helpfull. The club is not operating so SPG members get a full buffet breakfast at the restaurant which is very good for breakfast and for a simple dinner.The excersize room is small but has new equipment. The location is next to several different types of restaurants and short driving distance to major shopping and entertainment.I definitively recommend this hotel.More</t>
   </si>
   <si>
+    <t>Stefan067</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r87269807-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2170,6 +2419,9 @@
     <t>I stayed for 4 nights in November 2010. The hotel is only around 2 years old, the staff at the hotel is far above average when it comes to service and attention to customers needs.  The hotel is conveniently located for easy access to freeway/highway but no noice from the road. Stonebriar Shopping center is only 1-2 miles away, there is a good mexican restaurant just outside the hotel. There are some  other restaurants just outside aswell but I didn't try them.Great Wi-Fi in room (free). Only negaitve thing is that the hotel aircon/power house just outside the hotel generates a lot of noice as it goes on and off during night. This is only valid for rooms facing that direction. I actually changed rooms after first night and after that I had no problems.More</t>
   </si>
   <si>
+    <t>Smiley100_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r84013686-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2441,9 @@
   </si>
   <si>
     <t>The positives on this hotel stay are the staff are VERY friendly and knew my name the first day I was there.  The rooms are very quiet and cool.  Our first room they put us in had a very foul smell ( I learned its a pet friendly hotel) they quickly changed our room. Free Wifi-close and convenient to shops and restaurants and to the freeways.  I know they say they have a sweet mattress--there was nothing sweet about it. My son was the first to notice. We didn't sleep the first night, it was hard as a rock.  The linens were soft  so that was nice.  The bathroom and room was very clean!  Will we stay again? Given the hard beds I am not sure.More</t>
+  </si>
+  <si>
+    <t>ScribblesLongBeachCA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r74922018-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -2237,6 +2492,9 @@
 But what we were most pleased about was the shuttle service to the Westin (about 400 yards away) to their lagoon style pool. This pool stretched across the back of the westin and was so AWESOME!!!!! At one end they have a small slide for the kids that deliveres them into the pool. It was a big hit with our 4-year old. They also had a shaded ping pong table, bocce ball and a small putting green. The pool waitresses came around frequently and you could order drinks, food and beer/alcohol. The hotel also had very comfy...We are so pleased from our recent trip to D-town. Went down for a little hurricane harbor action on friday and continued for a little shopping over saturday and sunday. After a very long day at the harbor, the drive was not too bad over to the hotel. When we walked in we were blown away at how nice the hotel was. It was sparkling clean, smelled great and were welcomed (wet swim clothes and all). The front desk upgraded us for 10 bucks a night and it included breakfast in the am. The buffet alone was like 12.50 a person, so well worth the 10. We mentioned to the front desk that we thought about heading over to the mall for a late movie and they pulled all the movie times for Stonebriar and delivered them to our room. Talk about service!!!!But what we were most pleased about was the shuttle service to the Westin (about 400 yards away) to their lagoon style pool. This pool stretched across the back of the westin and was so AWESOME!!!!! At one end they have a small slide for the kids that deliveres them into the pool. It was a big hit with our 4-year old. They also had a shaded ping pong table, bocce ball and a small putting green. The pool waitresses came around frequently and you could order drinks, food and beer/alcohol. The hotel also had very comfy lounge chairs and towels were provided. You can even charge to your sheraton account. Beers were 5, pina colada's 8.75, pizza 12(very yummy for pool food). Last call is at 7:30 pm and they make sure that you have everything that you need. The pool closes at 10pm, and not quite sure what time it opens (9am i think).So at the end of the day, you get to use this great pool at the Westin with a free ride over there and back (i think they shuttle to the mall as well), but pay a cheaper Sheraton price. With this hotel being so close to highway 121 and dallas north tollway, you are close to everything. It only took us 15 minutes to get to the allen outlet mall!I would highly recommend this hotel!!!!More</t>
   </si>
   <si>
+    <t>Klauer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r65302410-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2255,6 +2513,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>midnightseashell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r49184818-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2535,9 @@
   </si>
   <si>
     <t>The front desk staff are friendly and helpful, especially the bell boy. He offered many suggestions to restrauants etc.  The rooms are nice and appeared to be clean.  Until I went to step into the shower and noticed the badly stained cloth shower curtain.  After going down to enjoy breakfast, discovered that the "limited" breakfast consisting of oatmeal, cold cereal, bread, fruit and muffins cost $11.00 per person!!!!! Something that would normally be free!  We were not told that the food was not included with the room.  If you want to use the pool, they did offer a shuttle service to their "sister" hotel.  The gym was on site, and offered dumbells, treadmill, glyder and bikes.  The gym appeared to be clean and well maintained with hand sanitizer and towels.  While in the room, still in the bed, the maid unexpectinly opens the door and turns on the hall light! Without knocking or saying room service.  I turn to look and see who has entered my room, only to see a maid!!!!!!!!!!  Yes, she said, "I'm sorry"!  But I had the "be quiet" sign on the door.  Maybe their sign should read............NO entrance!!!!!!   The hotel had been updated, but the rooms do not have mic's or frigs.  The front desk staff had them brought to our room after checkin.  However, for a 5 star room.........I DO EXPECT certain items!  Also, construction is going on right beside the hotel.  Kenny's Burger...The front desk staff are friendly and helpful, especially the bell boy. He offered many suggestions to restrauants etc.  The rooms are nice and appeared to be clean.  Until I went to step into the shower and noticed the badly stained cloth shower curtain.  After going down to enjoy breakfast, discovered that the "limited" breakfast consisting of oatmeal, cold cereal, bread, fruit and muffins cost $11.00 per person!!!!! Something that would normally be free!  We were not told that the food was not included with the room.  If you want to use the pool, they did offer a shuttle service to their "sister" hotel.  The gym was on site, and offered dumbells, treadmill, glyder and bikes.  The gym appeared to be clean and well maintained with hand sanitizer and towels.  While in the room, still in the bed, the maid unexpectinly opens the door and turns on the hall light! Without knocking or saying room service.  I turn to look and see who has entered my room, only to see a maid!!!!!!!!!!  Yes, she said, "I'm sorry"!  But I had the "be quiet" sign on the door.  Maybe their sign should read............NO entrance!!!!!!   The hotel had been updated, but the rooms do not have mic's or frigs.  The front desk staff had them brought to our room after checkin.  However, for a 5 star room.........I DO EXPECT certain items!  Also, construction is going on right beside the hotel.  Kenny's Burger Joint is right around the parking lot from this hotel.  They offered reasonably priced ribs &amp; burgers that are cooked on wood.......  The best part of our  stay!!  Can't wait to eat dinner there again tonight!   Rudy's BBQ also has good BBQ &amp; chicken.  Close to hotel.More</t>
+  </si>
+  <si>
+    <t>Fifiann</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r49059833-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -2303,6 +2567,9 @@
 It is not in a pretty location.  This is not a vacation hote,l but if you are in the area on business or...I really like the direction Sheraton has taken in its decorative overhaul of its properties.  Gone are the bland pastels and chintz and in their place ,are bold lines, rich colours and leather textures.  Sheraton has now overtaken Westin in my estimation, since that brand has gone down a sorry path of washed out colours with no definitive accents resulting in rooms which are completely dismal and depressing (Westin Luxury Collection excluded). We stayed at the recently opened Sheraton Stonebriar a few weekends ago when we were attending a friend's party in Plano and did not want to drive all the way back into central Dallas.  It's a petite hotel and the foyer, which opens onto the bar/restaurant has a boutique feel.  There are  comfy low slung leather couches and cocktail tables, book cases with books, games tables with games, and a see through fireplace, and it's all illuminated by a myriad of tea lights.  This would be a lovely place for pre dinner cocktails or after dinner drinks. The room was not huge but was very comfortable and the bathroom boasted an attractive granite sink unit.  My one problem with it was that it had a rather strong chemical odour - I am guessing from the new carpets and paint, but that should dissipate over time. It is not in a pretty location.  This is not a vacation hote,l but if you are in the area on business or just passing through, competitive rates make this an attractive alternative to Fairfield Inn etc.  It is adjacent to some restaurants and it looks if more are in the process of being built.hMore</t>
   </si>
   <si>
+    <t>rrshep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r47697786-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2321,6 +2588,9 @@
     <t>My husband and I stayed at the hotel Friday night and were greeted very warmly wherever we went in the hotel.  The desk clerk even rushed to open the door for us when we came back to the hotel from eating dinner.  The room was huge and beautiful.  We had a king-size bed with a large desk/table over which the plasma TV hung.  The bathroom was very large with a walk-in shower.  Their toiletries have a mandarin scent that I loved and can be purchased at the Bliss Spa or online.  Internet access is now complementary for hotel guests.  Breakfast at their hotel was not complementary but they have a nice restaurant with a breakfast buffet which is $13.00.  They gave us a discount coupon for 20% off which greatly reduced the cost.  The food was very good and very abundant.  Fitness and pool facilities are available at the Westin Resort next door.   I can't say enough about the friendly staff and the beautiful hotel.  It was a wonderful getaway for us.More</t>
   </si>
   <si>
+    <t>whr975s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r33516041-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2339,6 +2609,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>Remy73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r32186668-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2357,6 +2630,9 @@
     <t>I found this hotel purely by accident. I surfed the Net and just booked for 3 days just in case I didn't want to stay the 12 days I'm here. I am so grateful that the administrative asst made a mistake with my reservation because this place is a dream come true. Love it. Rooms are small, but they are cozy, functional and well designed. The linens are exceptional and l've slept well every night.  I just called to extend my stay this morning.The service is absolutely amazing. John at the front desk greets me by name every evening. Very boutique style. Restaurant choicesThe servers are amazing in the restaurant. The food onsite is delicious, however there are several choices near the hotel.  In addition to access to the Westin, there is an Italian restaurant (Francesca's) and Steakhouse within walking distance. There is also Sona, a spa on the property as well. Shops at Legacy are about 5 minutes away. The Dallas Tollway is outside the (free) parking lot. The fitness center has state of the art equipment with personal television consoles. Stocked with ample headphones (tv), towels and water. You can even dock to your iPod as you exercise.More</t>
   </si>
   <si>
+    <t>Ron_L_64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r24897523-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2373,6 +2649,9 @@
   </si>
   <si>
     <t>February 2009</t>
+  </si>
+  <si>
+    <t>pappalucia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d816731-r17199174-Sheraton_Stonebriar_Hotel-Frisco_Texas.html</t>
@@ -2898,43 +3177,47 @@
       <c r="A2" t="n">
         <v>57216</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>29783</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2952,56 +3235,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57216</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177357</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3013,56 +3300,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57216</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3078,56 +3369,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57216</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3139,56 +3434,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57216</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177360</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3206,56 +3505,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57216</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177361</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3273,56 +3576,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57216</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177362</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3334,56 +3641,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57216</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>116</v>
       </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>109</v>
-      </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3401,56 +3712,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57216</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177364</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3462,56 +3777,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57216</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3529,56 +3848,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57216</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177365</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3594,56 +3917,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57216</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>113025</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3661,56 +3988,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57216</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177366</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3722,56 +4053,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57216</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177367</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3789,56 +4124,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57216</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177368</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>168</v>
       </c>
-      <c r="J16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>155</v>
-      </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3850,56 +4189,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57216</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177369</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3915,56 +4258,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57216</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3982,56 +4329,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57216</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>177371</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" t="s">
         <v>197</v>
-      </c>
-      <c r="L19" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>190</v>
-      </c>
-      <c r="O19" t="s">
-        <v>181</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4049,56 +4400,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57216</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177372</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4116,47 +4471,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57216</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>3641</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -4173,56 +4532,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57216</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177373</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4238,56 +4601,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57216</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177374</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4299,56 +4666,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57216</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4366,56 +4737,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="X24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="Y24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57216</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4433,56 +4808,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57216</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177377</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4500,56 +4879,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57216</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4561,56 +4944,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="X27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57216</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>13581</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4622,56 +5009,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57216</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177379</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4683,56 +5074,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57216</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4748,56 +5143,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57216</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177381</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4815,56 +5214,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57216</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>20477</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4882,56 +5285,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57216</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177382</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4949,56 +5356,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="X33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="Y33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57216</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>63269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5010,56 +5421,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="X34" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57216</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177383</v>
+      </c>
+      <c r="C35" t="s">
+        <v>361</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="J35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="K35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="L35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="O35" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5071,56 +5486,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57216</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177384</v>
+      </c>
+      <c r="C36" t="s">
+        <v>369</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5138,56 +5557,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57216</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177385</v>
+      </c>
+      <c r="C37" t="s">
+        <v>377</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="O37" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5205,56 +5628,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="X37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="Y37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57216</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177386</v>
+      </c>
+      <c r="C38" t="s">
+        <v>387</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="J38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5266,56 +5693,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="X38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="Y38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57216</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>396</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="K39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="L39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5333,56 +5764,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="X39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="Y39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57216</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177387</v>
+      </c>
+      <c r="C40" t="s">
+        <v>405</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="K40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="L40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5394,56 +5829,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="X40" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="Y40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57216</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>133284</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="J41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="K41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="O41" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5459,56 +5898,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="X41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Y41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57216</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>41806</v>
+      </c>
+      <c r="C42" t="s">
+        <v>422</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="K42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="L42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5526,56 +5969,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="X42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Y42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57216</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177388</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5591,56 +6038,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57216</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>29331</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="O44" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5658,56 +6109,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="X44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="Y44" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57216</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177389</v>
+      </c>
+      <c r="C45" t="s">
+        <v>448</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="L45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5723,56 +6178,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="X45" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="Y45" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57216</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177390</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="J46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="K46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="L46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5790,56 +6249,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="Y46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57216</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177391</v>
+      </c>
+      <c r="C47" t="s">
+        <v>465</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="J47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="K47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="L47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="O47" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5855,56 +6318,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="X47" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="Y47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57216</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>5411</v>
+      </c>
+      <c r="C48" t="s">
+        <v>475</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="J48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="O48" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5922,56 +6389,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="X48" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="Y48" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57216</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177392</v>
+      </c>
+      <c r="C49" t="s">
+        <v>485</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="J49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5989,56 +6460,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="X49" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="Y49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57216</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177393</v>
+      </c>
+      <c r="C50" t="s">
+        <v>494</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="J50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6056,56 +6531,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="X50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="Y50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57216</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>2524</v>
+      </c>
+      <c r="C51" t="s">
+        <v>504</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="L51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="O51" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6117,56 +6596,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="X51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="Y51" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57216</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177394</v>
+      </c>
+      <c r="C52" t="s">
+        <v>514</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="J52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="K52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="L52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6188,56 +6671,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="X52" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="Y52" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57216</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177395</v>
+      </c>
+      <c r="C53" t="s">
+        <v>524</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="J53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="K53" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="L53" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6259,47 +6746,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="X53" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="Y53" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57216</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177396</v>
+      </c>
+      <c r="C54" t="s">
+        <v>533</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="J54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="K54" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="L54" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6326,56 +6817,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="X54" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="Y54" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57216</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>83313</v>
+      </c>
+      <c r="C55" t="s">
+        <v>540</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="J55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="L55" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6397,56 +6892,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="X55" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="Y55" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57216</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>36332</v>
+      </c>
+      <c r="C56" t="s">
+        <v>549</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="J56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="K56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="L56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6468,56 +6967,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="X56" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="Y56" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57216</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177397</v>
+      </c>
+      <c r="C57" t="s">
+        <v>559</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="J57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="K57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="L57" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="O57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6539,56 +7042,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="X57" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="Y57" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57216</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177398</v>
+      </c>
+      <c r="C58" t="s">
+        <v>569</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="J58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="K58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="L58" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6610,56 +7117,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="X58" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="Y58" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57216</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177399</v>
+      </c>
+      <c r="C59" t="s">
+        <v>577</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="J59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="K59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="L59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="O59" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6681,56 +7192,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="X59" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="Y59" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57216</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>177400</v>
+      </c>
+      <c r="C60" t="s">
+        <v>587</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="J60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="K60" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="L60" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6752,54 +7267,58 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="X60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="Y60" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57216</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177401</v>
+      </c>
+      <c r="C61" t="s">
+        <v>594</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="J61" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="O61" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6821,56 +7340,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="X61" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="Y61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57216</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>177402</v>
+      </c>
+      <c r="C62" t="s">
+        <v>601</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="J62" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="K62" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="L62" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="O62" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6892,56 +7415,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="X62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="Y62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57216</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177403</v>
+      </c>
+      <c r="C63" t="s">
+        <v>611</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="J63" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="K63" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="L63" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6963,47 +7490,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="X63" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="Y63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57216</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177404</v>
+      </c>
+      <c r="C64" t="s">
+        <v>620</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="J64" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="K64" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="L64" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -7030,56 +7561,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="X64" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="Y64" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57216</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177405</v>
+      </c>
+      <c r="C65" t="s">
+        <v>629</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="J65" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="K65" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="L65" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7101,56 +7636,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="X65" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="Y65" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57216</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177406</v>
+      </c>
+      <c r="C66" t="s">
+        <v>639</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="J66" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="K66" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="L66" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="O66" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7162,56 +7701,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="X66" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="Y66" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57216</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177407</v>
+      </c>
+      <c r="C67" t="s">
+        <v>647</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="J67" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="K67" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="L67" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7233,56 +7776,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="X67" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="Y67" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57216</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177408</v>
+      </c>
+      <c r="C68" t="s">
+        <v>656</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="J68" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="K68" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="L68" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7294,56 +7841,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="X68" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="Y68" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57216</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177409</v>
+      </c>
+      <c r="C69" t="s">
+        <v>666</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="J69" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="K69" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="L69" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7365,56 +7916,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="X69" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="Y69" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57216</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177410</v>
+      </c>
+      <c r="C70" t="s">
+        <v>676</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="J70" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="K70" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="L70" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="O70" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7436,56 +7991,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="X70" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="Y70" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57216</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177411</v>
+      </c>
+      <c r="C71" t="s">
+        <v>685</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="J71" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="K71" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="L71" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="O71" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7509,50 +8068,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57216</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>21559</v>
+      </c>
+      <c r="C72" t="s">
+        <v>692</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="J72" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="K72" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="L72" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7576,50 +8139,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57216</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177412</v>
+      </c>
+      <c r="C73" t="s">
+        <v>700</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="J73" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="K73" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="L73" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7643,50 +8210,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57216</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>20886</v>
+      </c>
+      <c r="C74" t="s">
+        <v>707</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="J74" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="K74" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="L74" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7710,50 +8281,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57216</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177413</v>
+      </c>
+      <c r="C75" t="s">
+        <v>715</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="J75" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="K75" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="L75" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7775,47 +8350,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="X75" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="Y75" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57216</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177414</v>
+      </c>
+      <c r="C76" t="s">
+        <v>725</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="J76" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="K76" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="L76" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7844,50 +8423,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57216</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177415</v>
+      </c>
+      <c r="C77" t="s">
+        <v>731</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="J77" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="K77" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="L77" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7911,50 +8494,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57216</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177416</v>
+      </c>
+      <c r="C78" t="s">
+        <v>739</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="J78" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="K78" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="L78" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7978,50 +8565,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57216</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177417</v>
+      </c>
+      <c r="C79" t="s">
+        <v>746</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="J79" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="K79" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="L79" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8045,50 +8636,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57216</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177418</v>
+      </c>
+      <c r="C80" t="s">
+        <v>752</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="J80" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="K80" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="L80" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -8110,47 +8705,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="X80" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="Y80" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57216</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177419</v>
+      </c>
+      <c r="C81" t="s">
+        <v>762</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="J81" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
       <c r="K81" t="s">
-        <v>686</v>
+        <v>766</v>
       </c>
       <c r="L81" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
@@ -8177,56 +8776,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="X81" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="Y81" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57216</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177420</v>
+      </c>
+      <c r="C82" t="s">
+        <v>769</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="J82" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="K82" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="L82" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="O82" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8244,56 +8847,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="X82" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="Y82" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57216</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>177421</v>
+      </c>
+      <c r="C83" t="s">
+        <v>777</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="J83" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="K83" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="L83" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8315,56 +8922,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="X83" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="Y83" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57216</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177422</v>
+      </c>
+      <c r="C84" t="s">
+        <v>787</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="J84" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="K84" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
       <c r="L84" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8388,50 +8999,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57216</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177423</v>
+      </c>
+      <c r="C85" t="s">
+        <v>795</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="J85" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="K85" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
       <c r="L85" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="O85" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P85" t="n">
         <v>2</v>
@@ -8455,50 +9070,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57216</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>177424</v>
+      </c>
+      <c r="C86" t="s">
+        <v>803</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
       <c r="J86" t="s">
-        <v>721</v>
+        <v>806</v>
       </c>
       <c r="K86" t="s">
-        <v>722</v>
+        <v>807</v>
       </c>
       <c r="L86" t="s">
-        <v>723</v>
+        <v>808</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>724</v>
+        <v>809</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8522,50 +9141,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57216</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>133284</v>
+      </c>
+      <c r="C87" t="s">
+        <v>413</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="J87" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="K87" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="L87" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="O87" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8589,50 +9212,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>732</v>
+        <v>817</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57216</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>177425</v>
+      </c>
+      <c r="C88" t="s">
+        <v>818</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>733</v>
+        <v>819</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>734</v>
+        <v>820</v>
       </c>
       <c r="J88" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="K88" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="L88" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8656,50 +9283,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57216</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177426</v>
+      </c>
+      <c r="C89" t="s">
+        <v>825</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>739</v>
+        <v>826</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>740</v>
+        <v>827</v>
       </c>
       <c r="J89" t="s">
-        <v>741</v>
+        <v>828</v>
       </c>
       <c r="K89" t="s">
-        <v>742</v>
+        <v>829</v>
       </c>
       <c r="L89" t="s">
-        <v>743</v>
+        <v>830</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>744</v>
+        <v>831</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8723,50 +9354,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57216</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177427</v>
+      </c>
+      <c r="C90" t="s">
+        <v>833</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>746</v>
+        <v>834</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>747</v>
+        <v>835</v>
       </c>
       <c r="J90" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="K90" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="L90" t="s">
-        <v>750</v>
+        <v>838</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="O90" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8790,50 +9425,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57216</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177428</v>
+      </c>
+      <c r="C91" t="s">
+        <v>841</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="J91" t="s">
-        <v>755</v>
+        <v>844</v>
       </c>
       <c r="K91" t="s">
-        <v>756</v>
+        <v>845</v>
       </c>
       <c r="L91" t="s">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="O91" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8857,50 +9496,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57216</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>177429</v>
+      </c>
+      <c r="C92" t="s">
+        <v>848</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="J92" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="K92" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="L92" t="s">
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>764</v>
+        <v>854</v>
       </c>
       <c r="O92" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8924,50 +9567,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>763</v>
+        <v>853</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57216</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>177430</v>
+      </c>
+      <c r="C93" t="s">
+        <v>855</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>766</v>
+        <v>857</v>
       </c>
       <c r="J93" t="s">
-        <v>767</v>
+        <v>858</v>
       </c>
       <c r="K93" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="L93" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>764</v>
+        <v>854</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8991,50 +9638,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>770</v>
+        <v>861</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57216</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>87969</v>
+      </c>
+      <c r="C94" t="s">
+        <v>862</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="J94" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="K94" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
       <c r="L94" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>776</v>
+        <v>868</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9058,50 +9709,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57216</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>177431</v>
+      </c>
+      <c r="C95" t="s">
+        <v>869</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>778</v>
+        <v>871</v>
       </c>
       <c r="J95" t="s">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="K95" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="L95" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="O95" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9125,7 +9780,7 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>783</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
